--- a/Portfolio/投资组合基金模式.xlsx
+++ b/Portfolio/投资组合基金模式.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20342"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835EA00A-24BF-4A75-B9F9-30B80C3F772C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0707FB78-F2F1-2845-B462-271FBFBE3263}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票账户月报" sheetId="1" r:id="rId1"/>
     <sheet name="天天基金账户月报" sheetId="2" r:id="rId2"/>
+    <sheet name="整体情况" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>期初净资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,15 +67,59 @@
     <t>年化收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>期初净资产</t>
+  </si>
+  <si>
+    <t>净转入</t>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
+    <t>期末净资产</t>
+  </si>
+  <si>
+    <t>期初净值</t>
+  </si>
+  <si>
+    <t>期初份额</t>
+  </si>
+  <si>
+    <t>期末净值</t>
+  </si>
+  <si>
+    <t>期末份额</t>
+  </si>
+  <si>
+    <t>份额净值 = 总资产 / 总份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>份额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +150,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,10 +190,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,14 +211,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -157,19 +227,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -200,6 +287,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>股票账户净值</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -265,7 +377,7 @@
             <c:numRef>
               <c:f>股票账户月报!$A$2:$A$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -415,136 +527,136 @@
                   <c:v>0.97196400000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0185385466951451</c:v>
+                  <c:v>1.0180187999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.130295175997565</c:v>
+                  <c:v>1.1406098424283841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1100782592613117</c:v>
+                  <c:v>1.1912039832235846</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1344143287671185</c:v>
+                  <c:v>1.294033476526506</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98586781490219955</c:v>
+                  <c:v>1.1305054433595971</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.99213531158842916</c:v>
+                  <c:v>1.1327706531764798</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99435138027229231</c:v>
+                  <c:v>1.1340288563828602</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9937279151282582</c:v>
+                  <c:v>1.1397162234820073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0014123409976114</c:v>
+                  <c:v>1.1452223088600351</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0171946338369562</c:v>
+                  <c:v>1.1624499499759697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0143856132537425</c:v>
+                  <c:v>1.1647708308373772</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0239658591583436</c:v>
+                  <c:v>1.1758948062974188</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0266514033267751</c:v>
+                  <c:v>1.1795662471408326</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0297439835751379</c:v>
+                  <c:v>1.1831462642214032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0537015538012742</c:v>
+                  <c:v>1.2116214911486907</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.0504408503690901</c:v>
+                  <c:v>1.2112993472574762</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0637146709706924</c:v>
+                  <c:v>1.2265787715587697</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0598526522129532</c:v>
+                  <c:v>1.2229715628068865</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.053230581071305</c:v>
+                  <c:v>1.2157523401012973</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0314144704090003</c:v>
+                  <c:v>1.1899440149469613</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98970451368186441</c:v>
+                  <c:v>1.1408038068218567</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92637851422196582</c:v>
+                  <c:v>1.0724720499558398</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.94310965534938285</c:v>
+                  <c:v>1.094725418977065</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.84537168503981919</c:v>
+                  <c:v>0.9919333709072824</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96437816877645333</c:v>
+                  <c:v>1.1108588941075013</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95753375049817946</c:v>
+                  <c:v>1.098853659438475</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.98252669370074364</c:v>
+                  <c:v>1.1256800527994557</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0498006642249567</c:v>
+                  <c:v>1.19816375343222</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0232089047646971</c:v>
+                  <c:v>1.1713762864504353</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.98177717727387981</c:v>
+                  <c:v>1.1280324541590157</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.99550643122811178</c:v>
+                  <c:v>1.1435739502182383</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.0499995378885427</c:v>
+                  <c:v>1.2039833748901534</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.0510202537338242</c:v>
+                  <c:v>1.2078270097680459</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0268128541413513</c:v>
+                  <c:v>1.1769955435304902</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0276546272728058</c:v>
+                  <c:v>1.1756751087364359</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.99592934022660862</c:v>
+                  <c:v>1.1291201217829552</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.99760342086376586</c:v>
+                  <c:v>1.1310564032909514</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.89923322391422889</c:v>
+                  <c:v>1.0255377574187186</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.92802498760768004</c:v>
+                  <c:v>1.0596457490092357</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.87695791761212794</c:v>
+                  <c:v>1.005759943032412</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.8825680203408407</c:v>
+                  <c:v>1.0179647195759838</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0960867656960289</c:v>
+                  <c:v>1.2225385618472964</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.1718189333626166</c:v>
+                  <c:v>1.3353189494986135</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.2131321712625271</c:v>
+                  <c:v>1.3971944412821795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,7 +687,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -806,7 +918,7 @@
             <c:numRef>
               <c:f>天天基金账户月报!$A$2:$A$47</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>42643</c:v>
@@ -917,97 +1029,97 @@
                   <c:v>1.0067411764705883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0126149603262711</c:v>
+                  <c:v>1.0127000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.99587265453459306</c:v>
+                  <c:v>0.99582058823529429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0616042620717114</c:v>
+                  <c:v>1.0613500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1182422443776474</c:v>
+                  <c:v>1.1255264705882355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0424630789959159</c:v>
+                  <c:v>1.1481695110773138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.052181669698675</c:v>
+                  <c:v>1.1640470295908056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0437585533621858</c:v>
+                  <c:v>1.1555124846088876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0274600333252764</c:v>
+                  <c:v>1.1576120743899543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0598898362327192</c:v>
+                  <c:v>1.2022190622483344</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0430360637771614</c:v>
+                  <c:v>1.1850872521653553</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0556428652089869</c:v>
+                  <c:v>1.1984562038046584</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0696665837399184</c:v>
+                  <c:v>1.2151410098772508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0987501921268146</c:v>
+                  <c:v>1.2496681513415249</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0651046644275868</c:v>
+                  <c:v>1.2129789231584753</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0792486156940599</c:v>
+                  <c:v>1.2320869979841793</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.066009194469649</c:v>
+                  <c:v>1.2178649758961044</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0417500564978088</c:v>
+                  <c:v>1.1906434998496458</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.0742827082546511</c:v>
+                  <c:v>1.2261965169411908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.064126250838914</c:v>
+                  <c:v>1.2170111318299293</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0855439364585711</c:v>
+                  <c:v>1.2570227282220425</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0144191617170277</c:v>
+                  <c:v>1.1984856679814151</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0287601243099931</c:v>
+                  <c:v>1.2188637764717869</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97678666141932569</c:v>
+                  <c:v>1.1758499931271238</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.98308526269985341</c:v>
+                  <c:v>1.1843778338099691</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96311670616201472</c:v>
+                  <c:v>1.1544666514049207</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96904055264089162</c:v>
+                  <c:v>1.162416597774482</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.94165096874120624</c:v>
+                  <c:v>1.1303105863368452</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.94739370889609731</c:v>
+                  <c:v>1.1612762004860857</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.04601240207654</c:v>
+                  <c:v>1.2653967885226072</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.091821580661966</c:v>
+                  <c:v>1.3298832209798774</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1190094099619161</c:v>
+                  <c:v>1.3743601770706328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,7 +1150,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1189,6 +1301,572 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>资产净值</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>整体情况!$B$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>净值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>整体情况!$A$51:$A$95</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>整体情况!$B$51:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.97196399999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0180187999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1406098424283839</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1912039832235843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2940334765265062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1305054433595974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1327706531764801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1340288563828604</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1397162234820075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1452223088600355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.16244994997597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1647708308373774</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1758948062974193</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1796194712364478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1832224203604769</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2113863209938536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2115476639963485</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2272031244328305</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2245224653417117</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2182520949620643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1930747369789851</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1472993069522737</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0897594553884458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1082426635442753</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0164123178003053</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1264089850083745</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1186877517037437</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1397211701326029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2073361629529062</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1816381286101272</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1394159813858282</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1567031590536982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2116694927108445</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2192323964847362</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.184550491323956</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1872123301994808</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1422405367322011</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1467153875463505</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0857461510360373</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1048330883595732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0638743704200182</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0853545668823359</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2367183325148354</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3230913950345768</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3750354999586605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-386B-674E-90CF-5ED44306347F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="893533535"/>
+        <c:axId val="894305007"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="893533535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="894305007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="894305007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="893533535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1230,6 +1908,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2301,6 +3019,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2363,6 +3597,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381BCD88-8913-48B4-9B36-5068B8726694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57551C01-087B-3544-B35B-ABD0C588F0E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,23 +3923,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2694,7 +3970,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>42247</v>
       </c>
@@ -2718,8 +3994,8 @@
         <f>C2</f>
         <v>25000</v>
       </c>
-      <c r="H2" s="6">
-        <f>(SUM(D$2:D2)/(F2*G2))+1</f>
+      <c r="H2" s="14">
+        <f>(D2)/(G2)+1</f>
         <v>0.97196400000000005</v>
       </c>
       <c r="I2" s="8">
@@ -2727,7 +4003,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="3">
         <v>42277</v>
       </c>
@@ -2753,16 +4029,16 @@
         <f>I2</f>
         <v>25000</v>
       </c>
-      <c r="H3" s="6">
-        <f>(SUM(D$2:D3)/(F3*G3))+1</f>
-        <v>1.0185385466951451</v>
+      <c r="H3" s="14">
+        <f>(D3+E2)/G3</f>
+        <v>1.0180187999999999</v>
       </c>
       <c r="I3" s="4">
         <f>C3/H3+I2</f>
-        <v>44635.977513952763</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>44646.002608203307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3">
         <v>42308</v>
       </c>
@@ -2782,22 +4058,22 @@
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F46" si="2">H3</f>
-        <v>1.0185385466951451</v>
+        <v>1.0180187999999999</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" ref="G4:G46" si="3">I3</f>
-        <v>44635.977513952763</v>
-      </c>
-      <c r="H4" s="6">
-        <f>(SUM(D$2:D4)/(F4*G4))+1</f>
-        <v>1.130295175997565</v>
+        <v>44646.002608203307</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H46" si="4">(D4+E3)/G4</f>
+        <v>1.1406098424283841</v>
       </c>
       <c r="I4" s="4">
-        <f t="shared" ref="I4:I46" si="4">C4/H4+I3</f>
-        <v>80024.963373064471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I4:I46" si="5">C4/H4+I3</f>
+        <v>79714.961784321844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3">
         <v>42338</v>
       </c>
@@ -2817,22 +4093,22 @@
       </c>
       <c r="F5" s="6">
         <f t="shared" si="2"/>
-        <v>1.130295175997565</v>
+        <v>1.1406098424283841</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="3"/>
-        <v>80024.963373064471</v>
-      </c>
-      <c r="H5" s="6">
-        <f>(SUM(D$2:D5)/(F5*G5))+1</f>
-        <v>1.1100782592613117</v>
+        <v>79714.961784321844</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1912039832235846</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="4"/>
-        <v>196413.15395520831</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>188176.65417252606</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3">
         <v>42369</v>
       </c>
@@ -2852,22 +4128,22 @@
       </c>
       <c r="F6" s="6">
         <f t="shared" si="2"/>
-        <v>1.1100782592613117</v>
+        <v>1.1912039832235846</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="3"/>
-        <v>196413.15395520831</v>
-      </c>
-      <c r="H6" s="6">
-        <f>(SUM(D$2:D6)/(F6*G6))+1</f>
-        <v>1.1344143287671185</v>
+        <v>188176.65417252606</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="4"/>
+        <v>1.294033476526506</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="4"/>
-        <v>209635.83602085357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>199768.31719523517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3">
         <v>42400</v>
       </c>
@@ -2887,22 +4163,22 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="2"/>
-        <v>1.1344143287671185</v>
+        <v>1.294033476526506</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="3"/>
-        <v>209635.83602085357</v>
-      </c>
-      <c r="H7" s="6">
-        <f>(SUM(D$2:D7)/(F7*G7))+1</f>
-        <v>0.98586781490219955</v>
+        <v>199768.31719523517</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1305054433595971</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="4"/>
-        <v>341499.35568844341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>314761.12927199126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3">
         <v>42429</v>
       </c>
@@ -2922,22 +4198,22 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="2"/>
-        <v>0.98586781490219955</v>
+        <v>1.1305054433595971</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="3"/>
-        <v>341499.35568844341</v>
-      </c>
-      <c r="H8" s="6">
-        <f>(SUM(D$2:D8)/(F8*G8))+1</f>
-        <v>0.99213531158842916</v>
+        <v>314761.12927199126</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1327706531764798</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="4"/>
-        <v>391895.70729087654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>358900.69085031393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3">
         <v>42460</v>
       </c>
@@ -2957,22 +4233,22 @@
       </c>
       <c r="F9" s="6">
         <f t="shared" si="2"/>
-        <v>0.99213531158842916</v>
+        <v>1.1327706531764798</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="3"/>
-        <v>391895.70729087654</v>
-      </c>
-      <c r="H9" s="6">
-        <f>(SUM(D$2:D9)/(F9*G9))+1</f>
-        <v>0.99435138027229231</v>
+        <v>358900.69085031393</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1340288563828602</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="4"/>
-        <v>187943.65973152642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>180069.26265645097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3">
         <v>42490</v>
       </c>
@@ -2992,22 +4268,22 @@
       </c>
       <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>0.99435138027229231</v>
+        <v>1.1340288563828602</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="3"/>
-        <v>187943.65973152642</v>
-      </c>
-      <c r="H10" s="6">
-        <f>(SUM(D$2:D10)/(F10*G10))+1</f>
-        <v>0.9937279151282582</v>
+        <v>180069.26265645097</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1397162234820073</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="4"/>
-        <v>318764.17711954925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>294132.74382971192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3">
         <v>42521</v>
       </c>
@@ -3027,22 +4303,22 @@
       </c>
       <c r="F11" s="6">
         <f t="shared" si="2"/>
-        <v>0.9937279151282582</v>
+        <v>1.1397162234820073</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="3"/>
-        <v>318764.17711954925</v>
-      </c>
-      <c r="H11" s="6">
-        <f>(SUM(D$2:D11)/(F11*G11))+1</f>
-        <v>1.0014123409976114</v>
+        <v>294132.74382971192</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1452223088600351</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="4"/>
-        <v>330747.25293030421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>304611.05874478281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3">
         <v>42551</v>
       </c>
@@ -3062,22 +4338,22 @@
       </c>
       <c r="F12" s="6">
         <f t="shared" si="2"/>
-        <v>1.0014123409976114</v>
+        <v>1.1452223088600351</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="3"/>
-        <v>330747.25293030421</v>
-      </c>
-      <c r="H12" s="6">
-        <f>(SUM(D$2:D12)/(F12*G12))+1</f>
-        <v>1.0171946338369562</v>
+        <v>304611.05874478281</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1624499499759697</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="4"/>
-        <v>454715.66153696255</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>413088.84740364656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3">
         <v>42582</v>
       </c>
@@ -3097,22 +4373,22 @@
       </c>
       <c r="F13" s="6">
         <f t="shared" si="2"/>
-        <v>1.0171946338369562</v>
+        <v>1.1624499499759697</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="3"/>
-        <v>454715.66153696255</v>
-      </c>
-      <c r="H13" s="6">
-        <f>(SUM(D$2:D13)/(F13*G13))+1</f>
-        <v>1.0143856132537425</v>
+        <v>413088.84740364656</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1647708308373772</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="4"/>
-        <v>468024.20990714047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>424679.11017687776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3">
         <v>42613</v>
       </c>
@@ -3132,22 +4408,22 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" si="2"/>
-        <v>1.0143856132537425</v>
+        <v>1.1647708308373772</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="3"/>
-        <v>468024.20990714047</v>
-      </c>
-      <c r="H14" s="6">
-        <f>(SUM(D$2:D14)/(F14*G14))+1</f>
-        <v>1.0239658591583436</v>
+        <v>424679.11017687776</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1758948062974188</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="4"/>
-        <v>474860.37532944634</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>430632.02361991024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3">
         <v>42643</v>
       </c>
@@ -3167,22 +4443,22 @@
       </c>
       <c r="F15" s="6">
         <f t="shared" si="2"/>
-        <v>1.0239658591583436</v>
+        <v>1.1758948062974188</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="3"/>
-        <v>474860.37532944634</v>
-      </c>
-      <c r="H15" s="6">
-        <f>(SUM(D$2:D15)/(F15*G15))+1</f>
-        <v>1.0266514033267751</v>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1795662471408326</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="4"/>
-        <v>474860.37532944634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>430632.02361991024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3">
         <v>42674</v>
       </c>
@@ -3202,22 +4478,22 @@
       </c>
       <c r="F16" s="6">
         <f t="shared" si="2"/>
-        <v>1.0266514033267751</v>
+        <v>1.1795662471408326</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="3"/>
-        <v>474860.37532944634</v>
-      </c>
-      <c r="H16" s="6">
-        <f>(SUM(D$2:D16)/(F16*G16))+1</f>
-        <v>1.0297439835751379</v>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1831462642214032</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="4"/>
-        <v>491369.33315892372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>445000.49226498284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>42704</v>
       </c>
@@ -3237,22 +4513,22 @@
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>1.0297439835751379</v>
+        <v>1.1831462642214032</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="3"/>
-        <v>491369.33315892372</v>
-      </c>
-      <c r="H17" s="6">
-        <f>(SUM(D$2:D17)/(F17*G17))+1</f>
-        <v>1.0537015538012742</v>
+        <v>445000.49226498284</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2116214911486907</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="4"/>
-        <v>508451.96906760603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>459856.61699658935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>42735</v>
       </c>
@@ -3272,22 +4548,22 @@
       </c>
       <c r="F18" s="6">
         <f t="shared" si="2"/>
-        <v>1.0537015538012742</v>
+        <v>1.2116214911486907</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="3"/>
-        <v>508451.96906760603</v>
-      </c>
-      <c r="H18" s="6">
-        <f>(SUM(D$2:D18)/(F18*G18))+1</f>
-        <v>1.0504408503690901</v>
+        <v>459856.61699658935</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2112993472574762</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="4"/>
-        <v>508832.7615699725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>460186.8409011144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>42766</v>
       </c>
@@ -3307,22 +4583,22 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="2"/>
-        <v>1.0504408503690901</v>
+        <v>1.2112993472574762</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="3"/>
-        <v>508832.7615699725</v>
-      </c>
-      <c r="H19" s="6">
-        <f>(SUM(D$2:D19)/(F19*G19))+1</f>
-        <v>1.0637146709706924</v>
+        <v>460186.8409011144</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2265787715587697</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="4"/>
-        <v>508832.7615699725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>460186.8409011144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>42794</v>
       </c>
@@ -3342,22 +4618,22 @@
       </c>
       <c r="F20" s="6">
         <f t="shared" si="2"/>
-        <v>1.0637146709706924</v>
+        <v>1.2265787715587697</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="3"/>
-        <v>508832.7615699725</v>
-      </c>
-      <c r="H20" s="6">
-        <f>(SUM(D$2:D20)/(F20*G20))+1</f>
-        <v>1.0598526522129532</v>
+        <v>460186.8409011144</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2229715628068865</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="4"/>
-        <v>514682.63134862005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>465256.46000637813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>42825</v>
       </c>
@@ -3377,22 +4653,22 @@
       </c>
       <c r="F21" s="6">
         <f t="shared" si="2"/>
-        <v>1.0598526522129532</v>
+        <v>1.2229715628068865</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="3"/>
-        <v>514682.63134862005</v>
-      </c>
-      <c r="H21" s="6">
-        <f>(SUM(D$2:D21)/(F21*G21))+1</f>
-        <v>1.053230581071305</v>
+        <v>465256.46000637813</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2157523401012973</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="4"/>
-        <v>514682.63134862005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>465256.46000637813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>42855</v>
       </c>
@@ -3412,22 +4688,22 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" si="2"/>
-        <v>1.053230581071305</v>
+        <v>1.2157523401012973</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="3"/>
-        <v>514682.63134862005</v>
-      </c>
-      <c r="H22" s="6">
-        <f>(SUM(D$2:D22)/(F22*G22))+1</f>
-        <v>1.0314144704090003</v>
+        <v>465256.46000637813</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1899440149469613</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="4"/>
-        <v>503164.46833963197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>455272.79703503277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>42886</v>
       </c>
@@ -3447,22 +4723,22 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="2"/>
-        <v>1.0314144704090003</v>
+        <v>1.1899440149469613</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="3"/>
-        <v>503164.46833963197</v>
-      </c>
-      <c r="H23" s="6">
-        <f>(SUM(D$2:D23)/(F23*G23))+1</f>
-        <v>0.98970451368186441</v>
+        <v>455272.79703503277</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1408038068218567</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="4"/>
-        <v>487726.52722813841</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>441879.60890870151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>42916</v>
       </c>
@@ -3482,22 +4758,22 @@
       </c>
       <c r="F24" s="6">
         <f t="shared" si="2"/>
-        <v>0.98970451368186441</v>
+        <v>1.1408038068218567</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="3"/>
-        <v>487726.52722813841</v>
-      </c>
-      <c r="H24" s="6">
-        <f>(SUM(D$2:D24)/(F24*G24))+1</f>
-        <v>0.92637851422196582</v>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0724720499558398</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="4"/>
-        <v>487726.52722813841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>441879.60890870151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>42947</v>
       </c>
@@ -3517,22 +4793,22 @@
       </c>
       <c r="F25" s="6">
         <f t="shared" si="2"/>
-        <v>0.92637851422196582</v>
+        <v>1.0724720499558398</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="3"/>
-        <v>487726.52722813841</v>
-      </c>
-      <c r="H25" s="6">
-        <f>(SUM(D$2:D25)/(F25*G25))+1</f>
-        <v>0.94310965534938285</v>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="4"/>
+        <v>1.094725418977065</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="4"/>
-        <v>487726.52722813841</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>441879.60890870151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>42978</v>
       </c>
@@ -3552,22 +4828,22 @@
       </c>
       <c r="F26" s="6">
         <f t="shared" si="2"/>
-        <v>0.94310965534938285</v>
+        <v>1.094725418977065</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="3"/>
-        <v>487726.52722813841</v>
-      </c>
-      <c r="H26" s="6">
-        <f>(SUM(D$2:D26)/(F26*G26))+1</f>
-        <v>0.84537168503981919</v>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="4"/>
+        <v>0.9919333709072824</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="4"/>
-        <v>517299.31804005499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>467082.91462784825</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>43008</v>
       </c>
@@ -3587,22 +4863,22 @@
       </c>
       <c r="F27" s="6">
         <f t="shared" si="2"/>
-        <v>0.84537168503981919</v>
+        <v>0.9919333709072824</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="3"/>
-        <v>517299.31804005499</v>
-      </c>
-      <c r="H27" s="6">
-        <f>(SUM(D$2:D27)/(F27*G27))+1</f>
-        <v>0.96437816877645333</v>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1108588941075013</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="4"/>
-        <v>517299.31804005499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>467082.91462784825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>43039</v>
       </c>
@@ -3622,22 +4898,22 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="2"/>
-        <v>0.96437816877645333</v>
+        <v>1.1108588941075013</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="3"/>
-        <v>517299.31804005499</v>
-      </c>
-      <c r="H28" s="6">
-        <f>(SUM(D$2:D28)/(F28*G28))+1</f>
-        <v>0.95753375049817946</v>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="4"/>
+        <v>1.098853659438475</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="4"/>
-        <v>517299.31804005499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>467082.91462784825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>43069</v>
       </c>
@@ -3657,22 +4933,22 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="2"/>
-        <v>0.95753375049817946</v>
+        <v>1.098853659438475</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="3"/>
-        <v>517299.31804005499</v>
-      </c>
-      <c r="H29" s="6">
-        <f>(SUM(D$2:D29)/(F29*G29))+1</f>
-        <v>0.98252669370074364</v>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1256800527994557</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="4"/>
-        <v>525034.47683902271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>473834.38897537673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>43100</v>
       </c>
@@ -3692,22 +4968,22 @@
       </c>
       <c r="F30" s="6">
         <f t="shared" si="2"/>
-        <v>0.98252669370074364</v>
+        <v>1.1256800527994557</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="3"/>
-        <v>525034.47683902271</v>
-      </c>
-      <c r="H30" s="6">
-        <f>(SUM(D$2:D30)/(F30*G30))+1</f>
-        <v>1.0498006642249567</v>
+        <v>473834.38897537673</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="4"/>
+        <v>1.19816375343222</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="4"/>
-        <v>529321.00489463436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>477590.13604009093</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>43131</v>
       </c>
@@ -3727,22 +5003,22 @@
       </c>
       <c r="F31" s="6">
         <f t="shared" si="2"/>
-        <v>1.0498006642249567</v>
+        <v>1.19816375343222</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="3"/>
-        <v>529321.00489463436</v>
-      </c>
-      <c r="H31" s="6">
-        <f>(SUM(D$2:D31)/(F31*G31))+1</f>
-        <v>1.0232089047646971</v>
+        <v>477590.13604009093</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1713762864504353</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="4"/>
-        <v>636825.93325068324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>571496.76644775236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>43159</v>
       </c>
@@ -3762,22 +5038,22 @@
       </c>
       <c r="F32" s="6">
         <f t="shared" si="2"/>
-        <v>1.0232089047646971</v>
+        <v>1.1713762864504353</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="3"/>
-        <v>636825.93325068324</v>
-      </c>
-      <c r="H32" s="6">
-        <f>(SUM(D$2:D32)/(F32*G32))+1</f>
-        <v>0.98177717727387981</v>
+        <v>571496.76644775236</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1280324541590157</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="4"/>
-        <v>647011.5438265648</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>580361.75961628254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>43190</v>
       </c>
@@ -3797,22 +5073,22 @@
       </c>
       <c r="F33" s="6">
         <f t="shared" si="2"/>
-        <v>0.98177717727387981</v>
+        <v>1.1280324541590157</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="3"/>
-        <v>647011.5438265648</v>
-      </c>
-      <c r="H33" s="6">
-        <f>(SUM(D$2:D33)/(F33*G33))+1</f>
-        <v>0.99550643122811178</v>
+        <v>580361.75961628254</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1435739502182383</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="4"/>
-        <v>647011.5438265648</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>580361.75961628254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>43220</v>
       </c>
@@ -3832,22 +5108,22 @@
       </c>
       <c r="F34" s="6">
         <f t="shared" si="2"/>
-        <v>0.99550643122811178</v>
+        <v>1.1435739502182383</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="3"/>
-        <v>647011.5438265648</v>
-      </c>
-      <c r="H34" s="6">
-        <f>(SUM(D$2:D34)/(F34*G34))+1</f>
-        <v>1.0499995378885427</v>
+        <v>580361.75961628254</v>
+      </c>
+      <c r="H34" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2039833748901534</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="4"/>
-        <v>642519.16089705843</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>576443.93143162807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>43251</v>
       </c>
@@ -3867,22 +5143,22 @@
       </c>
       <c r="F35" s="6">
         <f t="shared" si="2"/>
-        <v>1.0499995378885427</v>
+        <v>1.2039833748901534</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="3"/>
-        <v>642519.16089705843</v>
-      </c>
-      <c r="H35" s="6">
-        <f>(SUM(D$2:D35)/(F35*G35))+1</f>
-        <v>1.0510202537338242</v>
+        <v>576443.93143162807</v>
+      </c>
+      <c r="H35" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2078270097680459</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="4"/>
-        <v>616000.16670928453</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>553367.77915601979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>43281</v>
       </c>
@@ -3902,22 +5178,22 @@
       </c>
       <c r="F36" s="6">
         <f t="shared" si="2"/>
-        <v>1.0510202537338242</v>
+        <v>1.2078270097680459</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="3"/>
-        <v>616000.16670928453</v>
-      </c>
-      <c r="H36" s="6">
-        <f>(SUM(D$2:D36)/(F36*G36))+1</f>
-        <v>1.0268128541413513</v>
+        <v>553367.77915601979</v>
+      </c>
+      <c r="H36" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1769955435304902</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="4"/>
-        <v>586783.54765450384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>527879.1524871263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>43312</v>
       </c>
@@ -3937,22 +5213,22 @@
       </c>
       <c r="F37" s="6">
         <f t="shared" si="2"/>
-        <v>1.0268128541413513</v>
+        <v>1.1769955435304902</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="3"/>
-        <v>586783.54765450384</v>
-      </c>
-      <c r="H37" s="6">
-        <f>(SUM(D$2:D37)/(F37*G37))+1</f>
-        <v>1.0276546272728058</v>
+        <v>527879.1524871263</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1756751087364359</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="4"/>
-        <v>437281.47183772753</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>397199.76763128652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>43343</v>
       </c>
@@ -3972,22 +5248,22 @@
       </c>
       <c r="F38" s="6">
         <f t="shared" si="2"/>
-        <v>1.0276546272728058</v>
+        <v>1.1756751087364359</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="3"/>
-        <v>437281.47183772753</v>
-      </c>
-      <c r="H38" s="6">
-        <f>(SUM(D$2:D38)/(F38*G38))+1</f>
-        <v>0.99592934022660862</v>
+        <v>397199.76763128652</v>
+      </c>
+      <c r="H38" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1291201217829552</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="4"/>
-        <v>441297.82102881558</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>400742.34908283636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>43373</v>
       </c>
@@ -4007,22 +5283,22 @@
       </c>
       <c r="F39" s="6">
         <f t="shared" si="2"/>
-        <v>0.99592934022660862</v>
+        <v>1.1291201217829552</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="3"/>
-        <v>441297.82102881558</v>
-      </c>
-      <c r="H39" s="6">
-        <f>(SUM(D$2:D39)/(F39*G39))+1</f>
-        <v>0.99760342086376586</v>
+        <v>400742.34908283636</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="4"/>
+        <v>1.1310564032909514</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="4"/>
-        <v>304174.03301939077</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>279797.75286112964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>43404</v>
       </c>
@@ -4042,22 +5318,22 @@
       </c>
       <c r="F40" s="6">
         <f t="shared" si="2"/>
-        <v>0.99760342086376586</v>
+        <v>1.1310564032909514</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="3"/>
-        <v>304174.03301939077</v>
-      </c>
-      <c r="H40" s="6">
-        <f>(SUM(D$2:D40)/(F40*G40))+1</f>
-        <v>0.89923322391422889</v>
+        <v>279797.75286112964</v>
+      </c>
+      <c r="H40" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0255377574187186</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="4"/>
-        <v>318408.3825291692</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>292279.00955539086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="3">
         <v>43434</v>
       </c>
@@ -4077,22 +5353,22 @@
       </c>
       <c r="F41" s="6">
         <f t="shared" si="2"/>
-        <v>0.89923322391422889</v>
+        <v>1.0255377574187186</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="3"/>
-        <v>318408.3825291692</v>
-      </c>
-      <c r="H41" s="6">
-        <f>(SUM(D$2:D41)/(F41*G41))+1</f>
-        <v>0.92802498760768004</v>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H41" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0596457490092357</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="4"/>
-        <v>318408.3825291692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>292279.00955539086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="3">
         <v>43465</v>
       </c>
@@ -4112,22 +5388,22 @@
       </c>
       <c r="F42" s="6">
         <f t="shared" si="2"/>
-        <v>0.92802498760768004</v>
+        <v>1.0596457490092357</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="3"/>
-        <v>318408.3825291692</v>
-      </c>
-      <c r="H42" s="6">
-        <f>(SUM(D$2:D42)/(F42*G42))+1</f>
-        <v>0.87695791761212794</v>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H42" s="14">
+        <f t="shared" si="4"/>
+        <v>1.005759943032412</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="4"/>
-        <v>318408.3825291692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>292279.00955539086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="3">
         <v>43496</v>
       </c>
@@ -4147,22 +5423,22 @@
       </c>
       <c r="F43" s="6">
         <f t="shared" si="2"/>
-        <v>0.87695791761212794</v>
+        <v>1.005759943032412</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="3"/>
-        <v>318408.3825291692</v>
-      </c>
-      <c r="H43" s="6">
-        <f>(SUM(D$2:D43)/(F43*G43))+1</f>
-        <v>0.8825680203408407</v>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H43" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0179647195759838</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="4"/>
-        <v>318408.3825291692</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>292279.00955539086</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="3">
         <v>43524</v>
       </c>
@@ -4182,22 +5458,22 @@
       </c>
       <c r="F44" s="6">
         <f t="shared" si="2"/>
-        <v>0.8825680203408407</v>
+        <v>1.0179647195759838</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="3"/>
-        <v>318408.3825291692</v>
-      </c>
-      <c r="H44" s="6">
-        <f>(SUM(D$2:D44)/(F44*G44))+1</f>
-        <v>1.0960867656960289</v>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H44" s="14">
+        <f t="shared" si="4"/>
+        <v>1.2225385618472964</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="4"/>
-        <v>318408.3825291692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>292279.00955539086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>43555</v>
       </c>
@@ -4217,22 +5493,22 @@
       </c>
       <c r="F45" s="6">
         <f t="shared" si="2"/>
-        <v>1.0960867656960289</v>
+        <v>1.2225385618472964</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="3"/>
-        <v>318408.3825291692</v>
-      </c>
-      <c r="H45" s="6">
-        <f>(SUM(D$2:D45)/(F45*G45))+1</f>
-        <v>1.1718189333626166</v>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H45" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3353189494986135</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="4"/>
-        <v>310872.23530661257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>285665.6083127021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="3">
         <v>43585</v>
       </c>
@@ -4251,28 +5527,28 @@
       </c>
       <c r="F46" s="6">
         <f t="shared" si="2"/>
-        <v>1.1718189333626166</v>
+        <v>1.3353189494986135</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="3"/>
-        <v>310872.23530661257</v>
-      </c>
-      <c r="H46" s="6">
-        <f>(SUM(D$2:D46)/(F46*G46))+1</f>
-        <v>1.2131321712625271</v>
+        <v>285665.6083127021</v>
+      </c>
+      <c r="H46" s="14">
+        <f t="shared" si="4"/>
+        <v>1.3971944412821795</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="4"/>
-        <v>310872.23530661257</v>
+        <f t="shared" si="5"/>
+        <v>285665.6083127021</v>
       </c>
       <c r="J46" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="6">
+    <row r="47" spans="1:10">
+      <c r="J47" s="17">
         <f>H46^(1/YEARFRAC(A46,A2))</f>
-        <v>1.0541053868375856</v>
+        <v>1.0955078762581836</v>
       </c>
     </row>
   </sheetData>
@@ -4287,18 +5563,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10E3B0-8DFB-4320-94CE-6A1DBDC28148}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -4330,7 +5607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="10">
         <v>42643</v>
       </c>
@@ -4355,7 +5632,7 @@
         <v>3400</v>
       </c>
       <c r="H2" s="14">
-        <f>(SUM(D$2:D2)/(F2*G2))+1</f>
+        <f>(D2)/G2+1</f>
         <v>1.0067411764705883</v>
       </c>
       <c r="I2" s="13">
@@ -4363,7 +5640,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="10">
         <v>42674</v>
       </c>
@@ -4379,7 +5656,7 @@
         <v>20.259999999999998</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E45" si="0">SUM(B3:D3)</f>
+        <f t="shared" ref="E3" si="0">SUM(B3:D3)</f>
         <v>3443.1800000000003</v>
       </c>
       <c r="F3" s="14">
@@ -4391,15 +5668,15 @@
         <v>3400</v>
       </c>
       <c r="H3" s="14">
-        <f>(SUM(D$2:D3)/(F3*G3))+1</f>
-        <v>1.0126149603262711</v>
+        <f>(D3+E2)/G3</f>
+        <v>1.0127000000000002</v>
       </c>
       <c r="I3" s="15">
         <f>C3/H3+I2</f>
         <v>3400</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="10">
         <v>42704</v>
       </c>
@@ -4415,27 +5692,27 @@
         <v>-57.39</v>
       </c>
       <c r="E4" s="11">
-        <f t="shared" ref="E4:E33" si="2">SUM(B4:D4)</f>
+        <f t="shared" ref="E4:E5" si="2">SUM(B4:D4)</f>
         <v>3385.7900000000004</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" ref="F4:F33" si="3">H3</f>
-        <v>1.0126149603262711</v>
+        <v>1.0127000000000002</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" ref="G4:G33" si="4">I3</f>
         <v>3400</v>
       </c>
       <c r="H4" s="14">
-        <f>(SUM(D$2:D4)/(F4*G4))+1</f>
-        <v>0.99587265453459306</v>
+        <f t="shared" ref="H4:H33" si="5">(D4+E3)/G4</f>
+        <v>0.99582058823529429</v>
       </c>
       <c r="I4" s="15">
-        <f t="shared" ref="I4:I33" si="5">C4/H4+I3</f>
+        <f t="shared" ref="I4:I33" si="6">C4/H4+I3</f>
         <v>3400</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="10">
         <v>42735</v>
       </c>
@@ -4455,22 +5732,22 @@
       </c>
       <c r="F5" s="14">
         <f t="shared" si="3"/>
-        <v>0.99587265453459306</v>
+        <v>0.99582058823529429</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="4"/>
         <v>3400</v>
       </c>
       <c r="H5" s="14">
-        <f>(SUM(D$2:D5)/(F5*G5))+1</f>
-        <v>1.0616042620717114</v>
+        <f t="shared" si="5"/>
+        <v>1.0613500000000002</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3400</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>42766</v>
       </c>
@@ -4490,22 +5767,22 @@
       </c>
       <c r="F6" s="6">
         <f t="shared" si="3"/>
-        <v>1.0616042620717114</v>
+        <v>1.0613500000000002</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="4"/>
         <v>3400</v>
       </c>
-      <c r="H6" s="6">
-        <f>(SUM(D$2:D6)/(F6*G6))+1</f>
-        <v>1.1182422443776474</v>
+      <c r="H6" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1255264705882355</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="5"/>
-        <v>17100.072660487152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>17011.407994690064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>42794</v>
       </c>
@@ -4517,7 +5794,7 @@
         <v>3960</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D33" si="6">E7-C7-B7</f>
+        <f t="shared" ref="D7:D33" si="7">E7-C7-B7</f>
         <v>385.18999999999869</v>
       </c>
       <c r="E7" s="5">
@@ -4525,22 +5802,22 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="3"/>
-        <v>1.1182422443776474</v>
+        <v>1.1255264705882355</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="4"/>
-        <v>17100.072660487152</v>
-      </c>
-      <c r="H7" s="6">
-        <f>(SUM(D$2:D7)/(F7*G7))+1</f>
-        <v>1.0424630789959159</v>
+        <v>17011.407994690064</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1481695110773138</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="5"/>
-        <v>20898.768345531662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>20460.376079798316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>42825</v>
       </c>
@@ -4552,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>324.86000000000058</v>
       </c>
       <c r="E8" s="5">
@@ -4560,22 +5837,22 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="3"/>
-        <v>1.0424630789959159</v>
+        <v>1.1481695110773138</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="4"/>
-        <v>20898.768345531662</v>
-      </c>
-      <c r="H8" s="6">
-        <f>(SUM(D$2:D8)/(F8*G8))+1</f>
-        <v>1.052181669698675</v>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1640470295908056</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="5"/>
-        <v>20898.768345531662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>20460.376079798316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>42855</v>
       </c>
@@ -4587,7 +5864,7 @@
         <v>15840</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-174.61999999999898</v>
       </c>
       <c r="E9" s="5">
@@ -4595,22 +5872,22 @@
       </c>
       <c r="F9" s="6">
         <f t="shared" si="3"/>
-        <v>1.052181669698675</v>
+        <v>1.1640470295908056</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="4"/>
-        <v>20898.768345531662</v>
-      </c>
-      <c r="H9" s="6">
-        <f>(SUM(D$2:D9)/(F9*G9))+1</f>
-        <v>1.0437585533621858</v>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1555124846088876</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="5"/>
-        <v>36074.691885488028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>34168.579332454174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>42886</v>
       </c>
@@ -4622,7 +5899,7 @@
         <v>15840</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>71.739999999997963</v>
       </c>
       <c r="E10" s="5">
@@ -4630,22 +5907,22 @@
       </c>
       <c r="F10" s="6">
         <f t="shared" si="3"/>
-        <v>1.0437585533621858</v>
+        <v>1.1555124846088876</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="4"/>
-        <v>36074.691885488028</v>
-      </c>
-      <c r="H10" s="6">
-        <f>(SUM(D$2:D10)/(F10*G10))+1</f>
-        <v>1.0274600333252764</v>
+        <v>34168.579332454174</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1576120743899543</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="5"/>
-        <v>51491.349941505403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>47851.919676280027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>42916</v>
       </c>
@@ -4657,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2134.5299999999988</v>
       </c>
       <c r="E11" s="5">
@@ -4665,22 +5942,22 @@
       </c>
       <c r="F11" s="6">
         <f t="shared" si="3"/>
-        <v>1.0274600333252764</v>
+        <v>1.1576120743899543</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="4"/>
-        <v>51491.349941505403</v>
-      </c>
-      <c r="H11" s="6">
-        <f>(SUM(D$2:D11)/(F11*G11))+1</f>
-        <v>1.0598898362327192</v>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2022190622483344</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="5"/>
-        <v>51491.349941505403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>47851.919676280027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>42947</v>
       </c>
@@ -4692,7 +5969,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-819.79000000000087</v>
       </c>
       <c r="E12" s="5">
@@ -4700,22 +5977,22 @@
       </c>
       <c r="F12" s="6">
         <f t="shared" si="3"/>
-        <v>1.0598898362327192</v>
+        <v>1.2022190622483344</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="4"/>
-        <v>51491.349941505403</v>
-      </c>
-      <c r="H12" s="6">
-        <f>(SUM(D$2:D12)/(F12*G12))+1</f>
-        <v>1.0430360637771614</v>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1850872521653553</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="5"/>
-        <v>51491.349941505403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>47851.919676280027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>42978</v>
       </c>
@@ -4727,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>639.7300000000032</v>
       </c>
       <c r="E13" s="5">
@@ -4735,22 +6012,22 @@
       </c>
       <c r="F13" s="6">
         <f t="shared" si="3"/>
-        <v>1.0430360637771614</v>
+        <v>1.1850872521653553</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="4"/>
-        <v>51491.349941505403</v>
-      </c>
-      <c r="H13" s="6">
-        <f>(SUM(D$2:D13)/(F13*G13))+1</f>
-        <v>1.0556428652089869</v>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1984562038046584</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="5"/>
-        <v>51491.349941505403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>47851.919676280027</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>43008</v>
       </c>
@@ -4762,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>798.40000000000146</v>
       </c>
       <c r="E14" s="5">
@@ -4770,22 +6047,22 @@
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
-        <v>1.0556428652089869</v>
+        <v>1.1984562038046584</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="4"/>
-        <v>51491.349941505403</v>
-      </c>
-      <c r="H14" s="6">
-        <f>(SUM(D$2:D14)/(F14*G14))+1</f>
-        <v>1.0696665837399184</v>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2151410098772508</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="5"/>
-        <v>51491.349941505403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>47851.919676280027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>43039</v>
       </c>
@@ -4797,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1652.1899999999951</v>
       </c>
       <c r="E15" s="5">
@@ -4805,22 +6082,22 @@
       </c>
       <c r="F15" s="6">
         <f t="shared" si="3"/>
-        <v>1.0696665837399184</v>
+        <v>1.2151410098772508</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="4"/>
-        <v>51491.349941505403</v>
-      </c>
-      <c r="H15" s="6">
-        <f>(SUM(D$2:D15)/(F15*G15))+1</f>
-        <v>1.0987501921268146</v>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2496681513415249</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="5"/>
-        <v>51491.349941505403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>47851.919676280027</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>43069</v>
       </c>
@@ -4832,7 +6109,7 @@
         <v>3960</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1755.6499999999942</v>
       </c>
       <c r="E16" s="5">
@@ -4840,22 +6117,22 @@
       </c>
       <c r="F16" s="6">
         <f t="shared" si="3"/>
-        <v>1.0987501921268146</v>
+        <v>1.2496681513415249</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="4"/>
-        <v>51491.349941505403</v>
-      </c>
-      <c r="H16" s="6">
-        <f>(SUM(D$2:D16)/(F16*G16))+1</f>
-        <v>1.0651046644275868</v>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2129789231584753</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="5"/>
-        <v>55209.294414247153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>51116.60954384059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="3">
         <v>43100</v>
       </c>
@@ -4867,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>976.73999999999796</v>
       </c>
       <c r="E17" s="5">
@@ -4875,22 +6152,22 @@
       </c>
       <c r="F17" s="6">
         <f t="shared" si="3"/>
-        <v>1.0651046644275868</v>
+        <v>1.2129789231584753</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="4"/>
-        <v>55209.294414247153</v>
-      </c>
-      <c r="H17" s="6">
-        <f>(SUM(D$2:D17)/(F17*G17))+1</f>
-        <v>1.0792486156940599</v>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2320869979841793</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="5"/>
-        <v>55209.294414247153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>51116.60954384059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="3">
         <v>43131</v>
       </c>
@@ -4902,7 +6179,7 @@
         <v>1318.48155</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-726.98154999999679</v>
       </c>
       <c r="E18" s="5">
@@ -4910,22 +6187,22 @@
       </c>
       <c r="F18" s="6">
         <f t="shared" si="3"/>
-        <v>1.0792486156940599</v>
+        <v>1.2320869979841793</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="4"/>
-        <v>55209.294414247153</v>
-      </c>
-      <c r="H18" s="6">
-        <f>(SUM(D$2:D18)/(F18*G18))+1</f>
-        <v>1.066009194469649</v>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2178649758961044</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="5"/>
-        <v>56446.13323031005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>52199.226727268382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="3">
         <v>43159</v>
       </c>
@@ -4937,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1420.9400000000023</v>
       </c>
       <c r="E19" s="5">
@@ -4945,22 +6222,22 @@
       </c>
       <c r="F19" s="6">
         <f t="shared" si="3"/>
-        <v>1.066009194469649</v>
+        <v>1.2178649758961044</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="4"/>
-        <v>56446.13323031005</v>
-      </c>
-      <c r="H19" s="6">
-        <f>(SUM(D$2:D19)/(F19*G19))+1</f>
-        <v>1.0417500564978088</v>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1906434998496458</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="5"/>
-        <v>56446.13323031005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>52199.226727268382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="3">
         <v>43190</v>
       </c>
@@ -4972,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1855.8400000000038</v>
       </c>
       <c r="E20" s="5">
@@ -4980,22 +6257,22 @@
       </c>
       <c r="F20" s="6">
         <f t="shared" si="3"/>
-        <v>1.0417500564978088</v>
+        <v>1.1906434998496458</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="4"/>
-        <v>56446.13323031005</v>
-      </c>
-      <c r="H20" s="6">
-        <f>(SUM(D$2:D20)/(F20*G20))+1</f>
-        <v>1.0742827082546511</v>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2261965169411908</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="5"/>
-        <v>56446.13323031005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>52199.226727268382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="3">
         <v>43220</v>
       </c>
@@ -5007,7 +6284,7 @@
         <v>15927.75</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-479.47000000000844</v>
       </c>
       <c r="E21" s="5">
@@ -5015,22 +6292,22 @@
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
-        <v>1.0742827082546511</v>
+        <v>1.2261965169411908</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="4"/>
-        <v>56446.13323031005</v>
-      </c>
-      <c r="H21" s="6">
-        <f>(SUM(D$2:D21)/(F21*G21))+1</f>
-        <v>1.064126250838914</v>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2170111318299293</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="5"/>
-        <v>71414.047035127107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>65286.822710101034</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="3">
         <v>43251</v>
       </c>
@@ -5042,7 +6319,7 @@
         <v>25600</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2612.2300000000105</v>
       </c>
       <c r="E22" s="5">
@@ -5050,22 +6327,22 @@
       </c>
       <c r="F22" s="6">
         <f t="shared" si="3"/>
-        <v>1.064126250838914</v>
+        <v>1.2170111318299293</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="4"/>
-        <v>71414.047035127107</v>
-      </c>
-      <c r="H22" s="6">
-        <f>(SUM(D$2:D22)/(F22*G22))+1</f>
-        <v>1.0855439364585711</v>
+        <v>65286.822710101034</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2570227282220425</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="5"/>
-        <v>94996.694535804301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>85652.405149655766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="3">
         <v>43281</v>
       </c>
@@ -5077,7 +6354,7 @@
         <v>39200</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5013.8400000000111</v>
       </c>
       <c r="E23" s="5">
@@ -5085,22 +6362,22 @@
       </c>
       <c r="F23" s="6">
         <f t="shared" si="3"/>
-        <v>1.0855439364585711</v>
+        <v>1.2570227282220425</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="4"/>
-        <v>94996.694535804301</v>
-      </c>
-      <c r="H23" s="6">
-        <f>(SUM(D$2:D23)/(F23*G23))+1</f>
-        <v>1.0144191617170277</v>
+        <v>85652.405149655766</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1984856679814151</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="5"/>
-        <v>133639.49770766991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>118360.34738648181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="3">
         <v>43312</v>
       </c>
@@ -5112,7 +6389,7 @@
         <v>165543.29000000018</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2411.9599999998172</v>
       </c>
       <c r="E24" s="5">
@@ -5120,22 +6397,22 @@
       </c>
       <c r="F24" s="6">
         <f t="shared" si="3"/>
-        <v>1.0144191617170277</v>
+        <v>1.1984856679814151</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="4"/>
-        <v>133639.49770766991</v>
-      </c>
-      <c r="H24" s="6">
-        <f>(SUM(D$2:D24)/(F24*G24))+1</f>
-        <v>1.0287601243099931</v>
+        <v>118360.34738648181</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2188637764717869</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="5"/>
-        <v>294554.84239118674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>254178.05991149752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="3">
         <v>43343</v>
       </c>
@@ -5147,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-10933.159999999974</v>
       </c>
       <c r="E25" s="5">
@@ -5155,22 +6432,22 @@
       </c>
       <c r="F25" s="6">
         <f t="shared" si="3"/>
-        <v>1.0287601243099931</v>
+        <v>1.2188637764717869</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="4"/>
-        <v>294554.84239118674</v>
-      </c>
-      <c r="H25" s="6">
-        <f>(SUM(D$2:D25)/(F25*G25))+1</f>
-        <v>0.97678666141932569</v>
+        <v>254178.05991149752</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1758499931271238</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="5"/>
-        <v>294554.84239118674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>254178.05991149752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="3">
         <v>43373</v>
       </c>
@@ -5182,7 +6459,7 @@
         <v>153849.14000000001</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2167.5899999999674</v>
       </c>
       <c r="E26" s="5">
@@ -5190,22 +6467,22 @@
       </c>
       <c r="F26" s="6">
         <f t="shared" si="3"/>
-        <v>0.97678666141932569</v>
+        <v>1.1758499931271238</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="4"/>
-        <v>294554.84239118674</v>
-      </c>
-      <c r="H26" s="6">
-        <f>(SUM(D$2:D26)/(F26*G26))+1</f>
-        <v>0.98308526269985341</v>
+        <v>254178.05991149752</v>
+      </c>
+      <c r="H26" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1843778338099691</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="5"/>
-        <v>451051.0750551605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>384076.75913410116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="3">
         <v>43404</v>
       </c>
@@ -5217,7 +6494,7 @@
         <v>-3904.8300000000008</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11488.190000000002</v>
       </c>
       <c r="E27" s="5">
@@ -5225,22 +6502,22 @@
       </c>
       <c r="F27" s="6">
         <f t="shared" si="3"/>
-        <v>0.98308526269985341</v>
+        <v>1.1843778338099691</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="4"/>
-        <v>451051.0750551605</v>
-      </c>
-      <c r="H27" s="6">
-        <f>(SUM(D$2:D27)/(F27*G27))+1</f>
-        <v>0.96311670616201472</v>
+        <v>384076.75913410116</v>
+      </c>
+      <c r="H27" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1544666514049207</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="5"/>
-        <v>446996.70659179887</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>380694.39205121656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="3">
         <v>43434</v>
       </c>
@@ -5252,7 +6529,7 @@
         <v>9000.7599999999966</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3026.5</v>
       </c>
       <c r="E28" s="5">
@@ -5260,22 +6537,22 @@
       </c>
       <c r="F28" s="6">
         <f t="shared" si="3"/>
-        <v>0.96311670616201472</v>
+        <v>1.1544666514049207</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="4"/>
-        <v>446996.70659179887</v>
-      </c>
-      <c r="H28" s="6">
-        <f>(SUM(D$2:D28)/(F28*G28))+1</f>
-        <v>0.96904055264089162</v>
+        <v>380694.39205121656</v>
+      </c>
+      <c r="H28" s="14">
+        <f t="shared" si="5"/>
+        <v>1.162416597774482</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="5"/>
-        <v>456285.02788595995</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>388437.53682154464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="3">
         <v>43465</v>
       </c>
@@ -5287,7 +6564,7 @@
         <v>-110391.78999999998</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-12471.179999999993</v>
       </c>
       <c r="E29" s="5">
@@ -5295,22 +6572,22 @@
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
-        <v>0.96904055264089162</v>
+        <v>1.162416597774482</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="4"/>
-        <v>456285.02788595995</v>
-      </c>
-      <c r="H29" s="6">
-        <f>(SUM(D$2:D29)/(F29*G29))+1</f>
-        <v>0.94165096874120624</v>
+        <v>388437.53682154464</v>
+      </c>
+      <c r="H29" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1303105863368452</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="5"/>
-        <v>339052.85411400377</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>290772.53099534777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="3">
         <v>43496</v>
       </c>
@@ -5322,7 +6599,7 @@
         <v>29786.399999999991</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9003.9500000000116</v>
       </c>
       <c r="E30" s="5">
@@ -5330,22 +6607,22 @@
       </c>
       <c r="F30" s="6">
         <f t="shared" si="3"/>
-        <v>0.94165096874120624</v>
+        <v>1.1303105863368452</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="4"/>
-        <v>339052.85411400377</v>
-      </c>
-      <c r="H30" s="6">
-        <f>(SUM(D$2:D30)/(F30*G30))+1</f>
-        <v>0.94739370889609731</v>
+        <v>290772.53099534777</v>
+      </c>
+      <c r="H30" s="14">
+        <f t="shared" si="5"/>
+        <v>1.1612762004860857</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="5"/>
-        <v>370493.21488514199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>316422.24291360809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="3">
         <v>43524</v>
       </c>
@@ -5357,7 +6634,7 @@
         <v>23760.289999999994</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32946.070000000007</v>
       </c>
       <c r="E31" s="5">
@@ -5365,22 +6642,22 @@
       </c>
       <c r="F31" s="6">
         <f t="shared" si="3"/>
-        <v>0.94739370889609731</v>
+        <v>1.1612762004860857</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="4"/>
-        <v>370493.21488514199</v>
-      </c>
-      <c r="H31" s="6">
-        <f>(SUM(D$2:D31)/(F31*G31))+1</f>
-        <v>1.04601240207654</v>
+        <v>316422.24291360809</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="5"/>
+        <v>1.2653967885226072</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="5"/>
-        <v>393208.32796872605</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>335199.1911526983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="3">
         <v>43555</v>
       </c>
@@ -5392,7 +6669,7 @@
         <v>18495.859999999997</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21615.800000000047</v>
       </c>
       <c r="E32" s="5">
@@ -5400,22 +6677,22 @@
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
-        <v>1.04601240207654</v>
+        <v>1.2653967885226072</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="4"/>
-        <v>393208.32796872605</v>
-      </c>
-      <c r="H32" s="6">
-        <f>(SUM(D$2:D32)/(F32*G32))+1</f>
-        <v>1.091821580661966</v>
+        <v>335199.1911526983</v>
+      </c>
+      <c r="H32" s="14">
+        <f t="shared" si="5"/>
+        <v>1.3298832209798774</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="5"/>
-        <v>410148.69654871512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>349107.07397144084</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>43585</v>
       </c>
@@ -5427,7 +6704,7 @@
         <v>12895.12</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15527.219999999972</v>
       </c>
       <c r="E33" s="5">
@@ -5435,25 +6712,25 @@
       </c>
       <c r="F33" s="6">
         <f t="shared" si="3"/>
-        <v>1.091821580661966</v>
+        <v>1.3298832209798774</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="4"/>
-        <v>410148.69654871512</v>
-      </c>
-      <c r="H33" s="6">
-        <f>(SUM(D$2:D33)/(F33*G33))+1</f>
-        <v>1.1190094099619161</v>
+        <v>349107.07397144084</v>
+      </c>
+      <c r="H33" s="14">
+        <f t="shared" si="5"/>
+        <v>1.3743601770706328</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="5"/>
-        <v>421672.38874039997</v>
+        <f t="shared" si="6"/>
+        <v>358489.70904420991</v>
       </c>
       <c r="J33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -5462,12 +6739,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="6">
+      <c r="J34" s="17">
         <f>H33^(1/YEARFRAC(A33,A2))</f>
-        <v>1.0444878265987783</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1.1309887430851666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -5477,7 +6754,7 @@
       <c r="H35" s="6"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5487,7 +6764,7 @@
       <c r="H36" s="6"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -5497,7 +6774,7 @@
       <c r="H37" s="6"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -5507,7 +6784,7 @@
       <c r="H38" s="6"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -5517,7 +6794,7 @@
       <c r="H39" s="6"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -5527,7 +6804,7 @@
       <c r="H40" s="6"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -5537,7 +6814,7 @@
       <c r="H41" s="6"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -5547,7 +6824,7 @@
       <c r="H42" s="6"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -5557,7 +6834,7 @@
       <c r="H43" s="6"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -5567,7 +6844,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -5577,7 +6854,7 @@
       <c r="H45" s="6"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -5587,11 +6864,8 @@
       <c r="H46" s="6"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="6" t="e">
-        <f>H46^(1/YEARFRAC(A33,#REF!))</f>
-        <v>#REF!</v>
-      </c>
+    <row r="47" spans="1:10">
+      <c r="J47" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5599,4 +6873,4060 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C928BB-60B2-BF4F-A542-4F8DB8761DEC}">
+  <dimension ref="A1:T99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A1048468" workbookViewId="0">
+      <selection activeCell="E1048564" sqref="E1048564"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="str">
+        <f>股票账户月报!A1</f>
+        <v>日期</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>股票账户月报!B1</f>
+        <v>期初净资产</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>股票账户月报!C1</f>
+        <v>净转入</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>股票账户月报!D1</f>
+        <v>盈亏</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>股票账户月报!E1</f>
+        <v>期末净资产</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>股票账户月报!F1</f>
+        <v>期初净值</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>股票账户月报!G1</f>
+        <v>期初份额</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>股票账户月报!H1</f>
+        <v>期末净值</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>股票账户月报!I1</f>
+        <v>期末份额</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="18">
+        <f>股票账户月报!A2</f>
+        <v>42247</v>
+      </c>
+      <c r="B2" s="4">
+        <f>股票账户月报!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <f>股票账户月报!C2</f>
+        <v>25000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>股票账户月报!D2</f>
+        <v>-700.9</v>
+      </c>
+      <c r="E2" s="4">
+        <f>股票账户月报!E2</f>
+        <v>24299.1</v>
+      </c>
+      <c r="F2" s="6">
+        <f>股票账户月报!F2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <f>股票账户月报!G2</f>
+        <v>25000</v>
+      </c>
+      <c r="H2" s="6">
+        <f>股票账户月报!H2</f>
+        <v>0.97196400000000005</v>
+      </c>
+      <c r="I2" s="4">
+        <f>股票账户月报!I2</f>
+        <v>25000</v>
+      </c>
+      <c r="K2" s="18">
+        <v>42247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="18">
+        <f>股票账户月报!A3</f>
+        <v>42277</v>
+      </c>
+      <c r="B3" s="4">
+        <f>股票账户月报!B3</f>
+        <v>24299.1</v>
+      </c>
+      <c r="C3" s="4">
+        <f>股票账户月报!C3</f>
+        <v>20000</v>
+      </c>
+      <c r="D3" s="4">
+        <f>股票账户月报!D3</f>
+        <v>1151.3699999999999</v>
+      </c>
+      <c r="E3" s="4">
+        <f>股票账户月报!E3</f>
+        <v>45450.47</v>
+      </c>
+      <c r="F3" s="6">
+        <f>股票账户月报!F3</f>
+        <v>0.97196400000000005</v>
+      </c>
+      <c r="G3" s="4">
+        <f>股票账户月报!G3</f>
+        <v>25000</v>
+      </c>
+      <c r="H3" s="6">
+        <f>股票账户月报!H3</f>
+        <v>1.0180187999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <f>股票账户月报!I3</f>
+        <v>44646.002608203307</v>
+      </c>
+      <c r="K3" s="18">
+        <v>42277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="18">
+        <f>股票账户月报!A4</f>
+        <v>42308</v>
+      </c>
+      <c r="B4" s="4">
+        <f>股票账户月报!B4</f>
+        <v>45450.47</v>
+      </c>
+      <c r="C4" s="4">
+        <f>股票账户月报!C4</f>
+        <v>40000</v>
+      </c>
+      <c r="D4" s="4">
+        <f>股票账户月报!D4</f>
+        <v>5473.2</v>
+      </c>
+      <c r="E4" s="4">
+        <f>股票账户月报!E4</f>
+        <v>90923.67</v>
+      </c>
+      <c r="F4" s="6">
+        <f>股票账户月报!F4</f>
+        <v>1.0180187999999999</v>
+      </c>
+      <c r="G4" s="4">
+        <f>股票账户月报!G4</f>
+        <v>44646.002608203307</v>
+      </c>
+      <c r="H4" s="6">
+        <f>股票账户月报!H4</f>
+        <v>1.1406098424283841</v>
+      </c>
+      <c r="I4" s="4">
+        <f>股票账户月报!I4</f>
+        <v>79714.961784321844</v>
+      </c>
+      <c r="K4" s="18">
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="18">
+        <f>股票账户月报!A5</f>
+        <v>42338</v>
+      </c>
+      <c r="B5" s="4">
+        <f>股票账户月报!B5</f>
+        <v>90923.67</v>
+      </c>
+      <c r="C5" s="4">
+        <f>股票账户月报!C5</f>
+        <v>129200</v>
+      </c>
+      <c r="D5" s="4">
+        <f>股票账户月报!D5</f>
+        <v>4033.11</v>
+      </c>
+      <c r="E5" s="4">
+        <f>股票账户月报!E5</f>
+        <v>224156.77999999997</v>
+      </c>
+      <c r="F5" s="6">
+        <f>股票账户月报!F5</f>
+        <v>1.1406098424283841</v>
+      </c>
+      <c r="G5" s="4">
+        <f>股票账户月报!G5</f>
+        <v>79714.961784321844</v>
+      </c>
+      <c r="H5" s="6">
+        <f>股票账户月报!H5</f>
+        <v>1.1912039832235846</v>
+      </c>
+      <c r="I5" s="4">
+        <f>股票账户月报!I5</f>
+        <v>188176.65417252606</v>
+      </c>
+      <c r="K5" s="18">
+        <v>42338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="18">
+        <f>股票账户月报!A6</f>
+        <v>42369</v>
+      </c>
+      <c r="B6" s="4">
+        <f>股票账户月报!B6</f>
+        <v>224156.77999999997</v>
+      </c>
+      <c r="C6" s="4">
+        <f>股票账户月报!C6</f>
+        <v>15000</v>
+      </c>
+      <c r="D6" s="4">
+        <f>股票账户月报!D6</f>
+        <v>19350.11</v>
+      </c>
+      <c r="E6" s="4">
+        <f>股票账户月报!E6</f>
+        <v>258506.88999999996</v>
+      </c>
+      <c r="F6" s="6">
+        <f>股票账户月报!F6</f>
+        <v>1.1912039832235846</v>
+      </c>
+      <c r="G6" s="4">
+        <f>股票账户月报!G6</f>
+        <v>188176.65417252606</v>
+      </c>
+      <c r="H6" s="6">
+        <f>股票账户月报!H6</f>
+        <v>1.294033476526506</v>
+      </c>
+      <c r="I6" s="4">
+        <f>股票账户月报!I6</f>
+        <v>199768.31719523517</v>
+      </c>
+      <c r="K6" s="18">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="18">
+        <f>股票账户月报!A7</f>
+        <v>42400</v>
+      </c>
+      <c r="B7" s="4">
+        <f>股票账户月报!B7</f>
+        <v>258506.88999999996</v>
+      </c>
+      <c r="C7" s="4">
+        <f>股票账户月报!C7</f>
+        <v>130000</v>
+      </c>
+      <c r="D7" s="4">
+        <f>股票账户月报!D7</f>
+        <v>-32667.72</v>
+      </c>
+      <c r="E7" s="4">
+        <f>股票账户月报!E7</f>
+        <v>355839.16999999993</v>
+      </c>
+      <c r="F7" s="6">
+        <f>股票账户月报!F7</f>
+        <v>1.294033476526506</v>
+      </c>
+      <c r="G7" s="4">
+        <f>股票账户月报!G7</f>
+        <v>199768.31719523517</v>
+      </c>
+      <c r="H7" s="6">
+        <f>股票账户月报!H7</f>
+        <v>1.1305054433595971</v>
+      </c>
+      <c r="I7" s="4">
+        <f>股票账户月报!I7</f>
+        <v>314761.12927199126</v>
+      </c>
+      <c r="K7" s="18">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="18">
+        <f>股票账户月报!A8</f>
+        <v>42429</v>
+      </c>
+      <c r="B8" s="4">
+        <f>股票账户月报!B8</f>
+        <v>355839.16999999993</v>
+      </c>
+      <c r="C8" s="4">
+        <f>股票账户月报!C8</f>
+        <v>50000</v>
+      </c>
+      <c r="D8" s="4">
+        <f>股票账户月报!D8</f>
+        <v>713</v>
+      </c>
+      <c r="E8" s="4">
+        <f>股票账户月报!E8</f>
+        <v>406552.16999999993</v>
+      </c>
+      <c r="F8" s="6">
+        <f>股票账户月报!F8</f>
+        <v>1.1305054433595971</v>
+      </c>
+      <c r="G8" s="4">
+        <f>股票账户月报!G8</f>
+        <v>314761.12927199126</v>
+      </c>
+      <c r="H8" s="6">
+        <f>股票账户月报!H8</f>
+        <v>1.1327706531764798</v>
+      </c>
+      <c r="I8" s="4">
+        <f>股票账户月报!I8</f>
+        <v>358900.69085031393</v>
+      </c>
+      <c r="K8" s="18">
+        <v>42429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="18">
+        <f>股票账户月报!A9</f>
+        <v>42460</v>
+      </c>
+      <c r="B9" s="4">
+        <f>股票账户月报!B9</f>
+        <v>406552.16999999993</v>
+      </c>
+      <c r="C9" s="4">
+        <f>股票账户月报!C9</f>
+        <v>-202800</v>
+      </c>
+      <c r="D9" s="4">
+        <f>股票账户月报!D9</f>
+        <v>451.57</v>
+      </c>
+      <c r="E9" s="4">
+        <f>股票账户月报!E9</f>
+        <v>204203.73999999993</v>
+      </c>
+      <c r="F9" s="6">
+        <f>股票账户月报!F9</f>
+        <v>1.1327706531764798</v>
+      </c>
+      <c r="G9" s="4">
+        <f>股票账户月报!G9</f>
+        <v>358900.69085031393</v>
+      </c>
+      <c r="H9" s="6">
+        <f>股票账户月报!H9</f>
+        <v>1.1340288563828602</v>
+      </c>
+      <c r="I9" s="4">
+        <f>股票账户月报!I9</f>
+        <v>180069.26265645097</v>
+      </c>
+      <c r="K9" s="18">
+        <v>42460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="18">
+        <f>股票账户月报!A10</f>
+        <v>42490</v>
+      </c>
+      <c r="B10" s="4">
+        <f>股票账户月报!B10</f>
+        <v>204203.73999999993</v>
+      </c>
+      <c r="C10" s="4">
+        <f>股票账户月报!C10</f>
+        <v>130000</v>
+      </c>
+      <c r="D10" s="4">
+        <f>股票账户月报!D10</f>
+        <v>1024.1199999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <f>股票账户月报!E10</f>
+        <v>335227.85999999993</v>
+      </c>
+      <c r="F10" s="6">
+        <f>股票账户月报!F10</f>
+        <v>1.1340288563828602</v>
+      </c>
+      <c r="G10" s="4">
+        <f>股票账户月报!G10</f>
+        <v>180069.26265645097</v>
+      </c>
+      <c r="H10" s="6">
+        <f>股票账户月报!H10</f>
+        <v>1.1397162234820073</v>
+      </c>
+      <c r="I10" s="4">
+        <f>股票账户月报!I10</f>
+        <v>294132.74382971192</v>
+      </c>
+      <c r="K10" s="18">
+        <v>42490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="18">
+        <f>股票账户月报!A11</f>
+        <v>42521</v>
+      </c>
+      <c r="B11" s="4">
+        <f>股票账户月报!B11</f>
+        <v>335227.85999999993</v>
+      </c>
+      <c r="C11" s="4">
+        <f>股票账户月报!C11</f>
+        <v>12000</v>
+      </c>
+      <c r="D11" s="4">
+        <f>股票账户月报!D11</f>
+        <v>1619.52</v>
+      </c>
+      <c r="E11" s="4">
+        <f>股票账户月报!E11</f>
+        <v>348847.37999999995</v>
+      </c>
+      <c r="F11" s="6">
+        <f>股票账户月报!F11</f>
+        <v>1.1397162234820073</v>
+      </c>
+      <c r="G11" s="4">
+        <f>股票账户月报!G11</f>
+        <v>294132.74382971192</v>
+      </c>
+      <c r="H11" s="6">
+        <f>股票账户月报!H11</f>
+        <v>1.1452223088600351</v>
+      </c>
+      <c r="I11" s="4">
+        <f>股票账户月报!I11</f>
+        <v>304611.05874478281</v>
+      </c>
+      <c r="K11" s="18">
+        <v>42521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="18">
+        <f>股票账户月报!A12</f>
+        <v>42551</v>
+      </c>
+      <c r="B12" s="4">
+        <f>股票账户月报!B12</f>
+        <v>348847.37999999995</v>
+      </c>
+      <c r="C12" s="4">
+        <f>股票账户月报!C12</f>
+        <v>126100</v>
+      </c>
+      <c r="D12" s="4">
+        <f>股票账户月报!D12</f>
+        <v>5247.73</v>
+      </c>
+      <c r="E12" s="4">
+        <f>股票账户月报!E12</f>
+        <v>480195.10999999993</v>
+      </c>
+      <c r="F12" s="6">
+        <f>股票账户月报!F12</f>
+        <v>1.1452223088600351</v>
+      </c>
+      <c r="G12" s="4">
+        <f>股票账户月报!G12</f>
+        <v>304611.05874478281</v>
+      </c>
+      <c r="H12" s="6">
+        <f>股票账户月报!H12</f>
+        <v>1.1624499499759697</v>
+      </c>
+      <c r="I12" s="4">
+        <f>股票账户月报!I12</f>
+        <v>413088.84740364656</v>
+      </c>
+      <c r="K12" s="18">
+        <v>42551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="18">
+        <f>股票账户月报!A13</f>
+        <v>42582</v>
+      </c>
+      <c r="B13" s="4">
+        <f>股票账户月报!B13</f>
+        <v>480195.10999999993</v>
+      </c>
+      <c r="C13" s="4">
+        <f>股票账户月报!C13</f>
+        <v>13500</v>
+      </c>
+      <c r="D13" s="4">
+        <f>股票账户月报!D13</f>
+        <v>958.73</v>
+      </c>
+      <c r="E13" s="4">
+        <f>股票账户月报!E13</f>
+        <v>494653.83999999991</v>
+      </c>
+      <c r="F13" s="6">
+        <f>股票账户月报!F13</f>
+        <v>1.1624499499759697</v>
+      </c>
+      <c r="G13" s="4">
+        <f>股票账户月报!G13</f>
+        <v>413088.84740364656</v>
+      </c>
+      <c r="H13" s="6">
+        <f>股票账户月报!H13</f>
+        <v>1.1647708308373772</v>
+      </c>
+      <c r="I13" s="4">
+        <f>股票账户月报!I13</f>
+        <v>424679.11017687776</v>
+      </c>
+      <c r="K13" s="18">
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="18">
+        <f>股票账户月报!A14</f>
+        <v>42613</v>
+      </c>
+      <c r="B14" s="4">
+        <f>股票账户月报!B14</f>
+        <v>494653.83999999991</v>
+      </c>
+      <c r="C14" s="4">
+        <f>股票账户月报!C14</f>
+        <v>7000</v>
+      </c>
+      <c r="D14" s="4">
+        <f>股票账户月报!D14</f>
+        <v>4724.12</v>
+      </c>
+      <c r="E14" s="4">
+        <f>股票账户月报!E14</f>
+        <v>506377.9599999999</v>
+      </c>
+      <c r="F14" s="6">
+        <f>股票账户月报!F14</f>
+        <v>1.1647708308373772</v>
+      </c>
+      <c r="G14" s="4">
+        <f>股票账户月报!G14</f>
+        <v>424679.11017687776</v>
+      </c>
+      <c r="H14" s="6">
+        <f>股票账户月报!H14</f>
+        <v>1.1758948062974188</v>
+      </c>
+      <c r="I14" s="4">
+        <f>股票账户月报!I14</f>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="K14" s="18">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="18">
+        <f>股票账户月报!A15</f>
+        <v>42643</v>
+      </c>
+      <c r="B15" s="4">
+        <f>股票账户月报!B15</f>
+        <v>506377.9599999999</v>
+      </c>
+      <c r="C15" s="4">
+        <f>股票账户月报!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>股票账户月报!D15</f>
+        <v>1581.04</v>
+      </c>
+      <c r="E15" s="4">
+        <f>股票账户月报!E15</f>
+        <v>507958.99999999988</v>
+      </c>
+      <c r="F15" s="6">
+        <f>股票账户月报!F15</f>
+        <v>1.1758948062974188</v>
+      </c>
+      <c r="G15" s="4">
+        <f>股票账户月报!G15</f>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="H15" s="6">
+        <f>股票账户月报!H15</f>
+        <v>1.1795662471408326</v>
+      </c>
+      <c r="I15" s="4">
+        <f>股票账户月报!I15</f>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="K15" s="18">
+        <f>天天基金账户月报!A2</f>
+        <v>42643</v>
+      </c>
+      <c r="L15" s="4">
+        <f>天天基金账户月报!B2</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f>天天基金账户月报!C2</f>
+        <v>3400</v>
+      </c>
+      <c r="N15" s="4">
+        <f>天天基金账户月报!D2</f>
+        <v>22.92</v>
+      </c>
+      <c r="O15" s="4">
+        <f>天天基金账户月报!E2</f>
+        <v>3422.92</v>
+      </c>
+      <c r="P15" s="6">
+        <f>天天基金账户月报!F2</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <f>天天基金账户月报!G2</f>
+        <v>3400</v>
+      </c>
+      <c r="R15" s="6">
+        <f>天天基金账户月报!H2</f>
+        <v>1.0067411764705883</v>
+      </c>
+      <c r="S15" s="4">
+        <f>天天基金账户月报!I2</f>
+        <v>3400</v>
+      </c>
+      <c r="T15" s="19"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="18">
+        <f>股票账户月报!A16</f>
+        <v>42674</v>
+      </c>
+      <c r="B16" s="4">
+        <f>股票账户月报!B16</f>
+        <v>507958.99999999988</v>
+      </c>
+      <c r="C16" s="4">
+        <f>股票账户月报!C16</f>
+        <v>17000</v>
+      </c>
+      <c r="D16" s="4">
+        <f>股票账户月报!D16</f>
+        <v>1541.67</v>
+      </c>
+      <c r="E16" s="4">
+        <f>股票账户月报!E16</f>
+        <v>526500.66999999993</v>
+      </c>
+      <c r="F16" s="6">
+        <f>股票账户月报!F16</f>
+        <v>1.1795662471408326</v>
+      </c>
+      <c r="G16" s="4">
+        <f>股票账户月报!G16</f>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="H16" s="6">
+        <f>股票账户月报!H16</f>
+        <v>1.1831462642214032</v>
+      </c>
+      <c r="I16" s="4">
+        <f>股票账户月报!I16</f>
+        <v>445000.49226498284</v>
+      </c>
+      <c r="K16" s="18">
+        <f>天天基金账户月报!A3</f>
+        <v>42674</v>
+      </c>
+      <c r="L16" s="4">
+        <f>天天基金账户月报!B3</f>
+        <v>3422.92</v>
+      </c>
+      <c r="M16" s="4">
+        <f>天天基金账户月报!C3</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <f>天天基金账户月报!D3</f>
+        <v>20.259999999999998</v>
+      </c>
+      <c r="O16" s="4">
+        <f>天天基金账户月报!E3</f>
+        <v>3443.1800000000003</v>
+      </c>
+      <c r="P16" s="6">
+        <f>天天基金账户月报!F3</f>
+        <v>1.0067411764705883</v>
+      </c>
+      <c r="Q16" s="4">
+        <f>天天基金账户月报!G3</f>
+        <v>3400</v>
+      </c>
+      <c r="R16" s="6">
+        <f>天天基金账户月报!H3</f>
+        <v>1.0127000000000002</v>
+      </c>
+      <c r="S16" s="4">
+        <f>天天基金账户月报!I3</f>
+        <v>3400</v>
+      </c>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="18">
+        <f>股票账户月报!A17</f>
+        <v>42704</v>
+      </c>
+      <c r="B17" s="4">
+        <f>股票账户月报!B17</f>
+        <v>526500.66999999993</v>
+      </c>
+      <c r="C17" s="4">
+        <f>股票账户月报!C17</f>
+        <v>18000</v>
+      </c>
+      <c r="D17" s="4">
+        <f>股票账户月报!D17</f>
+        <v>12671.49</v>
+      </c>
+      <c r="E17" s="4">
+        <f>股票账户月报!E17</f>
+        <v>557172.15999999992</v>
+      </c>
+      <c r="F17" s="6">
+        <f>股票账户月报!F17</f>
+        <v>1.1831462642214032</v>
+      </c>
+      <c r="G17" s="4">
+        <f>股票账户月报!G17</f>
+        <v>445000.49226498284</v>
+      </c>
+      <c r="H17" s="6">
+        <f>股票账户月报!H17</f>
+        <v>1.2116214911486907</v>
+      </c>
+      <c r="I17" s="4">
+        <f>股票账户月报!I17</f>
+        <v>459856.61699658935</v>
+      </c>
+      <c r="K17" s="18">
+        <f>天天基金账户月报!A4</f>
+        <v>42704</v>
+      </c>
+      <c r="L17" s="4">
+        <f>天天基金账户月报!B4</f>
+        <v>3443.1800000000003</v>
+      </c>
+      <c r="M17" s="4">
+        <f>天天基金账户月报!C4</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <f>天天基金账户月报!D4</f>
+        <v>-57.39</v>
+      </c>
+      <c r="O17" s="4">
+        <f>天天基金账户月报!E4</f>
+        <v>3385.7900000000004</v>
+      </c>
+      <c r="P17" s="6">
+        <f>天天基金账户月报!F4</f>
+        <v>1.0127000000000002</v>
+      </c>
+      <c r="Q17" s="4">
+        <f>天天基金账户月报!G4</f>
+        <v>3400</v>
+      </c>
+      <c r="R17" s="6">
+        <f>天天基金账户月报!H4</f>
+        <v>0.99582058823529429</v>
+      </c>
+      <c r="S17" s="4">
+        <f>天天基金账户月报!I4</f>
+        <v>3400</v>
+      </c>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="18">
+        <f>股票账户月报!A18</f>
+        <v>42735</v>
+      </c>
+      <c r="B18" s="4">
+        <f>股票账户月报!B18</f>
+        <v>557172.15999999992</v>
+      </c>
+      <c r="C18" s="4">
+        <f>股票账户月报!C18</f>
+        <v>400</v>
+      </c>
+      <c r="D18" s="4">
+        <f>股票账户月报!D18</f>
+        <v>-148.13999999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <f>股票账户月报!E18</f>
+        <v>557424.0199999999</v>
+      </c>
+      <c r="F18" s="6">
+        <f>股票账户月报!F18</f>
+        <v>1.2116214911486907</v>
+      </c>
+      <c r="G18" s="4">
+        <f>股票账户月报!G18</f>
+        <v>459856.61699658935</v>
+      </c>
+      <c r="H18" s="6">
+        <f>股票账户月报!H18</f>
+        <v>1.2112993472574762</v>
+      </c>
+      <c r="I18" s="4">
+        <f>股票账户月报!I18</f>
+        <v>460186.8409011144</v>
+      </c>
+      <c r="K18" s="18">
+        <f>天天基金账户月报!A5</f>
+        <v>42735</v>
+      </c>
+      <c r="L18" s="4">
+        <f>天天基金账户月报!B5</f>
+        <v>3385.7900000000004</v>
+      </c>
+      <c r="M18" s="4">
+        <f>天天基金账户月报!C5</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f>天天基金账户月报!D5</f>
+        <v>222.8</v>
+      </c>
+      <c r="O18" s="4">
+        <f>天天基金账户月报!E5</f>
+        <v>3608.5900000000006</v>
+      </c>
+      <c r="P18" s="6">
+        <f>天天基金账户月报!F5</f>
+        <v>0.99582058823529429</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>天天基金账户月报!G5</f>
+        <v>3400</v>
+      </c>
+      <c r="R18" s="6">
+        <f>天天基金账户月报!H5</f>
+        <v>1.0613500000000002</v>
+      </c>
+      <c r="S18" s="4">
+        <f>天天基金账户月报!I5</f>
+        <v>3400</v>
+      </c>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="18">
+        <f>股票账户月报!A19</f>
+        <v>42766</v>
+      </c>
+      <c r="B19" s="4">
+        <f>股票账户月报!B19</f>
+        <v>557424.0199999999</v>
+      </c>
+      <c r="C19" s="4">
+        <f>股票账户月报!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f>股票账户月报!D19</f>
+        <v>7031.39</v>
+      </c>
+      <c r="E19" s="4">
+        <f>股票账户月报!E19</f>
+        <v>564455.40999999992</v>
+      </c>
+      <c r="F19" s="6">
+        <f>股票账户月报!F19</f>
+        <v>1.2112993472574762</v>
+      </c>
+      <c r="G19" s="4">
+        <f>股票账户月报!G19</f>
+        <v>460186.8409011144</v>
+      </c>
+      <c r="H19" s="6">
+        <f>股票账户月报!H19</f>
+        <v>1.2265787715587697</v>
+      </c>
+      <c r="I19" s="4">
+        <f>股票账户月报!I19</f>
+        <v>460186.8409011144</v>
+      </c>
+      <c r="K19" s="18">
+        <f>天天基金账户月报!A6</f>
+        <v>42766</v>
+      </c>
+      <c r="L19" s="4">
+        <f>天天基金账户月报!B6</f>
+        <v>3608.5900000000006</v>
+      </c>
+      <c r="M19" s="4">
+        <f>天天基金账户月报!C6</f>
+        <v>15320</v>
+      </c>
+      <c r="N19" s="4">
+        <f>天天基金账户月报!D6</f>
+        <v>218.20000000000027</v>
+      </c>
+      <c r="O19" s="4">
+        <f>天天基金账户月报!E6</f>
+        <v>19146.79</v>
+      </c>
+      <c r="P19" s="6">
+        <f>天天基金账户月报!F6</f>
+        <v>1.0613500000000002</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>天天基金账户月报!G6</f>
+        <v>3400</v>
+      </c>
+      <c r="R19" s="6">
+        <f>天天基金账户月报!H6</f>
+        <v>1.1255264705882355</v>
+      </c>
+      <c r="S19" s="4">
+        <f>天天基金账户月报!I6</f>
+        <v>17011.407994690064</v>
+      </c>
+      <c r="T19" s="19"/>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="18">
+        <f>股票账户月报!A20</f>
+        <v>42794</v>
+      </c>
+      <c r="B20" s="4">
+        <f>股票账户月报!B20</f>
+        <v>564455.40999999992</v>
+      </c>
+      <c r="C20" s="4">
+        <f>股票账户月报!C20</f>
+        <v>6200</v>
+      </c>
+      <c r="D20" s="4">
+        <f>股票账户月报!D20</f>
+        <v>-1659.99</v>
+      </c>
+      <c r="E20" s="4">
+        <f>股票账户月报!E20</f>
+        <v>568995.41999999993</v>
+      </c>
+      <c r="F20" s="6">
+        <f>股票账户月报!F20</f>
+        <v>1.2265787715587697</v>
+      </c>
+      <c r="G20" s="4">
+        <f>股票账户月报!G20</f>
+        <v>460186.8409011144</v>
+      </c>
+      <c r="H20" s="6">
+        <f>股票账户月报!H20</f>
+        <v>1.2229715628068865</v>
+      </c>
+      <c r="I20" s="4">
+        <f>股票账户月报!I20</f>
+        <v>465256.46000637813</v>
+      </c>
+      <c r="K20" s="18">
+        <f>天天基金账户月报!A7</f>
+        <v>42794</v>
+      </c>
+      <c r="L20" s="4">
+        <f>天天基金账户月报!B7</f>
+        <v>19146.79</v>
+      </c>
+      <c r="M20" s="4">
+        <f>天天基金账户月报!C7</f>
+        <v>3960</v>
+      </c>
+      <c r="N20" s="4">
+        <f>天天基金账户月报!D7</f>
+        <v>385.18999999999869</v>
+      </c>
+      <c r="O20" s="4">
+        <f>天天基金账户月报!E7</f>
+        <v>23491.98</v>
+      </c>
+      <c r="P20" s="6">
+        <f>天天基金账户月报!F7</f>
+        <v>1.1255264705882355</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>天天基金账户月报!G7</f>
+        <v>17011.407994690064</v>
+      </c>
+      <c r="R20" s="6">
+        <f>天天基金账户月报!H7</f>
+        <v>1.1481695110773138</v>
+      </c>
+      <c r="S20" s="4">
+        <f>天天基金账户月报!I7</f>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="T20" s="19"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="18">
+        <f>股票账户月报!A21</f>
+        <v>42825</v>
+      </c>
+      <c r="B21" s="4">
+        <f>股票账户月报!B21</f>
+        <v>568995.41999999993</v>
+      </c>
+      <c r="C21" s="4">
+        <f>股票账户月报!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <f>股票账户月报!D21</f>
+        <v>-3358.79</v>
+      </c>
+      <c r="E21" s="4">
+        <f>股票账户月报!E21</f>
+        <v>565636.62999999989</v>
+      </c>
+      <c r="F21" s="6">
+        <f>股票账户月报!F21</f>
+        <v>1.2229715628068865</v>
+      </c>
+      <c r="G21" s="4">
+        <f>股票账户月报!G21</f>
+        <v>465256.46000637813</v>
+      </c>
+      <c r="H21" s="6">
+        <f>股票账户月报!H21</f>
+        <v>1.2157523401012973</v>
+      </c>
+      <c r="I21" s="4">
+        <f>股票账户月报!I21</f>
+        <v>465256.46000637813</v>
+      </c>
+      <c r="K21" s="18">
+        <f>天天基金账户月报!A8</f>
+        <v>42825</v>
+      </c>
+      <c r="L21" s="4">
+        <f>天天基金账户月报!B8</f>
+        <v>23491.98</v>
+      </c>
+      <c r="M21" s="4">
+        <f>天天基金账户月报!C8</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f>天天基金账户月报!D8</f>
+        <v>324.86000000000058</v>
+      </c>
+      <c r="O21" s="4">
+        <f>天天基金账户月报!E8</f>
+        <v>23816.84</v>
+      </c>
+      <c r="P21" s="6">
+        <f>天天基金账户月报!F8</f>
+        <v>1.1481695110773138</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>天天基金账户月报!G8</f>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="R21" s="6">
+        <f>天天基金账户月报!H8</f>
+        <v>1.1640470295908056</v>
+      </c>
+      <c r="S21" s="4">
+        <f>天天基金账户月报!I8</f>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="18">
+        <f>股票账户月报!A22</f>
+        <v>42855</v>
+      </c>
+      <c r="B22" s="4">
+        <f>股票账户月报!B22</f>
+        <v>565636.62999999989</v>
+      </c>
+      <c r="C22" s="4">
+        <f>股票账户月报!C22</f>
+        <v>-11880</v>
+      </c>
+      <c r="D22" s="4">
+        <f>股票账户月报!D22</f>
+        <v>-12007.49</v>
+      </c>
+      <c r="E22" s="4">
+        <f>股票账户月报!E22</f>
+        <v>541749.1399999999</v>
+      </c>
+      <c r="F22" s="6">
+        <f>股票账户月报!F22</f>
+        <v>1.2157523401012973</v>
+      </c>
+      <c r="G22" s="4">
+        <f>股票账户月报!G22</f>
+        <v>465256.46000637813</v>
+      </c>
+      <c r="H22" s="6">
+        <f>股票账户月报!H22</f>
+        <v>1.1899440149469613</v>
+      </c>
+      <c r="I22" s="4">
+        <f>股票账户月报!I22</f>
+        <v>455272.79703503277</v>
+      </c>
+      <c r="K22" s="18">
+        <f>天天基金账户月报!A9</f>
+        <v>42855</v>
+      </c>
+      <c r="L22" s="4">
+        <f>天天基金账户月报!B9</f>
+        <v>23816.84</v>
+      </c>
+      <c r="M22" s="4">
+        <f>天天基金账户月报!C9</f>
+        <v>15840</v>
+      </c>
+      <c r="N22" s="4">
+        <f>天天基金账户月报!D9</f>
+        <v>-174.61999999999898</v>
+      </c>
+      <c r="O22" s="4">
+        <f>天天基金账户月报!E9</f>
+        <v>39482.22</v>
+      </c>
+      <c r="P22" s="6">
+        <f>天天基金账户月报!F9</f>
+        <v>1.1640470295908056</v>
+      </c>
+      <c r="Q22" s="4">
+        <f>天天基金账户月报!G9</f>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="R22" s="6">
+        <f>天天基金账户月报!H9</f>
+        <v>1.1555124846088876</v>
+      </c>
+      <c r="S22" s="4">
+        <f>天天基金账户月报!I9</f>
+        <v>34168.579332454174</v>
+      </c>
+      <c r="T22" s="19"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="18">
+        <f>股票账户月报!A23</f>
+        <v>42886</v>
+      </c>
+      <c r="B23" s="4">
+        <f>股票账户月报!B23</f>
+        <v>541749.1399999999</v>
+      </c>
+      <c r="C23" s="4">
+        <f>股票账户月报!C23</f>
+        <v>-15279</v>
+      </c>
+      <c r="D23" s="4">
+        <f>股票账户月报!D23</f>
+        <v>-22372.2</v>
+      </c>
+      <c r="E23" s="4">
+        <f>股票账户月报!E23</f>
+        <v>504097.93999999989</v>
+      </c>
+      <c r="F23" s="6">
+        <f>股票账户月报!F23</f>
+        <v>1.1899440149469613</v>
+      </c>
+      <c r="G23" s="4">
+        <f>股票账户月报!G23</f>
+        <v>455272.79703503277</v>
+      </c>
+      <c r="H23" s="6">
+        <f>股票账户月报!H23</f>
+        <v>1.1408038068218567</v>
+      </c>
+      <c r="I23" s="4">
+        <f>股票账户月报!I23</f>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="K23" s="18">
+        <f>天天基金账户月报!A10</f>
+        <v>42886</v>
+      </c>
+      <c r="L23" s="4">
+        <f>天天基金账户月报!B10</f>
+        <v>39482.22</v>
+      </c>
+      <c r="M23" s="4">
+        <f>天天基金账户月报!C10</f>
+        <v>15840</v>
+      </c>
+      <c r="N23" s="4">
+        <f>天天基金账户月报!D10</f>
+        <v>71.739999999997963</v>
+      </c>
+      <c r="O23" s="4">
+        <f>天天基金账户月报!E10</f>
+        <v>55393.96</v>
+      </c>
+      <c r="P23" s="6">
+        <f>天天基金账户月报!F10</f>
+        <v>1.1555124846088876</v>
+      </c>
+      <c r="Q23" s="4">
+        <f>天天基金账户月报!G10</f>
+        <v>34168.579332454174</v>
+      </c>
+      <c r="R23" s="6">
+        <f>天天基金账户月报!H10</f>
+        <v>1.1576120743899543</v>
+      </c>
+      <c r="S23" s="4">
+        <f>天天基金账户月报!I10</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="T23" s="19"/>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="18">
+        <f>股票账户月报!A24</f>
+        <v>42916</v>
+      </c>
+      <c r="B24" s="4">
+        <f>股票账户月报!B24</f>
+        <v>504097.93999999989</v>
+      </c>
+      <c r="C24" s="4">
+        <f>股票账户月报!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <f>股票账户月报!D24</f>
+        <v>-30194.41</v>
+      </c>
+      <c r="E24" s="4">
+        <f>股票账户月报!E24</f>
+        <v>473903.52999999991</v>
+      </c>
+      <c r="F24" s="6">
+        <f>股票账户月报!F24</f>
+        <v>1.1408038068218567</v>
+      </c>
+      <c r="G24" s="4">
+        <f>股票账户月报!G24</f>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="H24" s="6">
+        <f>股票账户月报!H24</f>
+        <v>1.0724720499558398</v>
+      </c>
+      <c r="I24" s="4">
+        <f>股票账户月报!I24</f>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="K24" s="18">
+        <f>天天基金账户月报!A11</f>
+        <v>42916</v>
+      </c>
+      <c r="L24" s="4">
+        <f>天天基金账户月报!B11</f>
+        <v>55393.96</v>
+      </c>
+      <c r="M24" s="4">
+        <f>天天基金账户月报!C11</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f>天天基金账户月报!D11</f>
+        <v>2134.5299999999988</v>
+      </c>
+      <c r="O24" s="4">
+        <f>天天基金账户月报!E11</f>
+        <v>57528.49</v>
+      </c>
+      <c r="P24" s="6">
+        <f>天天基金账户月报!F11</f>
+        <v>1.1576120743899543</v>
+      </c>
+      <c r="Q24" s="4">
+        <f>天天基金账户月报!G11</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="R24" s="6">
+        <f>天天基金账户月报!H11</f>
+        <v>1.2022190622483344</v>
+      </c>
+      <c r="S24" s="4">
+        <f>天天基金账户月报!I11</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="T24" s="19"/>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="18">
+        <f>股票账户月报!A25</f>
+        <v>42947</v>
+      </c>
+      <c r="B25" s="4">
+        <f>股票账户月报!B25</f>
+        <v>473903.52999999991</v>
+      </c>
+      <c r="C25" s="4">
+        <f>股票账户月报!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <f>股票账户月报!D25</f>
+        <v>9833.31</v>
+      </c>
+      <c r="E25" s="4">
+        <f>股票账户月报!E25</f>
+        <v>483736.83999999991</v>
+      </c>
+      <c r="F25" s="6">
+        <f>股票账户月报!F25</f>
+        <v>1.0724720499558398</v>
+      </c>
+      <c r="G25" s="4">
+        <f>股票账户月报!G25</f>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="H25" s="6">
+        <f>股票账户月报!H25</f>
+        <v>1.094725418977065</v>
+      </c>
+      <c r="I25" s="4">
+        <f>股票账户月报!I25</f>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="K25" s="18">
+        <f>天天基金账户月报!A12</f>
+        <v>42947</v>
+      </c>
+      <c r="L25" s="4">
+        <f>天天基金账户月报!B12</f>
+        <v>57528.49</v>
+      </c>
+      <c r="M25" s="4">
+        <f>天天基金账户月报!C12</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <f>天天基金账户月报!D12</f>
+        <v>-819.79000000000087</v>
+      </c>
+      <c r="O25" s="4">
+        <f>天天基金账户月报!E12</f>
+        <v>56708.7</v>
+      </c>
+      <c r="P25" s="6">
+        <f>天天基金账户月报!F12</f>
+        <v>1.2022190622483344</v>
+      </c>
+      <c r="Q25" s="4">
+        <f>天天基金账户月报!G12</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="R25" s="6">
+        <f>天天基金账户月报!H12</f>
+        <v>1.1850872521653553</v>
+      </c>
+      <c r="S25" s="4">
+        <f>天天基金账户月报!I12</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="T25" s="19"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="18">
+        <f>股票账户月报!A26</f>
+        <v>42978</v>
+      </c>
+      <c r="B26" s="4">
+        <f>股票账户月报!B26</f>
+        <v>483736.83999999991</v>
+      </c>
+      <c r="C26" s="4">
+        <f>股票账户月报!C26</f>
+        <v>25000</v>
+      </c>
+      <c r="D26" s="4">
+        <f>股票账户月报!D26</f>
+        <v>-45421.71</v>
+      </c>
+      <c r="E26" s="4">
+        <f>股票账户月报!E26</f>
+        <v>463315.12999999989</v>
+      </c>
+      <c r="F26" s="6">
+        <f>股票账户月报!F26</f>
+        <v>1.094725418977065</v>
+      </c>
+      <c r="G26" s="4">
+        <f>股票账户月报!G26</f>
+        <v>441879.60890870151</v>
+      </c>
+      <c r="H26" s="6">
+        <f>股票账户月报!H26</f>
+        <v>0.9919333709072824</v>
+      </c>
+      <c r="I26" s="4">
+        <f>股票账户月报!I26</f>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="K26" s="18">
+        <f>天天基金账户月报!A13</f>
+        <v>42978</v>
+      </c>
+      <c r="L26" s="4">
+        <f>天天基金账户月报!B13</f>
+        <v>56708.7</v>
+      </c>
+      <c r="M26" s="4">
+        <f>天天基金账户月报!C13</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <f>天天基金账户月报!D13</f>
+        <v>639.7300000000032</v>
+      </c>
+      <c r="O26" s="4">
+        <f>天天基金账户月报!E13</f>
+        <v>57348.43</v>
+      </c>
+      <c r="P26" s="6">
+        <f>天天基金账户月报!F13</f>
+        <v>1.1850872521653553</v>
+      </c>
+      <c r="Q26" s="4">
+        <f>天天基金账户月报!G13</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="R26" s="6">
+        <f>天天基金账户月报!H13</f>
+        <v>1.1984562038046584</v>
+      </c>
+      <c r="S26" s="4">
+        <f>天天基金账户月报!I13</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="18">
+        <f>股票账户月报!A27</f>
+        <v>43008</v>
+      </c>
+      <c r="B27" s="4">
+        <f>股票账户月报!B27</f>
+        <v>463315.12999999989</v>
+      </c>
+      <c r="C27" s="4">
+        <f>股票账户月报!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <f>股票账户月报!D27</f>
+        <v>55548.08</v>
+      </c>
+      <c r="E27" s="4">
+        <f>股票账户月报!E27</f>
+        <v>518863.2099999999</v>
+      </c>
+      <c r="F27" s="6">
+        <f>股票账户月报!F27</f>
+        <v>0.9919333709072824</v>
+      </c>
+      <c r="G27" s="4">
+        <f>股票账户月报!G27</f>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="H27" s="6">
+        <f>股票账户月报!H27</f>
+        <v>1.1108588941075013</v>
+      </c>
+      <c r="I27" s="4">
+        <f>股票账户月报!I27</f>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="K27" s="18">
+        <f>天天基金账户月报!A14</f>
+        <v>43008</v>
+      </c>
+      <c r="L27" s="4">
+        <f>天天基金账户月报!B14</f>
+        <v>57348.43</v>
+      </c>
+      <c r="M27" s="4">
+        <f>天天基金账户月报!C14</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <f>天天基金账户月报!D14</f>
+        <v>798.40000000000146</v>
+      </c>
+      <c r="O27" s="4">
+        <f>天天基金账户月报!E14</f>
+        <v>58146.83</v>
+      </c>
+      <c r="P27" s="6">
+        <f>天天基金账户月报!F14</f>
+        <v>1.1984562038046584</v>
+      </c>
+      <c r="Q27" s="4">
+        <f>天天基金账户月报!G14</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="R27" s="6">
+        <f>天天基金账户月报!H14</f>
+        <v>1.2151410098772508</v>
+      </c>
+      <c r="S27" s="4">
+        <f>天天基金账户月报!I14</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="T27" s="19"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="18">
+        <f>股票账户月报!A28</f>
+        <v>43039</v>
+      </c>
+      <c r="B28" s="4">
+        <f>股票账户月报!B28</f>
+        <v>518863.2099999999</v>
+      </c>
+      <c r="C28" s="4">
+        <f>股票账户月报!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <f>股票账户月报!D28</f>
+        <v>-5607.44</v>
+      </c>
+      <c r="E28" s="4">
+        <f>股票账户月报!E28</f>
+        <v>513255.7699999999</v>
+      </c>
+      <c r="F28" s="6">
+        <f>股票账户月报!F28</f>
+        <v>1.1108588941075013</v>
+      </c>
+      <c r="G28" s="4">
+        <f>股票账户月报!G28</f>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="H28" s="6">
+        <f>股票账户月报!H28</f>
+        <v>1.098853659438475</v>
+      </c>
+      <c r="I28" s="4">
+        <f>股票账户月报!I28</f>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="K28" s="18">
+        <f>天天基金账户月报!A15</f>
+        <v>43039</v>
+      </c>
+      <c r="L28" s="4">
+        <f>天天基金账户月报!B15</f>
+        <v>58146.83</v>
+      </c>
+      <c r="M28" s="4">
+        <f>天天基金账户月报!C15</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <f>天天基金账户月报!D15</f>
+        <v>1652.1899999999951</v>
+      </c>
+      <c r="O28" s="4">
+        <f>天天基金账户月报!E15</f>
+        <v>59799.02</v>
+      </c>
+      <c r="P28" s="6">
+        <f>天天基金账户月报!F15</f>
+        <v>1.2151410098772508</v>
+      </c>
+      <c r="Q28" s="4">
+        <f>天天基金账户月报!G15</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="R28" s="6">
+        <f>天天基金账户月报!H15</f>
+        <v>1.2496681513415249</v>
+      </c>
+      <c r="S28" s="4">
+        <f>天天基金账户月报!I15</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="T28" s="19"/>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="18">
+        <f>股票账户月报!A29</f>
+        <v>43069</v>
+      </c>
+      <c r="B29" s="4">
+        <f>股票账户月报!B29</f>
+        <v>513255.7699999999</v>
+      </c>
+      <c r="C29" s="4">
+        <f>股票账户月报!C29</f>
+        <v>7600</v>
+      </c>
+      <c r="D29" s="4">
+        <f>股票账户月报!D29</f>
+        <v>12530.15</v>
+      </c>
+      <c r="E29" s="4">
+        <f>股票账户月报!E29</f>
+        <v>533385.91999999993</v>
+      </c>
+      <c r="F29" s="6">
+        <f>股票账户月报!F29</f>
+        <v>1.098853659438475</v>
+      </c>
+      <c r="G29" s="4">
+        <f>股票账户月报!G29</f>
+        <v>467082.91462784825</v>
+      </c>
+      <c r="H29" s="6">
+        <f>股票账户月报!H29</f>
+        <v>1.1256800527994557</v>
+      </c>
+      <c r="I29" s="4">
+        <f>股票账户月报!I29</f>
+        <v>473834.38897537673</v>
+      </c>
+      <c r="K29" s="18">
+        <f>天天基金账户月报!A16</f>
+        <v>43069</v>
+      </c>
+      <c r="L29" s="4">
+        <f>天天基金账户月报!B16</f>
+        <v>59799.02</v>
+      </c>
+      <c r="M29" s="4">
+        <f>天天基金账户月报!C16</f>
+        <v>3960</v>
+      </c>
+      <c r="N29" s="4">
+        <f>天天基金账户月报!D16</f>
+        <v>-1755.6499999999942</v>
+      </c>
+      <c r="O29" s="4">
+        <f>天天基金账户月报!E16</f>
+        <v>62003.37</v>
+      </c>
+      <c r="P29" s="6">
+        <f>天天基金账户月报!F16</f>
+        <v>1.2496681513415249</v>
+      </c>
+      <c r="Q29" s="4">
+        <f>天天基金账户月报!G16</f>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="R29" s="6">
+        <f>天天基金账户月报!H16</f>
+        <v>1.2129789231584753</v>
+      </c>
+      <c r="S29" s="4">
+        <f>天天基金账户月报!I16</f>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="T29" s="19"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="18">
+        <f>股票账户月报!A30</f>
+        <v>43100</v>
+      </c>
+      <c r="B30" s="4">
+        <f>股票账户月报!B30</f>
+        <v>533385.91999999993</v>
+      </c>
+      <c r="C30" s="4">
+        <f>股票账户月报!C30</f>
+        <v>4500</v>
+      </c>
+      <c r="D30" s="4">
+        <f>股票账户月报!D30</f>
+        <v>34345.269999999997</v>
+      </c>
+      <c r="E30" s="4">
+        <f>股票账户月报!E30</f>
+        <v>572231.18999999994</v>
+      </c>
+      <c r="F30" s="6">
+        <f>股票账户月报!F30</f>
+        <v>1.1256800527994557</v>
+      </c>
+      <c r="G30" s="4">
+        <f>股票账户月报!G30</f>
+        <v>473834.38897537673</v>
+      </c>
+      <c r="H30" s="6">
+        <f>股票账户月报!H30</f>
+        <v>1.19816375343222</v>
+      </c>
+      <c r="I30" s="4">
+        <f>股票账户月报!I30</f>
+        <v>477590.13604009093</v>
+      </c>
+      <c r="K30" s="18">
+        <f>天天基金账户月报!A17</f>
+        <v>43100</v>
+      </c>
+      <c r="L30" s="4">
+        <f>天天基金账户月报!B17</f>
+        <v>62003.37</v>
+      </c>
+      <c r="M30" s="4">
+        <f>天天基金账户月报!C17</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <f>天天基金账户月报!D17</f>
+        <v>976.73999999999796</v>
+      </c>
+      <c r="O30" s="4">
+        <f>天天基金账户月报!E17</f>
+        <v>62980.11</v>
+      </c>
+      <c r="P30" s="6">
+        <f>天天基金账户月报!F17</f>
+        <v>1.2129789231584753</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>天天基金账户月报!G17</f>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="R30" s="6">
+        <f>天天基金账户月报!H17</f>
+        <v>1.2320869979841793</v>
+      </c>
+      <c r="S30" s="4">
+        <f>天天基金账户月报!I17</f>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="T30" s="19"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="18">
+        <f>股票账户月报!A31</f>
+        <v>43131</v>
+      </c>
+      <c r="B31" s="4">
+        <f>股票账户月报!B31</f>
+        <v>572231.18999999994</v>
+      </c>
+      <c r="C31" s="4">
+        <f>股票账户月报!C31</f>
+        <v>110000</v>
+      </c>
+      <c r="D31" s="4">
+        <f>股票账户月报!D31</f>
+        <v>-12793.43</v>
+      </c>
+      <c r="E31" s="4">
+        <f>股票账户月报!E31</f>
+        <v>669437.75999999989</v>
+      </c>
+      <c r="F31" s="6">
+        <f>股票账户月报!F31</f>
+        <v>1.19816375343222</v>
+      </c>
+      <c r="G31" s="4">
+        <f>股票账户月报!G31</f>
+        <v>477590.13604009093</v>
+      </c>
+      <c r="H31" s="6">
+        <f>股票账户月报!H31</f>
+        <v>1.1713762864504353</v>
+      </c>
+      <c r="I31" s="4">
+        <f>股票账户月报!I31</f>
+        <v>571496.76644775236</v>
+      </c>
+      <c r="K31" s="18">
+        <f>天天基金账户月报!A18</f>
+        <v>43131</v>
+      </c>
+      <c r="L31" s="4">
+        <f>天天基金账户月报!B18</f>
+        <v>62980.11</v>
+      </c>
+      <c r="M31" s="4">
+        <f>天天基金账户月报!C18</f>
+        <v>1318.48155</v>
+      </c>
+      <c r="N31" s="4">
+        <f>天天基金账户月报!D18</f>
+        <v>-726.98154999999679</v>
+      </c>
+      <c r="O31" s="4">
+        <f>天天基金账户月报!E18</f>
+        <v>63571.61</v>
+      </c>
+      <c r="P31" s="6">
+        <f>天天基金账户月报!F18</f>
+        <v>1.2320869979841793</v>
+      </c>
+      <c r="Q31" s="4">
+        <f>天天基金账户月报!G18</f>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="R31" s="6">
+        <f>天天基金账户月报!H18</f>
+        <v>1.2178649758961044</v>
+      </c>
+      <c r="S31" s="4">
+        <f>天天基金账户月报!I18</f>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="18">
+        <f>股票账户月报!A32</f>
+        <v>43159</v>
+      </c>
+      <c r="B32" s="4">
+        <f>股票账户月报!B32</f>
+        <v>669437.75999999989</v>
+      </c>
+      <c r="C32" s="4">
+        <f>股票账户月报!C32</f>
+        <v>10000</v>
+      </c>
+      <c r="D32" s="4">
+        <f>股票账户月报!D32</f>
+        <v>-24770.86</v>
+      </c>
+      <c r="E32" s="4">
+        <f>股票账户月报!E32</f>
+        <v>654666.89999999991</v>
+      </c>
+      <c r="F32" s="6">
+        <f>股票账户月报!F32</f>
+        <v>1.1713762864504353</v>
+      </c>
+      <c r="G32" s="4">
+        <f>股票账户月报!G32</f>
+        <v>571496.76644775236</v>
+      </c>
+      <c r="H32" s="6">
+        <f>股票账户月报!H32</f>
+        <v>1.1280324541590157</v>
+      </c>
+      <c r="I32" s="4">
+        <f>股票账户月报!I32</f>
+        <v>580361.75961628254</v>
+      </c>
+      <c r="K32" s="18">
+        <f>天天基金账户月报!A19</f>
+        <v>43159</v>
+      </c>
+      <c r="L32" s="4">
+        <f>天天基金账户月报!B19</f>
+        <v>63571.61</v>
+      </c>
+      <c r="M32" s="4">
+        <f>天天基金账户月报!C19</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <f>天天基金账户月报!D19</f>
+        <v>-1420.9400000000023</v>
+      </c>
+      <c r="O32" s="4">
+        <f>天天基金账户月报!E19</f>
+        <v>62150.67</v>
+      </c>
+      <c r="P32" s="6">
+        <f>天天基金账户月报!F19</f>
+        <v>1.2178649758961044</v>
+      </c>
+      <c r="Q32" s="4">
+        <f>天天基金账户月报!G19</f>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="R32" s="6">
+        <f>天天基金账户月报!H19</f>
+        <v>1.1906434998496458</v>
+      </c>
+      <c r="S32" s="4">
+        <f>天天基金账户月报!I19</f>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="T32" s="19"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="18">
+        <f>股票账户月报!A33</f>
+        <v>43190</v>
+      </c>
+      <c r="B33" s="4">
+        <f>股票账户月报!B33</f>
+        <v>654666.89999999991</v>
+      </c>
+      <c r="C33" s="4">
+        <f>股票账户月报!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <f>股票账户月报!D33</f>
+        <v>9019.69</v>
+      </c>
+      <c r="E33" s="4">
+        <f>股票账户月报!E33</f>
+        <v>663686.58999999985</v>
+      </c>
+      <c r="F33" s="6">
+        <f>股票账户月报!F33</f>
+        <v>1.1280324541590157</v>
+      </c>
+      <c r="G33" s="4">
+        <f>股票账户月报!G33</f>
+        <v>580361.75961628254</v>
+      </c>
+      <c r="H33" s="6">
+        <f>股票账户月报!H33</f>
+        <v>1.1435739502182383</v>
+      </c>
+      <c r="I33" s="4">
+        <f>股票账户月报!I33</f>
+        <v>580361.75961628254</v>
+      </c>
+      <c r="K33" s="18">
+        <f>天天基金账户月报!A20</f>
+        <v>43190</v>
+      </c>
+      <c r="L33" s="4">
+        <f>天天基金账户月报!B20</f>
+        <v>62150.67</v>
+      </c>
+      <c r="M33" s="4">
+        <f>天天基金账户月报!C20</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <f>天天基金账户月报!D20</f>
+        <v>1855.8400000000038</v>
+      </c>
+      <c r="O33" s="4">
+        <f>天天基金账户月报!E20</f>
+        <v>64006.51</v>
+      </c>
+      <c r="P33" s="6">
+        <f>天天基金账户月报!F20</f>
+        <v>1.1906434998496458</v>
+      </c>
+      <c r="Q33" s="4">
+        <f>天天基金账户月报!G20</f>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="R33" s="6">
+        <f>天天基金账户月报!H20</f>
+        <v>1.2261965169411908</v>
+      </c>
+      <c r="S33" s="4">
+        <f>天天基金账户月报!I20</f>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="18">
+        <f>股票账户月报!A34</f>
+        <v>43220</v>
+      </c>
+      <c r="B34" s="4">
+        <f>股票账户月报!B34</f>
+        <v>663686.58999999985</v>
+      </c>
+      <c r="C34" s="4">
+        <f>股票账户月报!C34</f>
+        <v>-4717</v>
+      </c>
+      <c r="D34" s="4">
+        <f>股票账户月报!D34</f>
+        <v>35059.32</v>
+      </c>
+      <c r="E34" s="4">
+        <f>股票账户月报!E34</f>
+        <v>694028.9099999998</v>
+      </c>
+      <c r="F34" s="6">
+        <f>股票账户月报!F34</f>
+        <v>1.1435739502182383</v>
+      </c>
+      <c r="G34" s="4">
+        <f>股票账户月报!G34</f>
+        <v>580361.75961628254</v>
+      </c>
+      <c r="H34" s="6">
+        <f>股票账户月报!H34</f>
+        <v>1.2039833748901534</v>
+      </c>
+      <c r="I34" s="4">
+        <f>股票账户月报!I34</f>
+        <v>576443.93143162807</v>
+      </c>
+      <c r="K34" s="18">
+        <f>天天基金账户月报!A21</f>
+        <v>43220</v>
+      </c>
+      <c r="L34" s="4">
+        <f>天天基金账户月报!B21</f>
+        <v>64006.51</v>
+      </c>
+      <c r="M34" s="4">
+        <f>天天基金账户月报!C21</f>
+        <v>15927.75</v>
+      </c>
+      <c r="N34" s="4">
+        <f>天天基金账户月报!D21</f>
+        <v>-479.47000000000844</v>
+      </c>
+      <c r="O34" s="4">
+        <f>天天基金账户月报!E21</f>
+        <v>79454.789999999994</v>
+      </c>
+      <c r="P34" s="6">
+        <f>天天基金账户月报!F21</f>
+        <v>1.2261965169411908</v>
+      </c>
+      <c r="Q34" s="4">
+        <f>天天基金账户月报!G21</f>
+        <v>52199.226727268382</v>
+      </c>
+      <c r="R34" s="6">
+        <f>天天基金账户月报!H21</f>
+        <v>1.2170111318299293</v>
+      </c>
+      <c r="S34" s="4">
+        <f>天天基金账户月报!I21</f>
+        <v>65286.822710101034</v>
+      </c>
+      <c r="T34" s="19"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="18">
+        <f>股票账户月报!A35</f>
+        <v>43251</v>
+      </c>
+      <c r="B35" s="4">
+        <f>股票账户月报!B35</f>
+        <v>694028.9099999998</v>
+      </c>
+      <c r="C35" s="4">
+        <f>股票账户月报!C35</f>
+        <v>-27872</v>
+      </c>
+      <c r="D35" s="4">
+        <f>股票账户月报!D35</f>
+        <v>2215.64</v>
+      </c>
+      <c r="E35" s="4">
+        <f>股票账户月报!E35</f>
+        <v>668372.54999999981</v>
+      </c>
+      <c r="F35" s="6">
+        <f>股票账户月报!F35</f>
+        <v>1.2039833748901534</v>
+      </c>
+      <c r="G35" s="4">
+        <f>股票账户月报!G35</f>
+        <v>576443.93143162807</v>
+      </c>
+      <c r="H35" s="6">
+        <f>股票账户月报!H35</f>
+        <v>1.2078270097680459</v>
+      </c>
+      <c r="I35" s="4">
+        <f>股票账户月报!I35</f>
+        <v>553367.77915601979</v>
+      </c>
+      <c r="K35" s="18">
+        <f>天天基金账户月报!A22</f>
+        <v>43251</v>
+      </c>
+      <c r="L35" s="4">
+        <f>天天基金账户月报!B22</f>
+        <v>79454.789999999994</v>
+      </c>
+      <c r="M35" s="4">
+        <f>天天基金账户月报!C22</f>
+        <v>25600</v>
+      </c>
+      <c r="N35" s="4">
+        <f>天天基金账户月报!D22</f>
+        <v>2612.2300000000105</v>
+      </c>
+      <c r="O35" s="4">
+        <f>天天基金账户月报!E22</f>
+        <v>107667.02</v>
+      </c>
+      <c r="P35" s="6">
+        <f>天天基金账户月报!F22</f>
+        <v>1.2170111318299293</v>
+      </c>
+      <c r="Q35" s="4">
+        <f>天天基金账户月报!G22</f>
+        <v>65286.822710101034</v>
+      </c>
+      <c r="R35" s="6">
+        <f>天天基金账户月报!H22</f>
+        <v>1.2570227282220425</v>
+      </c>
+      <c r="S35" s="4">
+        <f>天天基金账户月报!I22</f>
+        <v>85652.405149655766</v>
+      </c>
+      <c r="T35" s="19"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="18">
+        <f>股票账户月报!A36</f>
+        <v>43281</v>
+      </c>
+      <c r="B36" s="4">
+        <f>股票账户月报!B36</f>
+        <v>668372.54999999981</v>
+      </c>
+      <c r="C36" s="4">
+        <f>股票账户月报!C36</f>
+        <v>-30000</v>
+      </c>
+      <c r="D36" s="4">
+        <f>股票账户月报!D36</f>
+        <v>-17061.14</v>
+      </c>
+      <c r="E36" s="4">
+        <f>股票账户月报!E36</f>
+        <v>621311.4099999998</v>
+      </c>
+      <c r="F36" s="6">
+        <f>股票账户月报!F36</f>
+        <v>1.2078270097680459</v>
+      </c>
+      <c r="G36" s="4">
+        <f>股票账户月报!G36</f>
+        <v>553367.77915601979</v>
+      </c>
+      <c r="H36" s="6">
+        <f>股票账户月报!H36</f>
+        <v>1.1769955435304902</v>
+      </c>
+      <c r="I36" s="4">
+        <f>股票账户月报!I36</f>
+        <v>527879.1524871263</v>
+      </c>
+      <c r="K36" s="18">
+        <f>天天基金账户月报!A23</f>
+        <v>43281</v>
+      </c>
+      <c r="L36" s="4">
+        <f>天天基金账户月报!B23</f>
+        <v>107667.02</v>
+      </c>
+      <c r="M36" s="4">
+        <f>天天基金账户月报!C23</f>
+        <v>39200</v>
+      </c>
+      <c r="N36" s="4">
+        <f>天天基金账户月报!D23</f>
+        <v>-5013.8400000000111</v>
+      </c>
+      <c r="O36" s="4">
+        <f>天天基金账户月报!E23</f>
+        <v>141853.18</v>
+      </c>
+      <c r="P36" s="6">
+        <f>天天基金账户月报!F23</f>
+        <v>1.2570227282220425</v>
+      </c>
+      <c r="Q36" s="4">
+        <f>天天基金账户月报!G23</f>
+        <v>85652.405149655766</v>
+      </c>
+      <c r="R36" s="6">
+        <f>天天基金账户月报!H23</f>
+        <v>1.1984856679814151</v>
+      </c>
+      <c r="S36" s="4">
+        <f>天天基金账户月报!I23</f>
+        <v>118360.34738648181</v>
+      </c>
+      <c r="T36" s="19"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="18">
+        <f>股票账户月报!A37</f>
+        <v>43312</v>
+      </c>
+      <c r="B37" s="4">
+        <f>股票账户月报!B37</f>
+        <v>621311.4099999998</v>
+      </c>
+      <c r="C37" s="4">
+        <f>股票账户月报!C37</f>
+        <v>-153636.5</v>
+      </c>
+      <c r="D37" s="4">
+        <f>股票账户月报!D37</f>
+        <v>-697.03</v>
+      </c>
+      <c r="E37" s="4">
+        <f>股票账户月报!E37</f>
+        <v>466977.87999999977</v>
+      </c>
+      <c r="F37" s="6">
+        <f>股票账户月报!F37</f>
+        <v>1.1769955435304902</v>
+      </c>
+      <c r="G37" s="4">
+        <f>股票账户月报!G37</f>
+        <v>527879.1524871263</v>
+      </c>
+      <c r="H37" s="6">
+        <f>股票账户月报!H37</f>
+        <v>1.1756751087364359</v>
+      </c>
+      <c r="I37" s="4">
+        <f>股票账户月报!I37</f>
+        <v>397199.76763128652</v>
+      </c>
+      <c r="K37" s="18">
+        <f>天天基金账户月报!A24</f>
+        <v>43312</v>
+      </c>
+      <c r="L37" s="4">
+        <f>天天基金账户月报!B24</f>
+        <v>141853.18</v>
+      </c>
+      <c r="M37" s="4">
+        <f>天天基金账户月报!C24</f>
+        <v>165543.29000000018</v>
+      </c>
+      <c r="N37" s="4">
+        <f>天天基金账户月报!D24</f>
+        <v>2411.9599999998172</v>
+      </c>
+      <c r="O37" s="4">
+        <f>天天基金账户月报!E24</f>
+        <v>309808.43</v>
+      </c>
+      <c r="P37" s="6">
+        <f>天天基金账户月报!F24</f>
+        <v>1.1984856679814151</v>
+      </c>
+      <c r="Q37" s="4">
+        <f>天天基金账户月报!G24</f>
+        <v>118360.34738648181</v>
+      </c>
+      <c r="R37" s="6">
+        <f>天天基金账户月报!H24</f>
+        <v>1.2188637764717869</v>
+      </c>
+      <c r="S37" s="4">
+        <f>天天基金账户月报!I24</f>
+        <v>254178.05991149752</v>
+      </c>
+      <c r="T37" s="19"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="18">
+        <f>股票账户月报!A38</f>
+        <v>43343</v>
+      </c>
+      <c r="B38" s="4">
+        <f>股票账户月报!B38</f>
+        <v>466977.87999999977</v>
+      </c>
+      <c r="C38" s="4">
+        <f>股票账户月报!C38</f>
+        <v>4000</v>
+      </c>
+      <c r="D38" s="4">
+        <f>股票账户月报!D38</f>
+        <v>-18491.63</v>
+      </c>
+      <c r="E38" s="4">
+        <f>股票账户月报!E38</f>
+        <v>452486.24999999977</v>
+      </c>
+      <c r="F38" s="6">
+        <f>股票账户月报!F38</f>
+        <v>1.1756751087364359</v>
+      </c>
+      <c r="G38" s="4">
+        <f>股票账户月报!G38</f>
+        <v>397199.76763128652</v>
+      </c>
+      <c r="H38" s="6">
+        <f>股票账户月报!H38</f>
+        <v>1.1291201217829552</v>
+      </c>
+      <c r="I38" s="4">
+        <f>股票账户月报!I38</f>
+        <v>400742.34908283636</v>
+      </c>
+      <c r="K38" s="18">
+        <f>天天基金账户月报!A25</f>
+        <v>43343</v>
+      </c>
+      <c r="L38" s="4">
+        <f>天天基金账户月报!B25</f>
+        <v>309808.43</v>
+      </c>
+      <c r="M38" s="4">
+        <f>天天基金账户月报!C25</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f>天天基金账户月报!D25</f>
+        <v>-10933.159999999974</v>
+      </c>
+      <c r="O38" s="4">
+        <f>天天基金账户月报!E25</f>
+        <v>298875.27</v>
+      </c>
+      <c r="P38" s="6">
+        <f>天天基金账户月报!F25</f>
+        <v>1.2188637764717869</v>
+      </c>
+      <c r="Q38" s="4">
+        <f>天天基金账户月报!G25</f>
+        <v>254178.05991149752</v>
+      </c>
+      <c r="R38" s="6">
+        <f>天天基金账户月报!H25</f>
+        <v>1.1758499931271238</v>
+      </c>
+      <c r="S38" s="4">
+        <f>天天基金账户月报!I25</f>
+        <v>254178.05991149752</v>
+      </c>
+      <c r="T38" s="19"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="18">
+        <f>股票账户月报!A39</f>
+        <v>43373</v>
+      </c>
+      <c r="B39" s="4">
+        <f>股票账户月报!B39</f>
+        <v>452486.24999999977</v>
+      </c>
+      <c r="C39" s="4">
+        <f>股票账户月报!C39</f>
+        <v>-136795.16</v>
+      </c>
+      <c r="D39" s="4">
+        <f>股票账户月报!D39</f>
+        <v>775.95</v>
+      </c>
+      <c r="E39" s="4">
+        <f>股票账户月报!E39</f>
+        <v>316467.03999999975</v>
+      </c>
+      <c r="F39" s="6">
+        <f>股票账户月报!F39</f>
+        <v>1.1291201217829552</v>
+      </c>
+      <c r="G39" s="4">
+        <f>股票账户月报!G39</f>
+        <v>400742.34908283636</v>
+      </c>
+      <c r="H39" s="6">
+        <f>股票账户月报!H39</f>
+        <v>1.1310564032909514</v>
+      </c>
+      <c r="I39" s="4">
+        <f>股票账户月报!I39</f>
+        <v>279797.75286112964</v>
+      </c>
+      <c r="K39" s="18">
+        <f>天天基金账户月报!A26</f>
+        <v>43373</v>
+      </c>
+      <c r="L39" s="4">
+        <f>天天基金账户月报!B26</f>
+        <v>298875.27</v>
+      </c>
+      <c r="M39" s="4">
+        <f>天天基金账户月报!C26</f>
+        <v>153849.14000000001</v>
+      </c>
+      <c r="N39" s="4">
+        <f>天天基金账户月报!D26</f>
+        <v>2167.5899999999674</v>
+      </c>
+      <c r="O39" s="4">
+        <f>天天基金账户月报!E26</f>
+        <v>454892</v>
+      </c>
+      <c r="P39" s="6">
+        <f>天天基金账户月报!F26</f>
+        <v>1.1758499931271238</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>天天基金账户月报!G26</f>
+        <v>254178.05991149752</v>
+      </c>
+      <c r="R39" s="6">
+        <f>天天基金账户月报!H26</f>
+        <v>1.1843778338099691</v>
+      </c>
+      <c r="S39" s="4">
+        <f>天天基金账户月报!I26</f>
+        <v>384076.75913410116</v>
+      </c>
+      <c r="T39" s="19"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="18">
+        <f>股票账户月报!A40</f>
+        <v>43404</v>
+      </c>
+      <c r="B40" s="4">
+        <f>股票账户月报!B40</f>
+        <v>316467.03999999975</v>
+      </c>
+      <c r="C40" s="4">
+        <f>股票账户月报!C40</f>
+        <v>12800</v>
+      </c>
+      <c r="D40" s="4">
+        <f>股票账户月报!D40</f>
+        <v>-29523.88</v>
+      </c>
+      <c r="E40" s="4">
+        <f>股票账户月报!E40</f>
+        <v>299743.15999999974</v>
+      </c>
+      <c r="F40" s="6">
+        <f>股票账户月报!F40</f>
+        <v>1.1310564032909514</v>
+      </c>
+      <c r="G40" s="4">
+        <f>股票账户月报!G40</f>
+        <v>279797.75286112964</v>
+      </c>
+      <c r="H40" s="6">
+        <f>股票账户月报!H40</f>
+        <v>1.0255377574187186</v>
+      </c>
+      <c r="I40" s="4">
+        <f>股票账户月报!I40</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="K40" s="18">
+        <f>天天基金账户月报!A27</f>
+        <v>43404</v>
+      </c>
+      <c r="L40" s="4">
+        <f>天天基金账户月报!B27</f>
+        <v>454892</v>
+      </c>
+      <c r="M40" s="4">
+        <f>天天基金账户月报!C27</f>
+        <v>-3904.8300000000008</v>
+      </c>
+      <c r="N40" s="4">
+        <f>天天基金账户月报!D27</f>
+        <v>-11488.190000000002</v>
+      </c>
+      <c r="O40" s="4">
+        <f>天天基金账户月报!E27</f>
+        <v>439498.98</v>
+      </c>
+      <c r="P40" s="6">
+        <f>天天基金账户月报!F27</f>
+        <v>1.1843778338099691</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>天天基金账户月报!G27</f>
+        <v>384076.75913410116</v>
+      </c>
+      <c r="R40" s="6">
+        <f>天天基金账户月报!H27</f>
+        <v>1.1544666514049207</v>
+      </c>
+      <c r="S40" s="4">
+        <f>天天基金账户月报!I27</f>
+        <v>380694.39205121656</v>
+      </c>
+      <c r="T40" s="19"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="18">
+        <f>股票账户月报!A41</f>
+        <v>43434</v>
+      </c>
+      <c r="B41" s="4">
+        <f>股票账户月报!B41</f>
+        <v>299743.15999999974</v>
+      </c>
+      <c r="C41" s="4">
+        <f>股票账户月报!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <f>股票账户月报!D41</f>
+        <v>9969.0499999999993</v>
+      </c>
+      <c r="E41" s="4">
+        <f>股票账户月报!E41</f>
+        <v>309712.20999999973</v>
+      </c>
+      <c r="F41" s="6">
+        <f>股票账户月报!F41</f>
+        <v>1.0255377574187186</v>
+      </c>
+      <c r="G41" s="4">
+        <f>股票账户月报!G41</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H41" s="6">
+        <f>股票账户月报!H41</f>
+        <v>1.0596457490092357</v>
+      </c>
+      <c r="I41" s="4">
+        <f>股票账户月报!I41</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="K41" s="18">
+        <f>天天基金账户月报!A28</f>
+        <v>43434</v>
+      </c>
+      <c r="L41" s="4">
+        <f>天天基金账户月报!B28</f>
+        <v>439498.98</v>
+      </c>
+      <c r="M41" s="4">
+        <f>天天基金账户月报!C28</f>
+        <v>9000.7599999999966</v>
+      </c>
+      <c r="N41" s="4">
+        <f>天天基金账户月报!D28</f>
+        <v>3026.5</v>
+      </c>
+      <c r="O41" s="4">
+        <f>天天基金账户月报!E28</f>
+        <v>451526.24</v>
+      </c>
+      <c r="P41" s="6">
+        <f>天天基金账户月报!F28</f>
+        <v>1.1544666514049207</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>天天基金账户月报!G28</f>
+        <v>380694.39205121656</v>
+      </c>
+      <c r="R41" s="6">
+        <f>天天基金账户月报!H28</f>
+        <v>1.162416597774482</v>
+      </c>
+      <c r="S41" s="4">
+        <f>天天基金账户月报!I28</f>
+        <v>388437.53682154464</v>
+      </c>
+      <c r="T41" s="19"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="18">
+        <f>股票账户月报!A42</f>
+        <v>43465</v>
+      </c>
+      <c r="B42" s="4">
+        <f>股票账户月报!B42</f>
+        <v>309712.20999999973</v>
+      </c>
+      <c r="C42" s="4">
+        <f>股票账户月报!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f>股票账户月报!D42</f>
+        <v>-15749.69</v>
+      </c>
+      <c r="E42" s="4">
+        <f>股票账户月报!E42</f>
+        <v>293962.51999999973</v>
+      </c>
+      <c r="F42" s="6">
+        <f>股票账户月报!F42</f>
+        <v>1.0596457490092357</v>
+      </c>
+      <c r="G42" s="4">
+        <f>股票账户月报!G42</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H42" s="6">
+        <f>股票账户月报!H42</f>
+        <v>1.005759943032412</v>
+      </c>
+      <c r="I42" s="4">
+        <f>股票账户月报!I42</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="K42" s="18">
+        <f>天天基金账户月报!A29</f>
+        <v>43465</v>
+      </c>
+      <c r="L42" s="4">
+        <f>天天基金账户月报!B29</f>
+        <v>451526.24</v>
+      </c>
+      <c r="M42" s="4">
+        <f>天天基金账户月报!C29</f>
+        <v>-110391.78999999998</v>
+      </c>
+      <c r="N42" s="4">
+        <f>天天基金账户月报!D29</f>
+        <v>-12471.179999999993</v>
+      </c>
+      <c r="O42" s="4">
+        <f>天天基金账户月报!E29</f>
+        <v>328663.27</v>
+      </c>
+      <c r="P42" s="6">
+        <f>天天基金账户月报!F29</f>
+        <v>1.162416597774482</v>
+      </c>
+      <c r="Q42" s="4">
+        <f>天天基金账户月报!G29</f>
+        <v>388437.53682154464</v>
+      </c>
+      <c r="R42" s="6">
+        <f>天天基金账户月报!H29</f>
+        <v>1.1303105863368452</v>
+      </c>
+      <c r="S42" s="4">
+        <f>天天基金账户月报!I29</f>
+        <v>290772.53099534777</v>
+      </c>
+      <c r="T42" s="19"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="18">
+        <f>股票账户月报!A43</f>
+        <v>43496</v>
+      </c>
+      <c r="B43" s="4">
+        <f>股票账户月报!B43</f>
+        <v>293962.51999999973</v>
+      </c>
+      <c r="C43" s="4">
+        <f>股票账户月报!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="4">
+        <f>股票账户月报!D43</f>
+        <v>3567.2</v>
+      </c>
+      <c r="E43" s="4">
+        <f>股票账户月报!E43</f>
+        <v>297529.71999999974</v>
+      </c>
+      <c r="F43" s="6">
+        <f>股票账户月报!F43</f>
+        <v>1.005759943032412</v>
+      </c>
+      <c r="G43" s="4">
+        <f>股票账户月报!G43</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H43" s="6">
+        <f>股票账户月报!H43</f>
+        <v>1.0179647195759838</v>
+      </c>
+      <c r="I43" s="4">
+        <f>股票账户月报!I43</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="K43" s="18">
+        <f>天天基金账户月报!A30</f>
+        <v>43496</v>
+      </c>
+      <c r="L43" s="4">
+        <f>天天基金账户月报!B30</f>
+        <v>328663.27</v>
+      </c>
+      <c r="M43" s="4">
+        <f>天天基金账户月报!C30</f>
+        <v>29786.399999999991</v>
+      </c>
+      <c r="N43" s="4">
+        <f>天天基金账户月报!D30</f>
+        <v>9003.9500000000116</v>
+      </c>
+      <c r="O43" s="4">
+        <f>天天基金账户月报!E30</f>
+        <v>367453.62</v>
+      </c>
+      <c r="P43" s="6">
+        <f>天天基金账户月报!F30</f>
+        <v>1.1303105863368452</v>
+      </c>
+      <c r="Q43" s="4">
+        <f>天天基金账户月报!G30</f>
+        <v>290772.53099534777</v>
+      </c>
+      <c r="R43" s="6">
+        <f>天天基金账户月报!H30</f>
+        <v>1.1612762004860857</v>
+      </c>
+      <c r="S43" s="4">
+        <f>天天基金账户月报!I30</f>
+        <v>316422.24291360809</v>
+      </c>
+      <c r="T43" s="19"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="18">
+        <f>股票账户月报!A44</f>
+        <v>43524</v>
+      </c>
+      <c r="B44" s="4">
+        <f>股票账户月报!B44</f>
+        <v>297529.71999999974</v>
+      </c>
+      <c r="C44" s="4">
+        <f>股票账户月报!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <f>股票账户月报!D44</f>
+        <v>59792.639999999999</v>
+      </c>
+      <c r="E44" s="4">
+        <f>股票账户月报!E44</f>
+        <v>357322.35999999975</v>
+      </c>
+      <c r="F44" s="6">
+        <f>股票账户月报!F44</f>
+        <v>1.0179647195759838</v>
+      </c>
+      <c r="G44" s="4">
+        <f>股票账户月报!G44</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H44" s="6">
+        <f>股票账户月报!H44</f>
+        <v>1.2225385618472964</v>
+      </c>
+      <c r="I44" s="4">
+        <f>股票账户月报!I44</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="K44" s="18">
+        <f>天天基金账户月报!A31</f>
+        <v>43524</v>
+      </c>
+      <c r="L44" s="4">
+        <f>天天基金账户月报!B31</f>
+        <v>367453.62</v>
+      </c>
+      <c r="M44" s="4">
+        <f>天天基金账户月报!C31</f>
+        <v>23760.289999999994</v>
+      </c>
+      <c r="N44" s="4">
+        <f>天天基金账户月报!D31</f>
+        <v>32946.070000000007</v>
+      </c>
+      <c r="O44" s="4">
+        <f>天天基金账户月报!E31</f>
+        <v>424159.98</v>
+      </c>
+      <c r="P44" s="6">
+        <f>天天基金账户月报!F31</f>
+        <v>1.1612762004860857</v>
+      </c>
+      <c r="Q44" s="4">
+        <f>天天基金账户月报!G31</f>
+        <v>316422.24291360809</v>
+      </c>
+      <c r="R44" s="6">
+        <f>天天基金账户月报!H31</f>
+        <v>1.2653967885226072</v>
+      </c>
+      <c r="S44" s="4">
+        <f>天天基金账户月报!I31</f>
+        <v>335199.1911526983</v>
+      </c>
+      <c r="T44" s="19"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="18">
+        <f>股票账户月报!A45</f>
+        <v>43555</v>
+      </c>
+      <c r="B45" s="4">
+        <f>股票账户月报!B45</f>
+        <v>357322.35999999975</v>
+      </c>
+      <c r="C45" s="4">
+        <f>股票账户月报!C45</f>
+        <v>-8831</v>
+      </c>
+      <c r="D45" s="4">
+        <f>股票账户月报!D45</f>
+        <v>32963.339999999997</v>
+      </c>
+      <c r="E45" s="4">
+        <f>股票账户月报!E45</f>
+        <v>381454.69999999972</v>
+      </c>
+      <c r="F45" s="6">
+        <f>股票账户月报!F45</f>
+        <v>1.2225385618472964</v>
+      </c>
+      <c r="G45" s="4">
+        <f>股票账户月报!G45</f>
+        <v>292279.00955539086</v>
+      </c>
+      <c r="H45" s="6">
+        <f>股票账户月报!H45</f>
+        <v>1.3353189494986135</v>
+      </c>
+      <c r="I45" s="4">
+        <f>股票账户月报!I45</f>
+        <v>285665.6083127021</v>
+      </c>
+      <c r="K45" s="18">
+        <f>天天基金账户月报!A32</f>
+        <v>43555</v>
+      </c>
+      <c r="L45" s="4">
+        <f>天天基金账户月报!B32</f>
+        <v>424159.98</v>
+      </c>
+      <c r="M45" s="4">
+        <f>天天基金账户月报!C32</f>
+        <v>18495.859999999997</v>
+      </c>
+      <c r="N45" s="4">
+        <f>天天基金账户月报!D32</f>
+        <v>21615.800000000047</v>
+      </c>
+      <c r="O45" s="4">
+        <f>天天基金账户月报!E32</f>
+        <v>464271.64</v>
+      </c>
+      <c r="P45" s="6">
+        <f>天天基金账户月报!F32</f>
+        <v>1.2653967885226072</v>
+      </c>
+      <c r="Q45" s="4">
+        <f>天天基金账户月报!G32</f>
+        <v>335199.1911526983</v>
+      </c>
+      <c r="R45" s="6">
+        <f>天天基金账户月报!H32</f>
+        <v>1.3298832209798774</v>
+      </c>
+      <c r="S45" s="4">
+        <f>天天基金账户月报!I32</f>
+        <v>349107.07397144084</v>
+      </c>
+      <c r="T45" s="19"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="18">
+        <f>股票账户月报!A46</f>
+        <v>43585</v>
+      </c>
+      <c r="B46" s="4">
+        <f>股票账户月报!B46</f>
+        <v>381454.69999999972</v>
+      </c>
+      <c r="C46" s="4">
+        <f>股票账户月报!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <f>股票账户月报!D46</f>
+        <v>17675.7</v>
+      </c>
+      <c r="E46" s="4">
+        <f>股票账户月报!E46</f>
+        <v>398074.8</v>
+      </c>
+      <c r="F46" s="6">
+        <f>股票账户月报!F46</f>
+        <v>1.3353189494986135</v>
+      </c>
+      <c r="G46" s="4">
+        <f>股票账户月报!G46</f>
+        <v>285665.6083127021</v>
+      </c>
+      <c r="H46" s="6">
+        <f>股票账户月报!H46</f>
+        <v>1.3971944412821795</v>
+      </c>
+      <c r="I46" s="4">
+        <f>股票账户月报!I46</f>
+        <v>285665.6083127021</v>
+      </c>
+      <c r="K46" s="18">
+        <f>天天基金账户月报!A33</f>
+        <v>43585</v>
+      </c>
+      <c r="L46" s="4">
+        <f>天天基金账户月报!B33</f>
+        <v>464271.64</v>
+      </c>
+      <c r="M46" s="4">
+        <f>天天基金账户月报!C33</f>
+        <v>12895.12</v>
+      </c>
+      <c r="N46" s="4">
+        <f>天天基金账户月报!D33</f>
+        <v>15527.219999999972</v>
+      </c>
+      <c r="O46" s="4">
+        <f>天天基金账户月报!E33</f>
+        <v>492693.98</v>
+      </c>
+      <c r="P46" s="6">
+        <f>天天基金账户月报!F33</f>
+        <v>1.3298832209798774</v>
+      </c>
+      <c r="Q46" s="4">
+        <f>天天基金账户月报!G33</f>
+        <v>349107.07397144084</v>
+      </c>
+      <c r="R46" s="6">
+        <f>天天基金账户月报!H33</f>
+        <v>1.3743601770706328</v>
+      </c>
+      <c r="S46" s="4">
+        <f>天天基金账户月报!I33</f>
+        <v>358489.70904420991</v>
+      </c>
+      <c r="T46" s="19"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="18">
+        <f t="shared" ref="A51:A95" si="0">A2</f>
+        <v>42247</v>
+      </c>
+      <c r="B51" s="20">
+        <f>D51/C51</f>
+        <v>0.97196399999999994</v>
+      </c>
+      <c r="C51" s="4">
+        <f>I2</f>
+        <v>25000</v>
+      </c>
+      <c r="D51" s="6">
+        <f>E2</f>
+        <v>24299.1</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="18">
+        <f t="shared" si="0"/>
+        <v>42277</v>
+      </c>
+      <c r="B52" s="21">
+        <f t="shared" ref="B52:B95" si="1">(D51+D3+N3)/C51</f>
+        <v>1.0180187999999999</v>
+      </c>
+      <c r="C52" s="15">
+        <f t="shared" ref="C52:C95" si="2">C3/B52+C51+M3/B52</f>
+        <v>44646.002608203307</v>
+      </c>
+      <c r="D52" s="14">
+        <f t="shared" ref="D52:D63" si="3">B52*C52</f>
+        <v>45450.469999999994</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="18">
+        <f t="shared" si="0"/>
+        <v>42308</v>
+      </c>
+      <c r="B53" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1406098424283839</v>
+      </c>
+      <c r="C53" s="15">
+        <f t="shared" si="2"/>
+        <v>79714.961784321844</v>
+      </c>
+      <c r="D53" s="14">
+        <f t="shared" si="3"/>
+        <v>90923.669999999984</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="18">
+        <f t="shared" si="0"/>
+        <v>42338</v>
+      </c>
+      <c r="B54" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1912039832235843</v>
+      </c>
+      <c r="C54" s="15">
+        <f t="shared" si="2"/>
+        <v>188176.65417252609</v>
+      </c>
+      <c r="D54" s="14">
+        <f t="shared" si="3"/>
+        <v>224156.78</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="18">
+        <f t="shared" si="0"/>
+        <v>42369</v>
+      </c>
+      <c r="B55" s="21">
+        <f t="shared" si="1"/>
+        <v>1.2940334765265062</v>
+      </c>
+      <c r="C55" s="15">
+        <f t="shared" si="2"/>
+        <v>199768.3171952352</v>
+      </c>
+      <c r="D55" s="14">
+        <f t="shared" si="3"/>
+        <v>258506.89000000004</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="18">
+        <f t="shared" si="0"/>
+        <v>42400</v>
+      </c>
+      <c r="B56" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1305054433595974</v>
+      </c>
+      <c r="C56" s="15">
+        <f t="shared" si="2"/>
+        <v>314761.12927199132</v>
+      </c>
+      <c r="D56" s="14">
+        <f t="shared" si="3"/>
+        <v>355839.1700000001</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="18">
+        <f t="shared" si="0"/>
+        <v>42429</v>
+      </c>
+      <c r="B57" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1327706531764801</v>
+      </c>
+      <c r="C57" s="15">
+        <f t="shared" si="2"/>
+        <v>358900.69085031399</v>
+      </c>
+      <c r="D57" s="14">
+        <f t="shared" si="3"/>
+        <v>406552.1700000001</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="18">
+        <f t="shared" si="0"/>
+        <v>42460</v>
+      </c>
+      <c r="B58" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1340288563828604</v>
+      </c>
+      <c r="C58" s="15">
+        <f t="shared" si="2"/>
+        <v>180069.26265645106</v>
+      </c>
+      <c r="D58" s="14">
+        <f t="shared" si="3"/>
+        <v>204203.74000000011</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="18">
+        <f t="shared" si="0"/>
+        <v>42490</v>
+      </c>
+      <c r="B59" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1397162234820075</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="2"/>
+        <v>294132.74382971198</v>
+      </c>
+      <c r="D59" s="14">
+        <f t="shared" si="3"/>
+        <v>335227.8600000001</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="18">
+        <f t="shared" si="0"/>
+        <v>42521</v>
+      </c>
+      <c r="B60" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1452223088600355</v>
+      </c>
+      <c r="C60" s="15">
+        <f t="shared" si="2"/>
+        <v>304611.05874478281</v>
+      </c>
+      <c r="D60" s="14">
+        <f t="shared" si="3"/>
+        <v>348847.38000000006</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="18">
+        <f t="shared" si="0"/>
+        <v>42551</v>
+      </c>
+      <c r="B61" s="21">
+        <f t="shared" si="1"/>
+        <v>1.16244994997597</v>
+      </c>
+      <c r="C61" s="15">
+        <f t="shared" si="2"/>
+        <v>413088.84740364656</v>
+      </c>
+      <c r="D61" s="14">
+        <f t="shared" si="3"/>
+        <v>480195.11000000004</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="18">
+        <f t="shared" si="0"/>
+        <v>42582</v>
+      </c>
+      <c r="B62" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1647708308373774</v>
+      </c>
+      <c r="C62" s="15">
+        <f t="shared" si="2"/>
+        <v>424679.11017687776</v>
+      </c>
+      <c r="D62" s="14">
+        <f t="shared" si="3"/>
+        <v>494653.84</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="18">
+        <f t="shared" si="0"/>
+        <v>42613</v>
+      </c>
+      <c r="B63" s="21">
+        <f t="shared" si="1"/>
+        <v>1.1758948062974193</v>
+      </c>
+      <c r="C63" s="15">
+        <f t="shared" si="2"/>
+        <v>430632.02361991024</v>
+      </c>
+      <c r="D63" s="14">
+        <f t="shared" si="3"/>
+        <v>506377.96</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="22">
+        <f t="shared" si="0"/>
+        <v>42643</v>
+      </c>
+      <c r="B64" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1796194712364478</v>
+      </c>
+      <c r="C64" s="24">
+        <f t="shared" si="2"/>
+        <v>433514.30903728824</v>
+      </c>
+      <c r="D64" s="25">
+        <f t="shared" ref="D64" si="4">B64*C64</f>
+        <v>511381.92</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="22">
+        <f t="shared" si="0"/>
+        <v>42674</v>
+      </c>
+      <c r="B65" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1832224203604769</v>
+      </c>
+      <c r="C65" s="24">
+        <f t="shared" si="2"/>
+        <v>447881.85287982365</v>
+      </c>
+      <c r="D65" s="25">
+        <f t="shared" ref="D65:D95" si="5">B65*C65</f>
+        <v>529943.85</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="22">
+        <f t="shared" si="0"/>
+        <v>42704</v>
+      </c>
+      <c r="B66" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2113863209938536</v>
+      </c>
+      <c r="C66" s="24">
+        <f t="shared" si="2"/>
+        <v>462740.86167664774</v>
+      </c>
+      <c r="D66" s="25">
+        <f t="shared" si="5"/>
+        <v>560557.94999999995</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="22">
+        <f t="shared" si="0"/>
+        <v>42735</v>
+      </c>
+      <c r="B67" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2115476639963485</v>
+      </c>
+      <c r="C67" s="24">
+        <f t="shared" si="2"/>
+        <v>463071.0178990456</v>
+      </c>
+      <c r="D67" s="25">
+        <f t="shared" si="5"/>
+        <v>561032.61</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="22">
+        <f t="shared" si="0"/>
+        <v>42766</v>
+      </c>
+      <c r="B68" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2272031244328305</v>
+      </c>
+      <c r="C68" s="24">
+        <f t="shared" si="2"/>
+        <v>475554.68885374622</v>
+      </c>
+      <c r="D68" s="25">
+        <f t="shared" si="5"/>
+        <v>583602.19999999995</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="22">
+        <f t="shared" si="0"/>
+        <v>42794</v>
+      </c>
+      <c r="B69" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2245224653417117</v>
+      </c>
+      <c r="C69" s="24">
+        <f t="shared" si="2"/>
+        <v>483851.8008198911</v>
+      </c>
+      <c r="D69" s="25">
+        <f t="shared" si="5"/>
+        <v>592487.39999999991</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="22">
+        <f t="shared" si="0"/>
+        <v>42825</v>
+      </c>
+      <c r="B70" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2182520949620643</v>
+      </c>
+      <c r="C70" s="24">
+        <f t="shared" si="2"/>
+        <v>483851.8008198911</v>
+      </c>
+      <c r="D70" s="25">
+        <f t="shared" si="5"/>
+        <v>589453.46999999986</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="22">
+        <f t="shared" si="0"/>
+        <v>42855</v>
+      </c>
+      <c r="B71" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1930747369789851</v>
+      </c>
+      <c r="C71" s="24">
+        <f t="shared" si="2"/>
+        <v>487170.95583781332</v>
+      </c>
+      <c r="D71" s="25">
+        <f t="shared" si="5"/>
+        <v>581231.35999999987</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="22">
+        <f t="shared" si="0"/>
+        <v>42886</v>
+      </c>
+      <c r="B72" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1472993069522737</v>
+      </c>
+      <c r="C72" s="24">
+        <f t="shared" si="2"/>
+        <v>487659.93024632253</v>
+      </c>
+      <c r="D72" s="25">
+        <f t="shared" si="5"/>
+        <v>559491.89999999991</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="22">
+        <f t="shared" si="0"/>
+        <v>42916</v>
+      </c>
+      <c r="B73" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0897594553884458</v>
+      </c>
+      <c r="C73" s="24">
+        <f t="shared" si="2"/>
+        <v>487659.93024632253</v>
+      </c>
+      <c r="D73" s="25">
+        <f t="shared" si="5"/>
+        <v>531432.0199999999</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="22">
+        <f t="shared" si="0"/>
+        <v>42947</v>
+      </c>
+      <c r="B74" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1082426635442753</v>
+      </c>
+      <c r="C74" s="24">
+        <f t="shared" si="2"/>
+        <v>487659.93024632253</v>
+      </c>
+      <c r="D74" s="25">
+        <f t="shared" si="5"/>
+        <v>540445.53999999992</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="22">
+        <f t="shared" si="0"/>
+        <v>42978</v>
+      </c>
+      <c r="B75" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0164123178003053</v>
+      </c>
+      <c r="C75" s="24">
+        <f t="shared" si="2"/>
+        <v>512256.24766807945</v>
+      </c>
+      <c r="D75" s="25">
+        <f t="shared" si="5"/>
+        <v>520663.55999999988</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="22">
+        <f t="shared" si="0"/>
+        <v>43008</v>
+      </c>
+      <c r="B76" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1264089850083745</v>
+      </c>
+      <c r="C76" s="24">
+        <f t="shared" si="2"/>
+        <v>512256.24766807945</v>
+      </c>
+      <c r="D76" s="25">
+        <f t="shared" si="5"/>
+        <v>577010.03999999992</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="22">
+        <f t="shared" si="0"/>
+        <v>43039</v>
+      </c>
+      <c r="B77" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1186877517037437</v>
+      </c>
+      <c r="C77" s="24">
+        <f t="shared" si="2"/>
+        <v>512256.24766807945</v>
+      </c>
+      <c r="D77" s="25">
+        <f t="shared" si="5"/>
+        <v>573054.78999999992</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="22">
+        <f t="shared" si="0"/>
+        <v>43069</v>
+      </c>
+      <c r="B78" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1397211701326029</v>
+      </c>
+      <c r="C78" s="24">
+        <f t="shared" si="2"/>
+        <v>522399.07935616246</v>
+      </c>
+      <c r="D78" s="25">
+        <f t="shared" si="5"/>
+        <v>595389.28999999992</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="22">
+        <f t="shared" si="0"/>
+        <v>43100</v>
+      </c>
+      <c r="B79" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2073361629529062</v>
+      </c>
+      <c r="C79" s="24">
+        <f t="shared" si="2"/>
+        <v>526126.29314970435</v>
+      </c>
+      <c r="D79" s="25">
+        <f t="shared" si="5"/>
+        <v>635211.29999999993</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="22">
+        <f t="shared" si="0"/>
+        <v>43131</v>
+      </c>
+      <c r="B80" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1816381286101272</v>
+      </c>
+      <c r="C80" s="24">
+        <f t="shared" si="2"/>
+        <v>620333.20714031463</v>
+      </c>
+      <c r="D80" s="25">
+        <f t="shared" si="5"/>
+        <v>733009.36999999976</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="22">
+        <f t="shared" si="0"/>
+        <v>43159</v>
+      </c>
+      <c r="B81" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1394159813858282</v>
+      </c>
+      <c r="C81" s="24">
+        <f t="shared" si="2"/>
+        <v>629109.63310182991</v>
+      </c>
+      <c r="D81" s="25">
+        <f t="shared" si="5"/>
+        <v>716817.56999999983</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="22">
+        <f t="shared" si="0"/>
+        <v>43190</v>
+      </c>
+      <c r="B82" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1567031590536982</v>
+      </c>
+      <c r="C82" s="24">
+        <f t="shared" si="2"/>
+        <v>629109.63310182991</v>
+      </c>
+      <c r="D82" s="25">
+        <f t="shared" si="5"/>
+        <v>727693.09999999974</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="22">
+        <f t="shared" si="0"/>
+        <v>43220</v>
+      </c>
+      <c r="B83" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2116694927108445</v>
+      </c>
+      <c r="C83" s="24">
+        <f t="shared" si="2"/>
+        <v>638361.94989897765</v>
+      </c>
+      <c r="D83" s="25">
+        <f t="shared" si="5"/>
+        <v>773483.69999999972</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="22">
+        <f t="shared" si="0"/>
+        <v>43251</v>
+      </c>
+      <c r="B84" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2192323964847362</v>
+      </c>
+      <c r="C84" s="24">
+        <f t="shared" si="2"/>
+        <v>636498.48235452059</v>
+      </c>
+      <c r="D84" s="25">
+        <f t="shared" si="5"/>
+        <v>776039.56999999972</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="22">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
+      <c r="B85" s="23">
+        <f t="shared" si="1"/>
+        <v>1.184550491323956</v>
+      </c>
+      <c r="C85" s="24">
+        <f t="shared" si="2"/>
+        <v>644265.1415787444</v>
+      </c>
+      <c r="D85" s="25">
+        <f t="shared" si="5"/>
+        <v>763164.58999999973</v>
+      </c>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="22">
+        <f t="shared" si="0"/>
+        <v>43312</v>
+      </c>
+      <c r="B86" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1872123301994808</v>
+      </c>
+      <c r="C86" s="24">
+        <f t="shared" si="2"/>
+        <v>654294.34166126</v>
+      </c>
+      <c r="D86" s="25">
+        <f t="shared" si="5"/>
+        <v>776786.30999999971</v>
+      </c>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="22">
+        <f t="shared" si="0"/>
+        <v>43343</v>
+      </c>
+      <c r="B87" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1422405367322011</v>
+      </c>
+      <c r="C87" s="24">
+        <f t="shared" si="2"/>
+        <v>657796.23103689309</v>
+      </c>
+      <c r="D87" s="25">
+        <f t="shared" si="5"/>
+        <v>751361.51999999967</v>
+      </c>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="22">
+        <f t="shared" si="0"/>
+        <v>43373</v>
+      </c>
+      <c r="B88" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1467153875463505</v>
+      </c>
+      <c r="C88" s="24">
+        <f t="shared" si="2"/>
+        <v>672668.25611409266</v>
+      </c>
+      <c r="D88" s="25">
+        <f t="shared" si="5"/>
+        <v>771359.03999999946</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="22">
+        <f t="shared" si="0"/>
+        <v>43404</v>
+      </c>
+      <c r="B89" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0857461510360373</v>
+      </c>
+      <c r="C89" s="24">
+        <f t="shared" si="2"/>
+        <v>680860.93539875979</v>
+      </c>
+      <c r="D89" s="25">
+        <f t="shared" si="5"/>
+        <v>739242.13999999955</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="22">
+        <f t="shared" si="0"/>
+        <v>43434</v>
+      </c>
+      <c r="B90" s="23">
+        <f t="shared" si="1"/>
+        <v>1.1048330883595732</v>
+      </c>
+      <c r="C90" s="24">
+        <f t="shared" si="2"/>
+        <v>689007.65013316739</v>
+      </c>
+      <c r="D90" s="25">
+        <f t="shared" si="5"/>
+        <v>761238.4499999996</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="22">
+        <f t="shared" si="0"/>
+        <v>43465</v>
+      </c>
+      <c r="B91" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0638743704200182</v>
+      </c>
+      <c r="C91" s="24">
+        <f t="shared" si="2"/>
+        <v>585243.71609233017</v>
+      </c>
+      <c r="D91" s="25">
+        <f t="shared" si="5"/>
+        <v>622625.78999999969</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="4"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="22">
+        <f t="shared" si="0"/>
+        <v>43496</v>
+      </c>
+      <c r="B92" s="23">
+        <f t="shared" si="1"/>
+        <v>1.0853545668823359</v>
+      </c>
+      <c r="C92" s="24">
+        <f t="shared" si="2"/>
+        <v>612687.65092144406</v>
+      </c>
+      <c r="D92" s="25">
+        <f t="shared" si="5"/>
+        <v>664983.33999999973</v>
+      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="22">
+        <f t="shared" si="0"/>
+        <v>43524</v>
+      </c>
+      <c r="B93" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2367183325148354</v>
+      </c>
+      <c r="C93" s="24">
+        <f t="shared" si="2"/>
+        <v>631900.02076776477</v>
+      </c>
+      <c r="D93" s="25">
+        <f t="shared" si="5"/>
+        <v>781482.34</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="22">
+        <f t="shared" si="0"/>
+        <v>43555</v>
+      </c>
+      <c r="B94" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3230913950345768</v>
+      </c>
+      <c r="C94" s="24">
+        <f t="shared" si="2"/>
+        <v>639204.77691406815</v>
+      </c>
+      <c r="D94" s="25">
+        <f t="shared" si="5"/>
+        <v>845726.33999999985</v>
+      </c>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="22">
+        <f t="shared" si="0"/>
+        <v>43585</v>
+      </c>
+      <c r="B95" s="23">
+        <f t="shared" si="1"/>
+        <v>1.3750354999586605</v>
+      </c>
+      <c r="C95" s="24">
+        <f t="shared" si="2"/>
+        <v>648582.80388165382</v>
+      </c>
+      <c r="D95" s="25">
+        <f t="shared" si="5"/>
+        <v>891824.37999999966</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="4"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="18"/>
+      <c r="E97" s="26">
+        <f>B95^(1/YEARFRAC(A95,A51))-1</f>
+        <v>9.0741847524368424E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="18"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Portfolio/投资组合基金模式.xlsx
+++ b/Portfolio/投资组合基金模式.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10795E3-F0CD-A741-926B-3E79F0DE657F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B789FE18-077E-1E4F-A066-851E18CA8CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票账户月报" sheetId="1" r:id="rId1"/>
     <sheet name="天天基金账户月报" sheetId="2" r:id="rId2"/>
     <sheet name="整体情况" sheetId="3" r:id="rId3"/>
+    <sheet name="综合情况" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>期初净资产</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +72,18 @@
     <t>月底盈亏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +92,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -164,7 +177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,9 +226,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -236,8 +246,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -876,104 +899,143 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>天天基金账户月报!$A$2:$A$33</c:f>
+              <c:f>天天基金账户月报!$A$2:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42643</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="14">
                   <c:v>42674</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="15">
                   <c:v>42704</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="16">
                   <c:v>42735</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="17">
                   <c:v>42766</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="18">
                   <c:v>42794</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>42825</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>42855</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="21">
                   <c:v>42886</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="22">
                   <c:v>42916</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="23">
                   <c:v>42947</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>42978</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>43008</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>43039</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="27">
                   <c:v>43069</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="28">
                   <c:v>43100</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="29">
                   <c:v>43131</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="30">
                   <c:v>43159</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="31">
                   <c:v>43190</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
                   <c:v>43220</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="33">
                   <c:v>43251</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="34">
                   <c:v>43281</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="35">
                   <c:v>43312</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="36">
                   <c:v>43343</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="37">
                   <c:v>43373</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="38">
                   <c:v>43404</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="39">
                   <c:v>43434</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="40">
                   <c:v>43465</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="41">
                   <c:v>43496</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="42">
                   <c:v>43524</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="43">
                   <c:v>43555</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
                   <c:v>43585</c:v>
                 </c:pt>
               </c:numCache>
@@ -981,105 +1043,144 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>天天基金账户月报!$F$2:$F$33</c:f>
+              <c:f>天天基金账户月报!$F$2:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.0067411764705883</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0127000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99582058823529429</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0613500000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1255264705882357</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.148169511077314</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1640470295908056</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1555124846088876</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1576120743899545</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.2022190622483344</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1850872521653553</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1984562038046584</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.2151410098772508</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2496681513415249</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2129789231584753</c:v>
+                  <c:v>1.0126999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2320869979841793</c:v>
+                  <c:v>0.99582058823529407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.2178649758961044</c:v>
+                  <c:v>1.06135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1906434998496458</c:v>
+                  <c:v>1.1255264705882355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2261965169411908</c:v>
+                  <c:v>1.1481695110773138</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2170111318299295</c:v>
+                  <c:v>1.1640470295908054</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.2570227282220428</c:v>
+                  <c:v>1.1555124846088873</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1984856679814155</c:v>
+                  <c:v>1.1576120743899543</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2188637764717873</c:v>
+                  <c:v>1.2022190622483342</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.1758499931271242</c:v>
+                  <c:v>1.185087252165355</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.1843778338099695</c:v>
+                  <c:v>1.1984562038046582</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1544666514049209</c:v>
+                  <c:v>1.2151410098772506</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.1624165977744825</c:v>
+                  <c:v>1.2496681513415246</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1303105863368457</c:v>
+                  <c:v>1.2129789231584751</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1612762004860862</c:v>
+                  <c:v>1.2320869979841791</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2653967885226078</c:v>
+                  <c:v>1.2436585792232027</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3298832209798779</c:v>
+                  <c:v>1.2158605696783535</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3743601770706335</c:v>
+                  <c:v>1.2521665769930275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2427866512843635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.283645667765114</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.223868829928723</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.244678533757956</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2211605348857446</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2300169898336999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1989532013246964</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2107501916461314</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1773092036427468</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2095623763326524</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3180123263427297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3851801219555058</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4141984196929014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,52 +1676,52 @@
                   <c:v>1.2074498669393425</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1816111091852273</c:v>
+                  <c:v>1.1841308494496219</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1391931755318292</c:v>
+                  <c:v>1.141622461183426</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1565593437862662</c:v>
+                  <c:v>1.1590256621240396</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.2117768360200423</c:v>
+                  <c:v>1.2143609035372187</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.219373803769543</c:v>
+                  <c:v>1.2219740715283867</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1845352407760159</c:v>
+                  <c:v>1.1870612166386123</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1872089571444819</c:v>
+                  <c:v>1.1897406346044457</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1420395847384779</c:v>
+                  <c:v>1.1522888163234817</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.1465339860002715</c:v>
+                  <c:v>1.1568235525788986</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.0853045067676002</c:v>
+                  <c:v>1.0950445695279087</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1044718365741313</c:v>
+                  <c:v>1.1163154031781322</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0633428121512878</c:v>
+                  <c:v>1.0747453404924929</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0849301591398162</c:v>
+                  <c:v>1.096564174761544</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.2370123191874396</c:v>
+                  <c:v>1.250277155199655</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3237834294926241</c:v>
+                  <c:v>1.3379787368760154</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.375964482392821</c:v>
+                  <c:v>1.3815046213836213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1802,6 +1903,1220 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>综合情况!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>股票账户</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>综合情况!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>综合情况!$B$2:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.97196400000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0180188000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1406098424283844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1912039832235848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2940334765265067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1305054433595978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1327706531764805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1340288563828609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1397162234820082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1452223088600362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1624499499759708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1647708308373783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1758948062974202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1795662471408337</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1831462642214043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2116214911486918</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2112993472574773</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2265787715587708</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2229715628068876</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2157523401012986</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1899440149469624</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1408038068218578</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0724720499558409</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0947254189770661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99193337090728328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1108588941075022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0988536594384761</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1256800527994568</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1981637534322211</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1713762864504365</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1280324541590168</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1435739502182394</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2039833748901547</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.207827009768047</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1769955435304913</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1756751087364368</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1291201217829563</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1310564032909523</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0255377574187194</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0596457490092368</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0057599430324129</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0179647195759847</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2225385618472977</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3353189494986151</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3971944412821813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DD0-2B49-A462-DBC7AE7F1B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>综合情况!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>天天基金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>综合情况!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>综合情况!$C$2:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0067411764705883</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0126999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99582058823529407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.06135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1255264705882355</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1481695110773138</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1640470295908054</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1555124846088873</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1576120743899543</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2022190622483342</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.185087252165355</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1984562038046582</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2151410098772506</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2496681513415246</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2129789231584751</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2320869979841791</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2436585792232027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2158605696783535</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2521665769930275</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2427866512843635</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.283645667765114</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.223868829928723</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.244678533757956</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2211605348857446</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2300169898336999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1989532013246964</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2107501916461314</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1773092036427468</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2095623763326524</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3180123263427297</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3851801219555058</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4141984196929014</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6DD0-2B49-A462-DBC7AE7F1B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>综合情况!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>整体</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>综合情况!$A$2:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>42247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42460</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42704</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42825</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42886</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42978</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43008</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43251</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43343</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43373</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43434</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43524</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>综合情况!$D$2:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.97196400000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0180188000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1406098424283844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1912039832235848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2940334765265067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1305054433595978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1327706531764805</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1340288563828609</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1397162234820082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1452223088600362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1624499499759708</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1647708308373783</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1758948062974202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1796194712364487</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1832465354451678</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2115928737848121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2117552290450337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2275088425055747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2248118029693129</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2185037521208604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1931750961131602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1471264470681037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0892435136005287</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1078369280580622</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0154590430177031</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1260748819881037</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1183101858245159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1394620014656454</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2074498669393425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1841308494496219</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.141622461183426</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1590256621240396</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2143609035372187</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2219740715283867</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1870612166386123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1897406346044457</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1522888163234817</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1568235525788986</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0950445695279087</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1163154031781322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0747453404924929</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.096564174761544</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.250277155199655</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3379787368760154</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.3815046213836213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6DD0-2B49-A462-DBC7AE7F1B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1218145280"/>
+        <c:axId val="1155538640"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1218145280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1155538640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1155538640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1218145280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1883,6 +3198,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3470,6 +4825,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3573,6 +5444,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178396E8-A34E-5B47-BC0C-C37F1BCDC19F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B80FA9-379E-5B4C-BCA3-6335D6120971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3860,7 +5772,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3919,14 +5831,14 @@
       <c r="D2" s="4">
         <v>25000</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>-700.9</v>
       </c>
       <c r="F2" s="6">
         <f>E2/C2+B2</f>
         <v>0.97196400000000005</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="22">
         <v>0</v>
       </c>
       <c r="H2" s="4">
@@ -3954,14 +5866,14 @@
         <f>I2</f>
         <v>24299.100000000002</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>1151.3699999999999</v>
       </c>
       <c r="F3" s="6">
         <f>E3/C3+B3</f>
         <v>1.0180188000000001</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="22">
         <v>20000</v>
       </c>
       <c r="H3" s="4">
@@ -3989,14 +5901,14 @@
         <f t="shared" ref="D4:D46" si="2">I3</f>
         <v>45450.47</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>5473.2</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F46" si="3">E4/C4+B4</f>
         <v>1.1406098424283844</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="22">
         <v>40000</v>
       </c>
       <c r="H4" s="4">
@@ -4024,14 +5936,14 @@
         <f t="shared" si="2"/>
         <v>90923.67</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>4033.11</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="3"/>
         <v>1.1912039832235848</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="22">
         <v>129200</v>
       </c>
       <c r="H5" s="4">
@@ -4059,14 +5971,14 @@
         <f t="shared" si="2"/>
         <v>224156.78000000003</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>19350.11</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="3"/>
         <v>1.2940334765265067</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="22">
         <v>15000</v>
       </c>
       <c r="H6" s="4">
@@ -4094,14 +6006,14 @@
         <f t="shared" si="2"/>
         <v>258506.89</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>-32667.72</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="3"/>
         <v>1.1305054433595978</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="22">
         <v>130000</v>
       </c>
       <c r="H7" s="4">
@@ -4129,14 +6041,14 @@
         <f t="shared" si="2"/>
         <v>355839.17000000004</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>713</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="3"/>
         <v>1.1327706531764805</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="22">
         <v>50000</v>
       </c>
       <c r="H8" s="4">
@@ -4164,14 +6076,14 @@
         <f t="shared" si="2"/>
         <v>406552.17000000004</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>451.57</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="3"/>
         <v>1.1340288563828609</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="22">
         <v>-202800</v>
       </c>
       <c r="H9" s="4">
@@ -4199,14 +6111,14 @@
         <f t="shared" si="2"/>
         <v>204203.74</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>1024.1199999999999</v>
       </c>
       <c r="F10" s="6">
         <f t="shared" si="3"/>
         <v>1.1397162234820082</v>
       </c>
-      <c r="G10" s="23">
+      <c r="G10" s="22">
         <v>130000</v>
       </c>
       <c r="H10" s="4">
@@ -4234,14 +6146,14 @@
         <f t="shared" si="2"/>
         <v>335227.86000000004</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>1619.52</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="3"/>
         <v>1.1452223088600362</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="22">
         <v>12000</v>
       </c>
       <c r="H11" s="4">
@@ -4269,14 +6181,14 @@
         <f t="shared" si="2"/>
         <v>348847.38</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>5247.73</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="3"/>
         <v>1.1624499499759708</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="22">
         <v>126100</v>
       </c>
       <c r="H12" s="4">
@@ -4304,14 +6216,14 @@
         <f t="shared" si="2"/>
         <v>480195.11</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>958.73</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="3"/>
         <v>1.1647708308373783</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="22">
         <v>13500</v>
       </c>
       <c r="H13" s="4">
@@ -4339,14 +6251,14 @@
         <f t="shared" si="2"/>
         <v>494653.83999999997</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>4724.12</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="3"/>
         <v>1.1758948062974202</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="22">
         <v>7000</v>
       </c>
       <c r="H14" s="4">
@@ -4374,14 +6286,14 @@
         <f t="shared" si="2"/>
         <v>506377.9599999999</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <v>1581.04</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="3"/>
         <v>1.1795662471408337</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="22">
         <v>0</v>
       </c>
       <c r="H15" s="4">
@@ -4409,14 +6321,14 @@
         <f t="shared" si="2"/>
         <v>507958.99999999988</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <v>1541.67</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>1.1831462642214043</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <v>17000</v>
       </c>
       <c r="H16" s="4">
@@ -4444,14 +6356,14 @@
         <f t="shared" si="2"/>
         <v>526500.66999999993</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>12671.49</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="3"/>
         <v>1.2116214911486918</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="22">
         <v>18000</v>
       </c>
       <c r="H17" s="4">
@@ -4479,14 +6391,14 @@
         <f t="shared" si="2"/>
         <v>557172.15999999992</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>-148.13999999999999</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="3"/>
         <v>1.2112993472574773</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="22">
         <v>400</v>
       </c>
       <c r="H18" s="4">
@@ -4514,14 +6426,14 @@
         <f t="shared" si="2"/>
         <v>557424.0199999999</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>7031.39</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="3"/>
         <v>1.2265787715587708</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="22">
         <v>0</v>
       </c>
       <c r="H19" s="4">
@@ -4549,14 +6461,14 @@
         <f t="shared" si="2"/>
         <v>564455.4099999998</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>-1659.99</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>1.2229715628068876</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="22">
         <v>6200</v>
       </c>
       <c r="H20" s="4">
@@ -4584,14 +6496,14 @@
         <f t="shared" si="2"/>
         <v>568995.41999999981</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>-3358.79</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="3"/>
         <v>1.2157523401012986</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="22">
         <v>0</v>
       </c>
       <c r="H21" s="4">
@@ -4619,14 +6531,14 @@
         <f t="shared" si="2"/>
         <v>565636.62999999977</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>-12007.49</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="3"/>
         <v>1.1899440149469624</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="22">
         <v>-11880</v>
       </c>
       <c r="H22" s="4">
@@ -4654,14 +6566,14 @@
         <f t="shared" si="2"/>
         <v>541749.13999999978</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>-22372.2</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="3"/>
         <v>1.1408038068218578</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="22">
         <v>-15279</v>
       </c>
       <c r="H23" s="4">
@@ -4689,14 +6601,14 @@
         <f t="shared" si="2"/>
         <v>504097.93999999977</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>-30194.41</v>
       </c>
       <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>1.0724720499558409</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="22">
         <v>0</v>
       </c>
       <c r="H24" s="4">
@@ -4724,14 +6636,14 @@
         <f t="shared" si="2"/>
         <v>473903.5299999998</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>9833.31</v>
       </c>
       <c r="F25" s="6">
         <f t="shared" si="3"/>
         <v>1.0947254189770661</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="22">
         <v>0</v>
       </c>
       <c r="H25" s="4">
@@ -4759,14 +6671,14 @@
         <f t="shared" si="2"/>
         <v>483736.83999999979</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <v>-45421.71</v>
       </c>
       <c r="F26" s="6">
         <f t="shared" si="3"/>
         <v>0.99193337090728328</v>
       </c>
-      <c r="G26" s="23">
+      <c r="G26" s="22">
         <v>25000</v>
       </c>
       <c r="H26" s="4">
@@ -4794,14 +6706,14 @@
         <f t="shared" si="2"/>
         <v>463315.12999999977</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <v>55548.08</v>
       </c>
       <c r="F27" s="6">
         <f t="shared" si="3"/>
         <v>1.1108588941075022</v>
       </c>
-      <c r="G27" s="23">
+      <c r="G27" s="22">
         <v>0</v>
       </c>
       <c r="H27" s="4">
@@ -4829,14 +6741,14 @@
         <f t="shared" si="2"/>
         <v>518863.20999999973</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <v>-5607.44</v>
       </c>
       <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>1.0988536594384761</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G28" s="22">
         <v>0</v>
       </c>
       <c r="H28" s="4">
@@ -4864,14 +6776,14 @@
         <f t="shared" si="2"/>
         <v>513255.76999999973</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>12530.15</v>
       </c>
       <c r="F29" s="6">
         <f t="shared" si="3"/>
         <v>1.1256800527994568</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <v>7600</v>
       </c>
       <c r="H29" s="4">
@@ -4899,14 +6811,14 @@
         <f t="shared" si="2"/>
         <v>533385.91999999969</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <v>34345.269999999997</v>
       </c>
       <c r="F30" s="6">
         <f t="shared" si="3"/>
         <v>1.1981637534322211</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="22">
         <v>4500</v>
       </c>
       <c r="H30" s="4">
@@ -4934,14 +6846,14 @@
         <f t="shared" si="2"/>
         <v>572231.18999999971</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <v>-12793.43</v>
       </c>
       <c r="F31" s="6">
         <f t="shared" si="3"/>
         <v>1.1713762864504365</v>
       </c>
-      <c r="G31" s="23">
+      <c r="G31" s="22">
         <v>110000</v>
       </c>
       <c r="H31" s="4">
@@ -4969,14 +6881,14 @@
         <f t="shared" si="2"/>
         <v>669437.75999999978</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <v>-24770.86</v>
       </c>
       <c r="F32" s="6">
         <f t="shared" si="3"/>
         <v>1.1280324541590168</v>
       </c>
-      <c r="G32" s="23">
+      <c r="G32" s="22">
         <v>10000</v>
       </c>
       <c r="H32" s="4">
@@ -5004,14 +6916,14 @@
         <f t="shared" si="2"/>
         <v>654666.89999999979</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>9019.69</v>
       </c>
       <c r="F33" s="6">
         <f t="shared" si="3"/>
         <v>1.1435739502182394</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="22">
         <v>0</v>
       </c>
       <c r="H33" s="4">
@@ -5039,14 +6951,14 @@
         <f t="shared" si="2"/>
         <v>663686.58999999973</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>35059.32</v>
       </c>
       <c r="F34" s="6">
         <f t="shared" si="3"/>
         <v>1.2039833748901547</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="22">
         <v>-4717</v>
       </c>
       <c r="H34" s="4">
@@ -5074,14 +6986,14 @@
         <f t="shared" si="2"/>
         <v>694028.90999999968</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <v>2215.64</v>
       </c>
       <c r="F35" s="6">
         <f t="shared" si="3"/>
         <v>1.207827009768047</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>-27872</v>
       </c>
       <c r="H35" s="4">
@@ -5109,14 +7021,14 @@
         <f t="shared" si="2"/>
         <v>668372.54999999958</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <v>-17061.14</v>
       </c>
       <c r="F36" s="6">
         <f t="shared" si="3"/>
         <v>1.1769955435304913</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>-30000</v>
       </c>
       <c r="H36" s="4">
@@ -5144,14 +7056,14 @@
         <f t="shared" si="2"/>
         <v>621311.40999999957</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>-697.03</v>
       </c>
       <c r="F37" s="6">
         <f t="shared" si="3"/>
         <v>1.1756751087364368</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="22">
         <v>-153636.5</v>
       </c>
       <c r="H37" s="4">
@@ -5179,14 +7091,14 @@
         <f t="shared" si="2"/>
         <v>466977.8799999996</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <v>-18491.63</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="3"/>
         <v>1.1291201217829563</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <v>4000</v>
       </c>
       <c r="H38" s="4">
@@ -5214,14 +7126,14 @@
         <f t="shared" si="2"/>
         <v>452486.24999999959</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>775.95</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
         <v>1.1310564032909523</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>-136795.16</v>
       </c>
       <c r="H39" s="4">
@@ -5249,14 +7161,14 @@
         <f t="shared" si="2"/>
         <v>316467.03999999951</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>-29523.88</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" si="3"/>
         <v>1.0255377574187194</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G40" s="22">
         <v>12800</v>
       </c>
       <c r="H40" s="4">
@@ -5284,14 +7196,14 @@
         <f t="shared" si="2"/>
         <v>299743.15999999951</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="22">
         <v>9969.0499999999993</v>
       </c>
       <c r="F41" s="6">
         <f t="shared" si="3"/>
         <v>1.0596457490092368</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G41" s="22">
         <v>0</v>
       </c>
       <c r="H41" s="4">
@@ -5319,14 +7231,14 @@
         <f t="shared" si="2"/>
         <v>309712.20999999956</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>-15749.69</v>
       </c>
       <c r="F42" s="6">
         <f t="shared" si="3"/>
         <v>1.0057599430324129</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G42" s="22">
         <v>0</v>
       </c>
       <c r="H42" s="4">
@@ -5354,14 +7266,14 @@
         <f t="shared" si="2"/>
         <v>293962.51999999949</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="22">
         <v>3567.2</v>
       </c>
       <c r="F43" s="6">
         <f t="shared" si="3"/>
         <v>1.0179647195759847</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G43" s="22">
         <v>0</v>
       </c>
       <c r="H43" s="4">
@@ -5389,14 +7301,14 @@
         <f t="shared" si="2"/>
         <v>297529.71999999951</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="22">
         <v>59792.639999999999</v>
       </c>
       <c r="F44" s="6">
         <f t="shared" si="3"/>
         <v>1.2225385618472977</v>
       </c>
-      <c r="G44" s="23">
+      <c r="G44" s="22">
         <v>0</v>
       </c>
       <c r="H44" s="4">
@@ -5424,14 +7336,14 @@
         <f t="shared" si="2"/>
         <v>357322.35999999958</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>32963.339999999997</v>
       </c>
       <c r="F45" s="6">
         <f t="shared" si="3"/>
         <v>1.3353189494986151</v>
       </c>
-      <c r="G45" s="23">
+      <c r="G45" s="22">
         <v>-8831</v>
       </c>
       <c r="H45" s="4">
@@ -5459,14 +7371,14 @@
         <f t="shared" si="2"/>
         <v>381454.6999999996</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="22">
         <v>17675.7</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="3"/>
         <v>1.3971944412821813</v>
       </c>
-      <c r="G46" s="23">
+      <c r="G46" s="22">
         <v>0</v>
       </c>
       <c r="H46" s="4">
@@ -5488,15 +7400,15 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="9"/>
@@ -6003,10 +7915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10E3B0-8DFB-4320-94CE-6A1DBDC28148}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="F1" sqref="F1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6050,1358 +7962,1732 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="9">
-        <v>42643</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="30">
+        <v>42247</v>
+      </c>
+      <c r="B2" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="32">
         <v>3400</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="29">
         <v>3400</v>
       </c>
-      <c r="E2" s="10">
-        <f>I2-D2-G2</f>
-        <v>22.920000000000073</v>
-      </c>
-      <c r="F2" s="6">
-        <f>E2/C2+B2</f>
-        <v>1.0067411764705883</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="28">
         <v>0</v>
       </c>
-      <c r="H2" s="4">
-        <f>G2/F2+C2</f>
+      <c r="F2" s="33">
+        <f t="shared" ref="F2:F14" si="0">E2/C2+B2</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="28">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29">
+        <f t="shared" ref="H2:H14" si="1">G2/F2+C2</f>
         <v>3400</v>
       </c>
-      <c r="I2" s="25">
-        <v>3422.92</v>
+      <c r="I2" s="29">
+        <f>D2</f>
+        <v>3400</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9">
-        <v>42674</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="30">
+        <v>42277</v>
+      </c>
+      <c r="B3" s="33">
         <f>F2</f>
-        <v>1.0067411764705883</v>
-      </c>
-      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="29">
         <f>H2</f>
         <v>3400</v>
       </c>
-      <c r="D3" s="4">
-        <f>I2</f>
-        <v>3422.92</v>
-      </c>
-      <c r="E3" s="10">
-        <f t="shared" ref="E3:E33" si="0">I3-D3-G3</f>
-        <v>20.260000000000218</v>
-      </c>
-      <c r="F3" s="6">
-        <f>E3/C3+B3</f>
-        <v>1.0127000000000002</v>
-      </c>
-      <c r="G3" s="23">
+      <c r="D3" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E3" s="28">
+        <f t="shared" ref="E2:E14" si="2">I3-D3-G3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="4">
-        <f>G3/F3+C3</f>
+      <c r="F3" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
-      <c r="I3" s="25">
-        <v>3443.1800000000003</v>
+      <c r="I3" s="29">
+        <f>D3</f>
+        <v>3400</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9">
-        <v>42704</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" ref="B4:B33" si="1">F3</f>
-        <v>1.0127000000000002</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" ref="C4:C33" si="2">H3</f>
+      <c r="A4" s="30">
+        <v>42308</v>
+      </c>
+      <c r="B4" s="33">
+        <f t="shared" ref="B4:B14" si="3">F3</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <f t="shared" ref="C4:D14" si="4">H3</f>
         <v>3400</v>
       </c>
-      <c r="D4" s="4">
-        <f t="shared" ref="D4:D33" si="3">I3</f>
-        <v>3443.1800000000003</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E4" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
         <f t="shared" si="0"/>
-        <v>-57.389999999999873</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F33" si="4">E4/C4+B4</f>
-        <v>0.99582058823529429</v>
-      </c>
-      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
         <v>0</v>
       </c>
-      <c r="H4" s="4">
-        <f t="shared" ref="H4:H33" si="5">G4/F4+C4</f>
+      <c r="H4" s="29">
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
-      <c r="I4" s="25">
-        <v>3385.7900000000004</v>
+      <c r="I4" s="29">
+        <f t="shared" ref="I3:I14" si="5">D4</f>
+        <v>3400</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9">
-        <v>42735</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="30">
+        <v>42338</v>
+      </c>
+      <c r="B5" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D5" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
         <f t="shared" si="1"/>
-        <v>0.99582058823529429</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="2"/>
         <v>3400</v>
       </c>
-      <c r="D5" s="4">
-        <f t="shared" si="3"/>
-        <v>3385.7900000000004</v>
-      </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>222.80000000000018</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="4"/>
-        <v>1.0613500000000002</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="I5" s="29">
         <f t="shared" si="5"/>
         <v>3400</v>
       </c>
-      <c r="I5" s="25">
-        <v>3608.5900000000006</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>42766</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="30">
+        <v>42369</v>
+      </c>
+      <c r="B6" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D6" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
         <f t="shared" si="1"/>
-        <v>1.0613500000000002</v>
-      </c>
-      <c r="C6" s="4">
+        <v>3400</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="30">
+        <v>42400</v>
+      </c>
+      <c r="B7" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D7" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E7" s="28">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="1"/>
         <v>3400</v>
       </c>
-      <c r="D6" s="4">
+      <c r="I7" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="30">
+        <v>42429</v>
+      </c>
+      <c r="B8" s="33">
         <f t="shared" si="3"/>
-        <v>3608.5900000000006</v>
-      </c>
-      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
         <f t="shared" si="0"/>
-        <v>218.20000000000073</v>
-      </c>
-      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="I8" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="30">
+        <v>42460</v>
+      </c>
+      <c r="B9" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
         <f t="shared" si="4"/>
-        <v>1.1255264705882357</v>
-      </c>
-      <c r="G6" s="23">
-        <v>15320</v>
-      </c>
-      <c r="H6" s="4">
+        <v>3400</v>
+      </c>
+      <c r="D9" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="I9" s="29">
         <f t="shared" si="5"/>
-        <v>17011.40799469006</v>
-      </c>
-      <c r="I6" s="25">
-        <v>19146.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>42794</v>
-      </c>
-      <c r="B7" s="6">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="30">
+        <v>42490</v>
+      </c>
+      <c r="B10" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D10" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
         <f t="shared" si="1"/>
-        <v>1.1255264705882357</v>
-      </c>
-      <c r="C7" s="4">
+        <v>3400</v>
+      </c>
+      <c r="I10" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="30">
+        <v>42521</v>
+      </c>
+      <c r="B11" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C11" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D11" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E11" s="28">
         <f t="shared" si="2"/>
-        <v>17011.40799469006</v>
-      </c>
-      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="I11" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="30">
+        <v>42551</v>
+      </c>
+      <c r="B12" s="33">
         <f t="shared" si="3"/>
-        <v>19146.79</v>
-      </c>
-      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D12" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" si="0"/>
-        <v>385.18999999999869</v>
-      </c>
-      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="30">
+        <v>42582</v>
+      </c>
+      <c r="B13" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C13" s="29">
         <f t="shared" si="4"/>
-        <v>1.148169511077314</v>
-      </c>
-      <c r="G7" s="23">
-        <v>3960</v>
-      </c>
-      <c r="H7" s="4">
+        <v>3400</v>
+      </c>
+      <c r="D13" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="1"/>
+        <v>3400</v>
+      </c>
+      <c r="I13" s="29">
         <f t="shared" si="5"/>
-        <v>20460.376079798312</v>
-      </c>
-      <c r="I7" s="25">
-        <v>23491.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>42825</v>
-      </c>
-      <c r="B8" s="6">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="30">
+        <v>42613</v>
+      </c>
+      <c r="B14" s="33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="29">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="D14" s="29">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
         <f t="shared" si="1"/>
-        <v>1.148169511077314</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="2"/>
-        <v>20460.376079798312</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="3"/>
-        <v>23491.98</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>324.86000000000058</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1640470295908056</v>
-      </c>
-      <c r="G8" s="23">
+        <v>3400</v>
+      </c>
+      <c r="I14" s="29">
+        <f t="shared" si="5"/>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9">
+        <v>42643</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3400</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3400</v>
+      </c>
+      <c r="E15" s="10">
+        <f>I15-D15-G15</f>
+        <v>22.920000000000073</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15/C15+B15</f>
+        <v>1.0067411764705883</v>
+      </c>
+      <c r="G15" s="22">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="5"/>
-        <v>20460.376079798312</v>
-      </c>
-      <c r="I8" s="25">
-        <v>23816.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>42855</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1640470295908056</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="2"/>
-        <v>20460.376079798312</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="3"/>
-        <v>23816.84</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>-174.61999999999898</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1555124846088876</v>
-      </c>
-      <c r="G9" s="23">
-        <v>15840</v>
-      </c>
-      <c r="H9" s="4">
-        <f t="shared" si="5"/>
-        <v>34168.579332454166</v>
-      </c>
-      <c r="I9" s="25">
-        <v>39482.22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>42886</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1555124846088876</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="2"/>
-        <v>34168.579332454166</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="3"/>
-        <v>39482.22</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>71.739999999997963</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1576120743899545</v>
-      </c>
-      <c r="G10" s="23">
-        <v>15840</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="5"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="I10" s="25">
-        <v>55393.96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3">
-        <v>42916</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1576120743899545</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="2"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="3"/>
-        <v>55393.96</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>2134.5299999999988</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2022190622483344</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="H15" s="4">
+        <f>G15/F15+C15</f>
+        <v>3400</v>
+      </c>
+      <c r="I15" s="24">
+        <v>3422.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="9">
+        <v>42674</v>
+      </c>
+      <c r="B16" s="6">
+        <f>F15</f>
+        <v>1.0067411764705883</v>
+      </c>
+      <c r="C16" s="4">
+        <f>H15</f>
+        <v>3400</v>
+      </c>
+      <c r="D16" s="4">
+        <f>I15</f>
+        <v>3422.92</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" ref="E16:E46" si="6">I16-D16-G16</f>
+        <v>20.259999999999764</v>
+      </c>
+      <c r="F16" s="6">
+        <f>E16/C16+B16</f>
+        <v>1.0126999999999999</v>
+      </c>
+      <c r="G16" s="22">
         <v>0</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="5"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="I11" s="25">
-        <v>57528.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>42947</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2022190622483344</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" si="2"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="3"/>
-        <v>57528.49</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>-819.79000000000087</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1850872521653553</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="H16" s="4">
+        <f>G16/F16+C16</f>
+        <v>3400</v>
+      </c>
+      <c r="I16" s="24">
+        <v>3443.18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="9">
+        <v>42704</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" ref="B17:B46" si="7">F16</f>
+        <v>1.0126999999999999</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:C46" si="8">H16</f>
+        <v>3400</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" ref="D17:D46" si="9">I16</f>
+        <v>3443.18</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="6"/>
+        <v>-57.389999999999873</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17:F46" si="10">E17/C17+B17</f>
+        <v>0.99582058823529407</v>
+      </c>
+      <c r="G17" s="22">
         <v>0</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="5"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="I12" s="25">
-        <v>56708.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>42978</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1850872521653553</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="2"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="3"/>
-        <v>56708.7</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>639.7300000000032</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1984562038046584</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="H17" s="4">
+        <f t="shared" ref="H17:H46" si="11">G17/F17+C17</f>
+        <v>3400</v>
+      </c>
+      <c r="I17" s="24">
+        <v>3385.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9">
+        <v>42735</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99582058823529407</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="8"/>
+        <v>3400</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="9"/>
+        <v>3385.79</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="6"/>
+        <v>222.80000000000018</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="10"/>
+        <v>1.06135</v>
+      </c>
+      <c r="G18" s="22">
         <v>0</v>
       </c>
-      <c r="H13" s="4">
-        <f t="shared" si="5"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="I13" s="25">
-        <v>57348.43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>43008</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1984562038046584</v>
-      </c>
-      <c r="C14" s="4">
-        <f t="shared" si="2"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="D14" s="4">
-        <f t="shared" si="3"/>
-        <v>57348.43</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
-        <v>798.40000000000146</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2151410098772508</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <f t="shared" si="5"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="I14" s="25">
-        <v>58146.83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>43039</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2151410098772508</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" si="2"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="3"/>
-        <v>58146.83</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>1652.1899999999951</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2496681513415249</v>
-      </c>
-      <c r="G15" s="23">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="5"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="I15" s="25">
-        <v>59799.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>43069</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2496681513415249</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" si="2"/>
-        <v>47851.91967628002</v>
-      </c>
-      <c r="D16" s="4">
-        <f t="shared" si="3"/>
-        <v>59799.02</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>-1755.6499999999942</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2129789231584753</v>
-      </c>
-      <c r="G16" s="23">
-        <v>3960</v>
-      </c>
-      <c r="H16" s="4">
-        <f t="shared" si="5"/>
-        <v>51116.609543840583</v>
-      </c>
-      <c r="I16" s="25">
-        <v>62003.37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="3">
-        <v>43100</v>
-      </c>
-      <c r="B17" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2129789231584753</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" si="2"/>
-        <v>51116.609543840583</v>
-      </c>
-      <c r="D17" s="4">
-        <f t="shared" si="3"/>
-        <v>62003.37</v>
-      </c>
-      <c r="E17" s="10">
-        <f t="shared" si="0"/>
-        <v>976.73999999999796</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2320869979841793</v>
-      </c>
-      <c r="G17" s="23">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <f t="shared" si="5"/>
-        <v>51116.609543840583</v>
-      </c>
-      <c r="I17" s="25">
-        <v>62980.11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="3">
-        <v>43131</v>
-      </c>
-      <c r="B18" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2320869979841793</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>51116.609543840583</v>
-      </c>
-      <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>62980.11</v>
-      </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
-        <v>-726.98154999999997</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2178649758961044</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1318.48155</v>
-      </c>
       <c r="H18" s="4">
-        <f t="shared" si="5"/>
-        <v>52199.226727268375</v>
-      </c>
-      <c r="I18" s="25">
-        <v>63571.61</v>
+        <f t="shared" si="11"/>
+        <v>3400</v>
+      </c>
+      <c r="I18" s="24">
+        <v>3608.59</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3">
-        <v>43159</v>
+        <v>42766</v>
       </c>
       <c r="B19" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2178649758961044</v>
+        <f t="shared" si="7"/>
+        <v>1.06135</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>52199.226727268375</v>
+        <f t="shared" si="8"/>
+        <v>3400</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>63571.61</v>
+        <f t="shared" si="9"/>
+        <v>3608.59</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="0"/>
-        <v>-1420.9400000000023</v>
+        <f t="shared" si="6"/>
+        <v>218.20000000000073</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1906434998496458</v>
-      </c>
-      <c r="G19" s="23">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.1255264705882355</v>
+      </c>
+      <c r="G19" s="22">
+        <v>15320</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="5"/>
-        <v>52199.226727268375</v>
-      </c>
-      <c r="I19" s="25">
-        <v>62150.67</v>
+        <f t="shared" si="11"/>
+        <v>17011.407994690064</v>
+      </c>
+      <c r="I19" s="24">
+        <v>19146.79</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3">
-        <v>43190</v>
+        <v>42794</v>
       </c>
       <c r="B20" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1906434998496458</v>
+        <f t="shared" si="7"/>
+        <v>1.1255264705882355</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>52199.226727268375</v>
+        <f t="shared" si="8"/>
+        <v>17011.407994690064</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>62150.67</v>
+        <f t="shared" si="9"/>
+        <v>19146.79</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="0"/>
-        <v>1855.8400000000038</v>
+        <f t="shared" si="6"/>
+        <v>385.18999999999869</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2261965169411908</v>
-      </c>
-      <c r="G20" s="23">
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1.1481695110773138</v>
+      </c>
+      <c r="G20" s="22">
+        <v>3960</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="5"/>
-        <v>52199.226727268375</v>
-      </c>
-      <c r="I20" s="25">
-        <v>64006.51</v>
+        <f t="shared" si="11"/>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="I20" s="24">
+        <v>23491.98</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3">
-        <v>43220</v>
+        <v>42825</v>
       </c>
       <c r="B21" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2261965169411908</v>
+        <f t="shared" si="7"/>
+        <v>1.1481695110773138</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>52199.226727268375</v>
+        <f t="shared" si="8"/>
+        <v>20460.376079798316</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>64006.51</v>
+        <f t="shared" si="9"/>
+        <v>23491.98</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="0"/>
-        <v>-479.47000000000844</v>
+        <f t="shared" si="6"/>
+        <v>324.86000000000058</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2170111318299295</v>
-      </c>
-      <c r="G21" s="23">
-        <v>15927.75</v>
+        <f t="shared" si="10"/>
+        <v>1.1640470295908054</v>
+      </c>
+      <c r="G21" s="22">
+        <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="5"/>
-        <v>65286.822710101027</v>
-      </c>
-      <c r="I21" s="25">
-        <v>79454.789999999994</v>
+        <f t="shared" si="11"/>
+        <v>20460.376079798316</v>
+      </c>
+      <c r="I21" s="24">
+        <v>23816.84</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3">
-        <v>43251</v>
+        <v>42855</v>
       </c>
       <c r="B22" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2170111318299295</v>
+        <f t="shared" si="7"/>
+        <v>1.1640470295908054</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>65286.822710101027</v>
+        <f t="shared" si="8"/>
+        <v>20460.376079798316</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>79454.789999999994</v>
+        <f t="shared" si="9"/>
+        <v>23816.84</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="0"/>
-        <v>2612.2300000000105</v>
+        <f t="shared" si="6"/>
+        <v>-174.61999999999898</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2570227282220428</v>
-      </c>
-      <c r="G22" s="23">
-        <v>25600</v>
+        <f t="shared" si="10"/>
+        <v>1.1555124846088873</v>
+      </c>
+      <c r="G22" s="22">
+        <v>15840</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="5"/>
-        <v>85652.405149655751</v>
-      </c>
-      <c r="I22" s="25">
-        <v>107667.02</v>
+        <f t="shared" si="11"/>
+        <v>34168.579332454174</v>
+      </c>
+      <c r="I22" s="24">
+        <v>39482.22</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3">
-        <v>43281</v>
+        <v>42886</v>
       </c>
       <c r="B23" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2570227282220428</v>
+        <f t="shared" si="7"/>
+        <v>1.1555124846088873</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>85652.405149655751</v>
+        <f t="shared" si="8"/>
+        <v>34168.579332454174</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>107667.02</v>
+        <f t="shared" si="9"/>
+        <v>39482.22</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="0"/>
-        <v>-5013.8400000000111</v>
+        <f t="shared" si="6"/>
+        <v>71.739999999997963</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1984856679814155</v>
-      </c>
-      <c r="G23" s="23">
-        <v>39200</v>
+        <f t="shared" si="10"/>
+        <v>1.1576120743899543</v>
+      </c>
+      <c r="G23" s="22">
+        <v>15840</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="5"/>
-        <v>118360.34738648178</v>
-      </c>
-      <c r="I23" s="25">
-        <v>141853.18</v>
+        <f t="shared" si="11"/>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="I23" s="24">
+        <v>55393.96</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3">
-        <v>43312</v>
+        <v>42916</v>
       </c>
       <c r="B24" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1984856679814155</v>
+        <f t="shared" si="7"/>
+        <v>1.1576120743899543</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>118360.34738648178</v>
+        <f t="shared" si="8"/>
+        <v>47851.919676280027</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>141853.18</v>
+        <f t="shared" si="9"/>
+        <v>55393.96</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="0"/>
-        <v>2411.9599999998172</v>
+        <f t="shared" si="6"/>
+        <v>2134.5299999999988</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2188637764717873</v>
-      </c>
-      <c r="G24" s="23">
-        <v>165543.29000000018</v>
+        <f t="shared" si="10"/>
+        <v>1.2022190622483342</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f t="shared" si="5"/>
-        <v>254178.05991149746</v>
-      </c>
-      <c r="I24" s="25">
-        <v>309808.43</v>
+        <f t="shared" si="11"/>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="I24" s="24">
+        <v>57528.49</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3">
-        <v>43343</v>
+        <v>42947</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2188637764717873</v>
+        <f t="shared" si="7"/>
+        <v>1.2022190622483342</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="2"/>
-        <v>254178.05991149746</v>
+        <f t="shared" si="8"/>
+        <v>47851.919676280027</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="3"/>
-        <v>309808.43</v>
+        <f t="shared" si="9"/>
+        <v>57528.49</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="0"/>
-        <v>-10933.159999999974</v>
+        <f t="shared" si="6"/>
+        <v>-819.79000000000087</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1758499931271242</v>
-      </c>
-      <c r="G25" s="23">
+        <f t="shared" si="10"/>
+        <v>1.185087252165355</v>
+      </c>
+      <c r="G25" s="22">
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f t="shared" si="5"/>
-        <v>254178.05991149746</v>
-      </c>
-      <c r="I25" s="25">
-        <v>298875.27</v>
+        <f t="shared" si="11"/>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="I25" s="24">
+        <v>56708.7</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3">
-        <v>43373</v>
+        <v>42978</v>
       </c>
       <c r="B26" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1758499931271242</v>
+        <f t="shared" si="7"/>
+        <v>1.185087252165355</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="2"/>
-        <v>254178.05991149746</v>
+        <f t="shared" si="8"/>
+        <v>47851.919676280027</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="3"/>
-        <v>298875.27</v>
+        <f t="shared" si="9"/>
+        <v>56708.7</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="0"/>
-        <v>2167.5899999999674</v>
+        <f t="shared" si="6"/>
+        <v>639.7300000000032</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1843778338099695</v>
-      </c>
-      <c r="G26" s="23">
-        <v>153849.14000000001</v>
+        <f t="shared" si="10"/>
+        <v>1.1984562038046582</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" si="5"/>
-        <v>384076.75913410104</v>
-      </c>
-      <c r="I26" s="25">
-        <v>454892</v>
+        <f t="shared" si="11"/>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="I26" s="24">
+        <v>57348.43</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3">
-        <v>43404</v>
+        <v>43008</v>
       </c>
       <c r="B27" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1843778338099695</v>
+        <f t="shared" si="7"/>
+        <v>1.1984562038046582</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="2"/>
-        <v>384076.75913410104</v>
+        <f t="shared" si="8"/>
+        <v>47851.919676280027</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="3"/>
-        <v>454892</v>
+        <f t="shared" si="9"/>
+        <v>57348.43</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="0"/>
-        <v>-11488.190000000017</v>
+        <f t="shared" si="6"/>
+        <v>798.40000000000146</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1544666514049209</v>
-      </c>
-      <c r="G27" s="23">
-        <v>-3904.8300000000008</v>
+        <f t="shared" si="10"/>
+        <v>1.2151410098772506</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" si="5"/>
-        <v>380694.39205121645</v>
-      </c>
-      <c r="I27" s="25">
-        <v>439498.98</v>
+        <f t="shared" si="11"/>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="I27" s="24">
+        <v>58146.83</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3">
-        <v>43434</v>
+        <v>43039</v>
       </c>
       <c r="B28" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1544666514049209</v>
+        <f t="shared" si="7"/>
+        <v>1.2151410098772506</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="2"/>
-        <v>380694.39205121645</v>
+        <f t="shared" si="8"/>
+        <v>47851.919676280027</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="3"/>
-        <v>439498.98</v>
+        <f t="shared" si="9"/>
+        <v>58146.83</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>3026.5000000000127</v>
+        <f t="shared" si="6"/>
+        <v>1652.1899999999951</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1624165977744825</v>
-      </c>
-      <c r="G28" s="23">
-        <v>9000.7599999999966</v>
+        <f t="shared" si="10"/>
+        <v>1.2496681513415246</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f t="shared" si="5"/>
-        <v>388437.53682154446</v>
-      </c>
-      <c r="I28" s="25">
-        <v>451526.24</v>
+        <f t="shared" si="11"/>
+        <v>47851.919676280027</v>
+      </c>
+      <c r="I28" s="24">
+        <v>59799.02</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3">
-        <v>43465</v>
+        <v>43069</v>
       </c>
       <c r="B29" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1624165977744825</v>
+        <f t="shared" si="7"/>
+        <v>1.2496681513415246</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="2"/>
-        <v>388437.53682154446</v>
+        <f t="shared" si="8"/>
+        <v>47851.919676280027</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="3"/>
-        <v>451526.24</v>
+        <f t="shared" si="9"/>
+        <v>59799.02</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>-12471.179999999993</v>
+        <f t="shared" si="6"/>
+        <v>-1755.6499999999942</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1303105863368457</v>
-      </c>
-      <c r="G29" s="23">
-        <v>-110391.78999999998</v>
+        <f t="shared" si="10"/>
+        <v>1.2129789231584751</v>
+      </c>
+      <c r="G29" s="22">
+        <v>3960</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" si="5"/>
-        <v>290772.53099534765</v>
-      </c>
-      <c r="I29" s="25">
-        <v>328663.27</v>
+        <f t="shared" si="11"/>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="I29" s="24">
+        <v>62003.37</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3">
-        <v>43496</v>
+        <v>43100</v>
       </c>
       <c r="B30" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1303105863368457</v>
+        <f t="shared" si="7"/>
+        <v>1.2129789231584751</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="2"/>
-        <v>290772.53099534765</v>
+        <f t="shared" si="8"/>
+        <v>51116.60954384059</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="3"/>
-        <v>328663.27</v>
+        <f t="shared" si="9"/>
+        <v>62003.37</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>9003.9499999999862</v>
+        <f t="shared" si="6"/>
+        <v>976.73999999999796</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="4"/>
-        <v>1.1612762004860862</v>
-      </c>
-      <c r="G30" s="23">
-        <v>29786.399999999991</v>
+        <f t="shared" si="10"/>
+        <v>1.2320869979841791</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f t="shared" si="5"/>
-        <v>316422.24291360797</v>
-      </c>
-      <c r="I30" s="25">
-        <v>367453.62</v>
+        <f t="shared" si="11"/>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="I30" s="24">
+        <v>62980.11</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3">
-        <v>43524</v>
+        <v>43131</v>
       </c>
       <c r="B31" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1612762004860862</v>
+        <f t="shared" si="7"/>
+        <v>1.2320869979841791</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="2"/>
-        <v>316422.24291360797</v>
+        <f t="shared" si="8"/>
+        <v>51116.60954384059</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="3"/>
-        <v>367453.62</v>
+        <f t="shared" si="9"/>
+        <v>62980.11</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>32946.069999999992</v>
+        <f t="shared" si="6"/>
+        <v>591.5</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="4"/>
-        <v>1.2653967885226078</v>
+        <f t="shared" si="10"/>
+        <v>1.2436585792232027</v>
       </c>
       <c r="G31" s="23">
-        <v>23760.289999999994</v>
+        <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f t="shared" si="5"/>
-        <v>335199.19115269819</v>
-      </c>
-      <c r="I31" s="25">
-        <v>424159.98</v>
+        <f t="shared" si="11"/>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="I31" s="24">
+        <v>63571.61</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3">
-        <v>43555</v>
+        <v>43159</v>
       </c>
       <c r="B32" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2653967885226078</v>
+        <f t="shared" si="7"/>
+        <v>1.2436585792232027</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="2"/>
-        <v>335199.19115269819</v>
+        <f t="shared" si="8"/>
+        <v>51116.60954384059</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="3"/>
-        <v>424159.98</v>
+        <f t="shared" si="9"/>
+        <v>63571.61</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>21615.800000000036</v>
+        <f t="shared" si="6"/>
+        <v>-1420.9400000000023</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3298832209798779</v>
-      </c>
-      <c r="G32" s="23">
-        <v>18495.859999999997</v>
+        <f t="shared" si="10"/>
+        <v>1.2158605696783535</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" si="5"/>
-        <v>349107.07397144072</v>
-      </c>
-      <c r="I32" s="25">
-        <v>464271.64</v>
+        <f t="shared" si="11"/>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="I32" s="24">
+        <v>62150.67</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="3">
-        <v>43585</v>
+        <v>43190</v>
       </c>
       <c r="B33" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3298832209798779</v>
+        <f t="shared" si="7"/>
+        <v>1.2158605696783535</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="2"/>
-        <v>349107.07397144072</v>
+        <f t="shared" si="8"/>
+        <v>51116.60954384059</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="3"/>
-        <v>464271.64</v>
+        <f t="shared" si="9"/>
+        <v>62150.67</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>15527.219999999967</v>
+        <f t="shared" si="6"/>
+        <v>1855.8400000000038</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="4"/>
-        <v>1.3743601770706335</v>
-      </c>
-      <c r="G33" s="23">
-        <v>12895.12</v>
+        <f t="shared" si="10"/>
+        <v>1.2521665769930275</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f t="shared" si="5"/>
-        <v>358489.7090442098</v>
-      </c>
-      <c r="I33" s="25">
-        <v>492693.98</v>
+        <f t="shared" si="11"/>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="I33" s="24">
+        <v>64006.51</v>
       </c>
       <c r="J33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="4"/>
+      <c r="A34" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2521665769930275</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="8"/>
+        <v>51116.60954384059</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="9"/>
+        <v>64006.51</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="6"/>
+        <v>-479.47000000000844</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2427866512843635</v>
+      </c>
+      <c r="G34" s="22">
+        <v>15927.75</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="11"/>
+        <v>63932.767476933448</v>
+      </c>
+      <c r="I34" s="24">
+        <v>79454.789999999994</v>
+      </c>
       <c r="J34" s="16">
-        <f>F33^(1/YEARFRAC(A33,A2))</f>
-        <v>1.1309887430851668</v>
+        <f>F46^(1/YEARFRAC(A46,A15))</f>
+        <v>1.1435681997786131</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="3">
+        <v>43251</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2427866512843635</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="8"/>
+        <v>63932.767476933448</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="9"/>
+        <v>79454.789999999994</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="6"/>
+        <v>2612.2300000000105</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="10"/>
+        <v>1.283645667765114</v>
+      </c>
+      <c r="G35" s="22">
+        <v>25600</v>
+      </c>
+      <c r="H35" s="4">
+        <f t="shared" si="11"/>
+        <v>83875.965699672583</v>
+      </c>
+      <c r="I35" s="24">
+        <v>107667.02</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="3">
+        <v>43281</v>
+      </c>
+      <c r="B36" s="6">
+        <f t="shared" si="7"/>
+        <v>1.283645667765114</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="8"/>
+        <v>83875.965699672583</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="9"/>
+        <v>107667.02</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="6"/>
+        <v>-5013.8400000000111</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="10"/>
+        <v>1.223868829928723</v>
+      </c>
+      <c r="G36" s="22">
+        <v>39200</v>
+      </c>
+      <c r="H36" s="4">
+        <f t="shared" si="11"/>
+        <v>115905.54194297225</v>
+      </c>
+      <c r="I36" s="24">
+        <v>141853.18</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="3">
+        <v>43312</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="7"/>
+        <v>1.223868829928723</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="8"/>
+        <v>115905.54194297225</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="9"/>
+        <v>141853.18</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="6"/>
+        <v>2411.9599999999919</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="10"/>
+        <v>1.244678533757956</v>
+      </c>
+      <c r="G37" s="22">
+        <v>165543.29</v>
+      </c>
+      <c r="H37" s="4">
+        <f t="shared" si="11"/>
+        <v>248906.38152537326</v>
+      </c>
+      <c r="I37" s="24">
+        <v>309808.43</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="4"/>
+      <c r="A38" s="3">
+        <v>43343</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" si="7"/>
+        <v>1.244678533757956</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="8"/>
+        <v>248906.38152537326</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="9"/>
+        <v>309808.43</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="6"/>
+        <v>-5853.7799999999397</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2211605348857446</v>
+      </c>
+      <c r="G38" s="22">
+        <v>-5079.3800000000347</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="11"/>
+        <v>244746.91202493181</v>
+      </c>
+      <c r="I38" s="24">
+        <v>298875.27</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="3">
+        <v>43373</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2211605348857446</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="8"/>
+        <v>244746.91202493181</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="9"/>
+        <v>298875.27</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="6"/>
+        <v>2167.5899999999674</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2300169898336999</v>
+      </c>
+      <c r="G39" s="22">
+        <v>153849.14000000001</v>
+      </c>
+      <c r="H39" s="4">
+        <f t="shared" si="11"/>
+        <v>369825.7859523567</v>
+      </c>
+      <c r="I39" s="24">
+        <v>454892</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="3">
+        <v>43404</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2300169898336999</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="8"/>
+        <v>369825.7859523567</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="9"/>
+        <v>454892</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="6"/>
+        <v>-11488.190000000019</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1989532013246964</v>
+      </c>
+      <c r="G40" s="22">
+        <v>-3904.83</v>
+      </c>
+      <c r="H40" s="4">
+        <f t="shared" si="11"/>
+        <v>366568.9198831176</v>
+      </c>
+      <c r="I40" s="24">
+        <v>439498.98</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="3">
+        <v>43434</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1989532013246964</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="8"/>
+        <v>366568.9198831176</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="9"/>
+        <v>439498.98</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="6"/>
+        <v>4324.4100000000089</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2107501916461314</v>
+      </c>
+      <c r="G41" s="22">
+        <v>7702.85</v>
+      </c>
+      <c r="H41" s="4">
+        <f t="shared" si="11"/>
+        <v>372930.96719324624</v>
+      </c>
+      <c r="I41" s="24">
+        <v>451526.24</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="3">
+        <v>43465</v>
+      </c>
+      <c r="B42" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2107501916461314</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="8"/>
+        <v>372930.96719324624</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="9"/>
+        <v>451526.24</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="6"/>
+        <v>-12471.179999999964</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="10"/>
+        <v>1.1773092036427468</v>
+      </c>
+      <c r="G42" s="22">
+        <v>-110391.79000000001</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="11"/>
+        <v>279164.78439400066</v>
+      </c>
+      <c r="I42" s="24">
+        <v>328663.27</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="3">
+        <v>43496</v>
+      </c>
+      <c r="B43" s="6">
+        <f t="shared" si="7"/>
+        <v>1.1773092036427468</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="8"/>
+        <v>279164.78439400066</v>
+      </c>
+      <c r="D43" s="4">
+        <f t="shared" si="9"/>
+        <v>328663.27</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="6"/>
+        <v>9003.9499999999789</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2095623763326524</v>
+      </c>
+      <c r="G43" s="22">
+        <v>29786.399999999998</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" si="11"/>
+        <v>303790.55035930063</v>
+      </c>
+      <c r="I43" s="24">
+        <v>367453.62</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="4"/>
+      <c r="A44" s="3">
+        <v>43524</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" si="7"/>
+        <v>1.2095623763326524</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="8"/>
+        <v>303790.55035930063</v>
+      </c>
+      <c r="D44" s="4">
+        <f t="shared" si="9"/>
+        <v>367453.62</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="6"/>
+        <v>32946.069999999985</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="10"/>
+        <v>1.3180123263427297</v>
+      </c>
+      <c r="G44" s="22">
+        <v>23760.29</v>
+      </c>
+      <c r="H44" s="4">
+        <f t="shared" si="11"/>
+        <v>321817.91590445524</v>
+      </c>
+      <c r="I44" s="24">
+        <v>424159.98</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="4"/>
+      <c r="A45" s="3">
+        <v>43555</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" si="7"/>
+        <v>1.3180123263427297</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="8"/>
+        <v>321817.91590445524</v>
+      </c>
+      <c r="D45" s="4">
+        <f t="shared" si="9"/>
+        <v>424159.98</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="6"/>
+        <v>21615.800000000028</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="10"/>
+        <v>1.3851801219555058</v>
+      </c>
+      <c r="G45" s="22">
+        <v>18495.860000000004</v>
+      </c>
+      <c r="H45" s="4">
+        <f t="shared" si="11"/>
+        <v>335170.59091533307</v>
+      </c>
+      <c r="I45" s="24">
+        <v>464271.64</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="A46" s="3">
+        <v>43585</v>
+      </c>
+      <c r="B46" s="6">
+        <f t="shared" si="7"/>
+        <v>1.3851801219555058</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="8"/>
+        <v>335170.59091533307</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="9"/>
+        <v>464271.64</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="6"/>
+        <v>9726.0799999999599</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="10"/>
+        <v>1.4141984196929014</v>
+      </c>
+      <c r="G46" s="22">
+        <v>12902.94</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="11"/>
+        <v>344294.44498016924</v>
+      </c>
+      <c r="I46" s="24">
+        <v>486900.66</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="9"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="4"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="9"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="3"/>
+    <row r="61" spans="1:9">
+      <c r="A61" s="9"/>
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="3"/>
+    <row r="62" spans="1:9">
+      <c r="A62" s="9"/>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="3"/>
+    <row r="63" spans="1:9">
+      <c r="A63" s="9"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:9">
       <c r="A64" s="3"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
@@ -7490,6 +9776,84 @@
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7503,8 +9867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C928BB-60B2-BF4F-A542-4F8DB8761DEC}">
   <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7528,7 +9892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="27" t="str">
+      <c r="A1" s="26" t="str">
         <f>股票账户月报!A1</f>
         <v>日期</v>
       </c>
@@ -7566,39 +9930,39 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="31">
+      <c r="A2" s="34">
         <f>股票账户月报!A2</f>
         <v>42247</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="27">
         <f>股票账户月报!B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="28">
         <f>股票账户月报!C2</f>
         <v>25000</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="28">
         <f>股票账户月报!D2</f>
         <v>25000</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="28">
         <f>股票账户月报!E2</f>
         <v>-700.9</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="27">
         <f>股票账户月报!F2</f>
         <v>0.97196400000000005</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="35">
         <f>股票账户月报!G2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="28">
         <f>股票账户月报!H2</f>
         <v>25000</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="28">
         <f>股票账户月报!I2</f>
         <v>24299.100000000002</v>
       </c>
@@ -7607,507 +9971,507 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="31">
+      <c r="A3" s="34">
         <f>股票账户月报!A3</f>
         <v>42277</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="27">
         <f>F2</f>
         <v>0.97196400000000005</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="28">
         <f>H2</f>
         <v>25000</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="28">
         <f>I2</f>
         <v>24299.100000000002</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="28">
         <f>股票账户月报!E3</f>
         <v>1151.3699999999999</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="27">
         <f>E3/C3+B3</f>
         <v>1.0180188000000001</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="35">
         <f>股票账户月报!G3</f>
         <v>20000</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="28">
         <f>G3/F3+C3</f>
         <v>44646.0026082033</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="28">
         <f>F3*H3</f>
         <v>45450.47</v>
       </c>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="31">
+      <c r="A4" s="34">
         <f>股票账户月报!A4</f>
         <v>42308</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="27">
         <f t="shared" ref="B4:B14" si="0">F3</f>
         <v>1.0180188000000001</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="28">
         <f t="shared" ref="C4:C14" si="1">H3</f>
         <v>44646.0026082033</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="28">
         <f t="shared" ref="D4:D15" si="2">I3</f>
         <v>45450.47</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="28">
         <f>股票账户月报!E4</f>
         <v>5473.2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="27">
         <f t="shared" ref="F4:F15" si="3">E4/C4+B4</f>
         <v>1.1406098424283844</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="35">
         <f>股票账户月报!G4</f>
         <v>40000</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="28">
         <f>股票账户月报!H4</f>
         <v>79714.961784321829</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="28">
         <f>股票账户月报!I4</f>
         <v>90923.67</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="31">
+      <c r="A5" s="34">
         <f>股票账户月报!A5</f>
         <v>42338</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="27">
         <f t="shared" si="0"/>
         <v>1.1406098424283844</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="28">
         <f t="shared" si="1"/>
         <v>79714.961784321829</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="28">
         <f t="shared" si="2"/>
         <v>90923.67</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="28">
         <f>股票账户月报!E5</f>
         <v>4033.11</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="27">
         <f t="shared" si="3"/>
         <v>1.1912039832235848</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="35">
         <f>股票账户月报!G5</f>
         <v>129200</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="28">
         <f>股票账户月报!H5</f>
         <v>188176.65417252603</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="28">
         <f>股票账户月报!I5</f>
         <v>224156.78000000003</v>
       </c>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="31">
+      <c r="A6" s="34">
         <f>股票账户月报!A6</f>
         <v>42369</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="27">
         <f t="shared" si="0"/>
         <v>1.1912039832235848</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="28">
         <f t="shared" si="1"/>
         <v>188176.65417252603</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="28">
         <f t="shared" si="2"/>
         <v>224156.78000000003</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="28">
         <f>股票账户月报!E6</f>
         <v>19350.11</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="27">
         <f t="shared" si="3"/>
         <v>1.2940334765265067</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="35">
         <f>股票账户月报!G6</f>
         <v>15000</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="28">
         <f>股票账户月报!H6</f>
         <v>199768.31719523511</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="28">
         <f>股票账户月报!I6</f>
         <v>258506.89</v>
       </c>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="31">
+      <c r="A7" s="34">
         <f>股票账户月报!A7</f>
         <v>42400</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="27">
         <f t="shared" si="0"/>
         <v>1.2940334765265067</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="28">
         <f t="shared" si="1"/>
         <v>199768.31719523511</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="28">
         <f t="shared" si="2"/>
         <v>258506.89</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="28">
         <f>股票账户月报!E7</f>
         <v>-32667.72</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="27">
         <f t="shared" si="3"/>
         <v>1.1305054433595978</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="35">
         <f>股票账户月报!G7</f>
         <v>130000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="28">
         <f>股票账户月报!H7</f>
         <v>314761.12927199114</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="28">
         <f>股票账户月报!I7</f>
         <v>355839.17000000004</v>
       </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="31">
+      <c r="A8" s="34">
         <f>股票账户月报!A8</f>
         <v>42429</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>1.1305054433595978</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="28">
         <f t="shared" si="1"/>
         <v>314761.12927199114</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="28">
         <f t="shared" si="2"/>
         <v>355839.17000000004</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="28">
         <f>股票账户月报!E8</f>
         <v>713</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="27">
         <f t="shared" si="3"/>
         <v>1.1327706531764805</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="35">
         <f>股票账户月报!G8</f>
         <v>50000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="28">
         <f>股票账户月报!H8</f>
         <v>358900.69085031375</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="28">
         <f>股票账户月报!I8</f>
         <v>406552.17000000004</v>
       </c>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="31">
+      <c r="A9" s="34">
         <f>股票账户月报!A9</f>
         <v>42460</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>1.1327706531764805</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="28">
         <f t="shared" si="1"/>
         <v>358900.69085031375</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="28">
         <f t="shared" si="2"/>
         <v>406552.17000000004</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="28">
         <f>股票账户月报!E9</f>
         <v>451.57</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="27">
         <f t="shared" si="3"/>
         <v>1.1340288563828609</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="35">
         <f>股票账户月报!G9</f>
         <v>-202800</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="28">
         <f>股票账户月报!H9</f>
         <v>180069.26265645088</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="28">
         <f>股票账户月报!I9</f>
         <v>204203.74</v>
       </c>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="31">
+      <c r="A10" s="34">
         <f>股票账户月报!A10</f>
         <v>42490</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>1.1340288563828609</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="28">
         <f t="shared" si="1"/>
         <v>180069.26265645088</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="28">
         <f t="shared" si="2"/>
         <v>204203.74</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="28">
         <f>股票账户月报!E10</f>
         <v>1024.1199999999999</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="27">
         <f t="shared" si="3"/>
         <v>1.1397162234820082</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="35">
         <f>股票账户月报!G10</f>
         <v>130000</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="28">
         <f>股票账户月报!H10</f>
         <v>294132.74382971175</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="28">
         <f>股票账户月报!I10</f>
         <v>335227.86000000004</v>
       </c>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="31">
+      <c r="A11" s="34">
         <f>股票账户月报!A11</f>
         <v>42521</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>1.1397162234820082</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="28">
         <f t="shared" si="1"/>
         <v>294132.74382971175</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="28">
         <f t="shared" si="2"/>
         <v>335227.86000000004</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="28">
         <f>股票账户月报!E11</f>
         <v>1619.52</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="27">
         <f t="shared" si="3"/>
         <v>1.1452223088600362</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="35">
         <f>股票账户月报!G11</f>
         <v>12000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="28">
         <f>股票账户月报!H11</f>
         <v>304611.05874478258</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="28">
         <f>股票账户月报!I11</f>
         <v>348847.38</v>
       </c>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="31">
+      <c r="A12" s="34">
         <f>股票账户月报!A12</f>
         <v>42551</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="27">
         <f t="shared" si="0"/>
         <v>1.1452223088600362</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="28">
         <f t="shared" si="1"/>
         <v>304611.05874478258</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="28">
         <f t="shared" si="2"/>
         <v>348847.38</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="28">
         <f>股票账户月报!E12</f>
         <v>5247.73</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="27">
         <f t="shared" si="3"/>
         <v>1.1624499499759708</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="35">
         <f>股票账户月报!G12</f>
         <v>126100</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="28">
         <f>股票账户月报!H12</f>
         <v>413088.84740364621</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="28">
         <f>股票账户月报!I12</f>
         <v>480195.11</v>
       </c>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="31">
+      <c r="A13" s="34">
         <f>股票账户月报!A13</f>
         <v>42582</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="27">
         <f t="shared" si="0"/>
         <v>1.1624499499759708</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="28">
         <f t="shared" si="1"/>
         <v>413088.84740364621</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="28">
         <f t="shared" si="2"/>
         <v>480195.11</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="28">
         <f>股票账户月报!E13</f>
         <v>958.73</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="27">
         <f t="shared" si="3"/>
         <v>1.1647708308373783</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="35">
         <f>股票账户月报!G13</f>
         <v>13500</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="28">
         <f>股票账户月报!H13</f>
         <v>424679.11017687735</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="28">
         <f>股票账户月报!I13</f>
         <v>494653.83999999997</v>
       </c>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="31">
+      <c r="A14" s="34">
         <f>股票账户月报!A14</f>
         <v>42613</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="27">
         <f t="shared" si="0"/>
         <v>1.1647708308373783</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="28">
         <f t="shared" si="1"/>
         <v>424679.11017687735</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="28">
         <f t="shared" si="2"/>
         <v>494653.83999999997</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="28">
         <f>股票账户月报!E14</f>
         <v>4724.12</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="27">
         <f t="shared" si="3"/>
         <v>1.1758948062974202</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="35">
         <f>股票账户月报!G14</f>
         <v>7000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="28">
         <f>股票账户月报!H14</f>
         <v>430632.02361990983</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="28">
         <f>股票账户月报!I14</f>
         <v>506377.9599999999</v>
       </c>
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <f>股票账户月报!A15</f>
         <v>42643</v>
       </c>
-      <c r="B15" s="28">
-        <f t="shared" ref="B15:B46" si="4">F14</f>
+      <c r="B15" s="20">
+        <f t="shared" ref="B15" si="4">F14</f>
         <v>1.1758948062974202</v>
       </c>
-      <c r="C15" s="29">
-        <f t="shared" ref="C15:C46" si="5">H14</f>
+      <c r="C15" s="10">
+        <f t="shared" ref="C15" si="5">H14</f>
         <v>430632.02361990983</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="10">
         <f t="shared" si="2"/>
         <v>506377.9599999999</v>
       </c>
-      <c r="E15" s="30">
-        <f>股票账户月报!E15+天天基金账户月报!E2</f>
+      <c r="E15" s="14">
+        <f>股票账户月报!E15+天天基金账户月报!E15</f>
         <v>1603.96</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="20">
         <f t="shared" si="3"/>
         <v>1.1796194712364487</v>
       </c>
-      <c r="G15" s="30">
-        <f>股票账户月报!G15+天天基金账户月报!G2</f>
+      <c r="G15" s="14">
+        <f>股票账户月报!G15+天天基金账户月报!G15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="14">
         <f>G15/F15+C15</f>
         <v>430632.02361990983</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="14">
         <f>F15*H15</f>
         <v>507981.91999999993</v>
       </c>
@@ -8123,39 +10487,39 @@
       <c r="T15" s="18"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <f>股票账户月报!A16</f>
         <v>42674</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="20">
         <f t="shared" ref="B16:B46" si="6">F15</f>
         <v>1.1796194712364487</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="10">
         <f t="shared" ref="C16:C46" si="7">H15</f>
         <v>430632.02361990983</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="10">
         <f t="shared" ref="D16:D46" si="8">I15</f>
         <v>507981.91999999993</v>
       </c>
-      <c r="E16" s="30">
-        <f>股票账户月报!E16+天天基金账户月报!E3</f>
-        <v>1561.9300000000003</v>
-      </c>
-      <c r="F16" s="28">
+      <c r="E16" s="14">
+        <f>股票账户月报!E16+天天基金账户月报!E16</f>
+        <v>1561.9299999999998</v>
+      </c>
+      <c r="F16" s="20">
         <f t="shared" ref="F16:F46" si="9">E16/C16+B16</f>
         <v>1.1832465354451678</v>
       </c>
-      <c r="G16" s="30">
-        <f>股票账户月报!G16+天天基金账户月报!G3</f>
+      <c r="G16" s="14">
+        <f>股票账户月报!G16+天天基金账户月报!G16</f>
         <v>17000</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="14">
         <f t="shared" ref="H16:H46" si="10">G16/F16+C16</f>
         <v>444999.274645584</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="14">
         <f t="shared" ref="I16:I46" si="11">F16*H16</f>
         <v>526543.85</v>
       </c>
@@ -8171,39 +10535,39 @@
       <c r="T16" s="18"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <f>股票账户月报!A17</f>
         <v>42704</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="20">
         <f t="shared" si="6"/>
         <v>1.1832465354451678</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="10">
         <f t="shared" si="7"/>
         <v>444999.274645584</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="10">
         <f t="shared" si="8"/>
         <v>526543.85</v>
       </c>
-      <c r="E17" s="30">
-        <f>股票账户月报!E17+天天基金账户月报!E4</f>
+      <c r="E17" s="14">
+        <f>股票账户月报!E17+天天基金账户月报!E17</f>
         <v>12614.1</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="20">
         <f t="shared" si="9"/>
         <v>1.2115928737848121</v>
       </c>
-      <c r="G17" s="30">
-        <f>股票账户月报!G17+天天基金账户月报!G4</f>
+      <c r="G17" s="14">
+        <f>股票账户月报!G17+天天基金账户月报!G17</f>
         <v>18000</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="14">
         <f t="shared" si="10"/>
         <v>459855.75027321873</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="14">
         <f t="shared" si="11"/>
         <v>557157.94999999995</v>
       </c>
@@ -8219,39 +10583,39 @@
       <c r="T17" s="18"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <f>股票账户月报!A18</f>
         <v>42735</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="20">
         <f t="shared" si="6"/>
         <v>1.2115928737848121</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="10">
         <f t="shared" si="7"/>
         <v>459855.75027321873</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="10">
         <f t="shared" si="8"/>
         <v>557157.94999999995</v>
       </c>
-      <c r="E18" s="30">
-        <f>股票账户月报!E18+天天基金账户月报!E5</f>
+      <c r="E18" s="14">
+        <f>股票账户月报!E18+天天基金账户月报!E18</f>
         <v>74.660000000000196</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="20">
         <f t="shared" si="9"/>
         <v>1.2117552290450337</v>
       </c>
-      <c r="G18" s="30">
-        <f>股票账户月报!G18+天天基金账户月报!G5</f>
+      <c r="G18" s="14">
+        <f>股票账户月报!G18+天天基金账户月报!G18</f>
         <v>400</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="14">
         <f t="shared" si="10"/>
         <v>460185.84994220489</v>
       </c>
-      <c r="I18" s="30">
+      <c r="I18" s="14">
         <f t="shared" si="11"/>
         <v>557632.61</v>
       </c>
@@ -8267,39 +10631,39 @@
       <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <f>股票账户月报!A19</f>
         <v>42766</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="20">
         <f t="shared" si="6"/>
         <v>1.2117552290450337</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="10">
         <f t="shared" si="7"/>
         <v>460185.84994220489</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="10">
         <f t="shared" si="8"/>
         <v>557632.61</v>
       </c>
-      <c r="E19" s="30">
-        <f>股票账户月报!E19+天天基金账户月报!E6</f>
+      <c r="E19" s="14">
+        <f>股票账户月报!E19+天天基金账户月报!E19</f>
         <v>7249.5900000000011</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="20">
         <f t="shared" si="9"/>
         <v>1.2275088425055747</v>
       </c>
-      <c r="G19" s="30">
-        <f>股票账户月报!G19+天天基金账户月报!G6</f>
+      <c r="G19" s="14">
+        <f>股票账户月报!G19+天天基金账户月报!G19</f>
         <v>15320</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="14">
         <f t="shared" si="10"/>
         <v>472666.41176751041</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="14">
         <f t="shared" si="11"/>
         <v>580202.20000000007</v>
       </c>
@@ -8315,39 +10679,39 @@
       <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <f>股票账户月报!A20</f>
         <v>42794</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="20">
         <f t="shared" si="6"/>
         <v>1.2275088425055747</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="10">
         <f t="shared" si="7"/>
         <v>472666.41176751041</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="10">
         <f t="shared" si="8"/>
         <v>580202.20000000007</v>
       </c>
-      <c r="E20" s="30">
-        <f>股票账户月报!E20+天天基金账户月报!E7</f>
+      <c r="E20" s="14">
+        <f>股票账户月报!E20+天天基金账户月报!E20</f>
         <v>-1274.8000000000013</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="20">
         <f t="shared" si="9"/>
         <v>1.2248118029693129</v>
       </c>
-      <c r="G20" s="30">
-        <f>股票账户月报!G20+天天基金账户月报!G7</f>
+      <c r="G20" s="14">
+        <f>股票账户月报!G20+天天基金账户月报!G20</f>
         <v>10160</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="14">
         <f t="shared" si="10"/>
         <v>480961.56370462361</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="14">
         <f t="shared" si="11"/>
         <v>589087.40000000014</v>
       </c>
@@ -8363,39 +10727,39 @@
       <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <f>股票账户月报!A21</f>
         <v>42825</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="20">
         <f t="shared" si="6"/>
         <v>1.2248118029693129</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="10">
         <f t="shared" si="7"/>
         <v>480961.56370462361</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="10">
         <f t="shared" si="8"/>
         <v>589087.40000000014</v>
       </c>
-      <c r="E21" s="30">
-        <f>股票账户月报!E21+天天基金账户月报!E8</f>
+      <c r="E21" s="14">
+        <f>股票账户月报!E21+天天基金账户月报!E21</f>
         <v>-3033.9299999999994</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="20">
         <f t="shared" si="9"/>
         <v>1.2185037521208604</v>
       </c>
-      <c r="G21" s="30">
-        <f>股票账户月报!G21+天天基金账户月报!G8</f>
+      <c r="G21" s="14">
+        <f>股票账户月报!G21+天天基金账户月报!G21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="14">
         <f t="shared" si="10"/>
         <v>480961.56370462361</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="14">
         <f t="shared" si="11"/>
         <v>586053.47000000009</v>
       </c>
@@ -8411,39 +10775,39 @@
       <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <f>股票账户月报!A22</f>
         <v>42855</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="20">
         <f t="shared" si="6"/>
         <v>1.2185037521208604</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="10">
         <f t="shared" si="7"/>
         <v>480961.56370462361</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="10">
         <f t="shared" si="8"/>
         <v>586053.47000000009</v>
       </c>
-      <c r="E22" s="30">
-        <f>股票账户月报!E22+天天基金账户月报!E9</f>
+      <c r="E22" s="14">
+        <f>股票账户月报!E22+天天基金账户月报!E22</f>
         <v>-12182.109999999999</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="20">
         <f t="shared" si="9"/>
         <v>1.1931750961131602</v>
       </c>
-      <c r="G22" s="30">
-        <f>股票账户月报!G22+天天基金账户月报!G9</f>
+      <c r="G22" s="14">
+        <f>股票账户月报!G22+天天基金账户月报!G22</f>
         <v>3960</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="14">
         <f t="shared" si="10"/>
         <v>484280.43954514351</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="14">
         <f t="shared" si="11"/>
         <v>577831.3600000001</v>
       </c>
@@ -8459,39 +10823,39 @@
       <c r="T22" s="18"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <f>股票账户月报!A23</f>
         <v>42886</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="20">
         <f t="shared" si="6"/>
         <v>1.1931750961131602</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="10">
         <f t="shared" si="7"/>
         <v>484280.43954514351</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="10">
         <f t="shared" si="8"/>
         <v>577831.3600000001</v>
       </c>
-      <c r="E23" s="30">
-        <f>股票账户月报!E23+天天基金账户月报!E10</f>
+      <c r="E23" s="14">
+        <f>股票账户月报!E23+天天基金账户月报!E23</f>
         <v>-22300.460000000003</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="20">
         <f t="shared" si="9"/>
         <v>1.1471264470681037</v>
       </c>
-      <c r="G23" s="30">
-        <f>股票账户月报!G23+天天基金账户月报!G10</f>
+      <c r="G23" s="14">
+        <f>股票账户月报!G23+天天基金账户月报!G23</f>
         <v>561</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="14">
         <f t="shared" si="10"/>
         <v>484769.48763695051</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="14">
         <f t="shared" si="11"/>
         <v>556091.9</v>
       </c>
@@ -8507,39 +10871,39 @@
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <f>股票账户月报!A24</f>
         <v>42916</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="20">
         <f t="shared" si="6"/>
         <v>1.1471264470681037</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="10">
         <f t="shared" si="7"/>
         <v>484769.48763695051</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="10">
         <f t="shared" si="8"/>
         <v>556091.9</v>
       </c>
-      <c r="E24" s="30">
-        <f>股票账户月报!E24+天天基金账户月报!E11</f>
+      <c r="E24" s="14">
+        <f>股票账户月报!E24+天天基金账户月报!E24</f>
         <v>-28059.88</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="20">
         <f t="shared" si="9"/>
         <v>1.0892435136005287</v>
       </c>
-      <c r="G24" s="30">
-        <f>股票账户月报!G24+天天基金账户月报!G11</f>
+      <c r="G24" s="14">
+        <f>股票账户月报!G24+天天基金账户月报!G24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="14">
         <f t="shared" si="10"/>
         <v>484769.48763695051</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="14">
         <f t="shared" si="11"/>
         <v>528032.02</v>
       </c>
@@ -8555,39 +10919,39 @@
       <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <f>股票账户月报!A25</f>
         <v>42947</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="20">
         <f t="shared" si="6"/>
         <v>1.0892435136005287</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="10">
         <f t="shared" si="7"/>
         <v>484769.48763695051</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="10">
         <f t="shared" si="8"/>
         <v>528032.02</v>
       </c>
-      <c r="E25" s="30">
-        <f>股票账户月报!E25+天天基金账户月报!E12</f>
+      <c r="E25" s="14">
+        <f>股票账户月报!E25+天天基金账户月报!E25</f>
         <v>9013.5199999999986</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="20">
         <f t="shared" si="9"/>
         <v>1.1078369280580622</v>
       </c>
-      <c r="G25" s="30">
-        <f>股票账户月报!G25+天天基金账户月报!G12</f>
+      <c r="G25" s="14">
+        <f>股票账户月报!G25+天天基金账户月报!G25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="14">
         <f t="shared" si="10"/>
         <v>484769.48763695051</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="14">
         <f t="shared" si="11"/>
         <v>537045.54</v>
       </c>
@@ -8603,39 +10967,39 @@
       <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <f>股票账户月报!A26</f>
         <v>42978</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="20">
         <f t="shared" si="6"/>
         <v>1.1078369280580622</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="10">
         <f t="shared" si="7"/>
         <v>484769.48763695051</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="10">
         <f t="shared" si="8"/>
         <v>537045.54</v>
       </c>
-      <c r="E26" s="30">
-        <f>股票账户月报!E26+天天基金账户月报!E13</f>
+      <c r="E26" s="14">
+        <f>股票账户月报!E26+天天基金账户月报!E26</f>
         <v>-44781.979999999996</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="20">
         <f t="shared" si="9"/>
         <v>1.0154590430177031</v>
       </c>
-      <c r="G26" s="30">
-        <f>股票账户月报!G26+天天基金账户月报!G13</f>
+      <c r="G26" s="14">
+        <f>股票账户月报!G26+天天基金账户月报!G26</f>
         <v>25000</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="14">
         <f t="shared" si="10"/>
         <v>509388.89515702729</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="14">
         <f t="shared" si="11"/>
         <v>517263.56</v>
       </c>
@@ -8651,39 +11015,39 @@
       <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <f>股票账户月报!A27</f>
         <v>43008</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="20">
         <f t="shared" si="6"/>
         <v>1.0154590430177031</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="10">
         <f t="shared" si="7"/>
         <v>509388.89515702729</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="10">
         <f t="shared" si="8"/>
         <v>517263.56</v>
       </c>
-      <c r="E27" s="30">
-        <f>股票账户月报!E27+天天基金账户月报!E14</f>
+      <c r="E27" s="14">
+        <f>股票账户月报!E27+天天基金账户月报!E27</f>
         <v>56346.48</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="20">
         <f t="shared" si="9"/>
         <v>1.1260748819881037</v>
       </c>
-      <c r="G27" s="30">
-        <f>股票账户月报!G27+天天基金账户月报!G14</f>
+      <c r="G27" s="14">
+        <f>股票账户月报!G27+天天基金账户月报!G27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="14">
         <f t="shared" si="10"/>
         <v>509388.89515702729</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="14">
         <f t="shared" si="11"/>
         <v>573610.04</v>
       </c>
@@ -8699,39 +11063,39 @@
       <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <f>股票账户月报!A28</f>
         <v>43039</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="20">
         <f t="shared" si="6"/>
         <v>1.1260748819881037</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="10">
         <f t="shared" si="7"/>
         <v>509388.89515702729</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="10">
         <f t="shared" si="8"/>
         <v>573610.04</v>
       </c>
-      <c r="E28" s="30">
-        <f>股票账户月报!E28+天天基金账户月报!E15</f>
+      <c r="E28" s="14">
+        <f>股票账户月报!E28+天天基金账户月报!E28</f>
         <v>-3955.2500000000045</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="20">
         <f t="shared" si="9"/>
         <v>1.1183101858245159</v>
       </c>
-      <c r="G28" s="30">
-        <f>股票账户月报!G28+天天基金账户月报!G15</f>
+      <c r="G28" s="14">
+        <f>股票账户月报!G28+天天基金账户月报!G28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="14">
         <f t="shared" si="10"/>
         <v>509388.89515702729</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="14">
         <f t="shared" si="11"/>
         <v>569654.79</v>
       </c>
@@ -8747,39 +11111,39 @@
       <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <f>股票账户月报!A29</f>
         <v>43069</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="20">
         <f t="shared" si="6"/>
         <v>1.1183101858245159</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="10">
         <f t="shared" si="7"/>
         <v>509388.89515702729</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="10">
         <f t="shared" si="8"/>
         <v>569654.79</v>
       </c>
-      <c r="E29" s="30">
-        <f>股票账户月报!E29+天天基金账户月报!E16</f>
+      <c r="E29" s="14">
+        <f>股票账户月报!E29+天天基金账户月报!E29</f>
         <v>10774.500000000005</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="20">
         <f t="shared" si="9"/>
         <v>1.1394620014656454</v>
       </c>
-      <c r="G29" s="30">
-        <f>股票账户月报!G29+天天基金账户月报!G16</f>
+      <c r="G29" s="14">
+        <f>股票账户月报!G29+天天基金账户月报!G29</f>
         <v>11560</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="14">
         <f t="shared" si="10"/>
         <v>519534.03381468402</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="14">
         <f t="shared" si="11"/>
         <v>591989.29000000015</v>
       </c>
@@ -8795,39 +11159,39 @@
       <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <f>股票账户月报!A30</f>
         <v>43100</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="20">
         <f t="shared" si="6"/>
         <v>1.1394620014656454</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="10">
         <f t="shared" si="7"/>
         <v>519534.03381468402</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="10">
         <f t="shared" si="8"/>
         <v>591989.29000000015</v>
       </c>
-      <c r="E30" s="30">
-        <f>股票账户月报!E30+天天基金账户月报!E17</f>
+      <c r="E30" s="14">
+        <f>股票账户月报!E30+天天基金账户月报!E30</f>
         <v>35322.009999999995</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="20">
         <f t="shared" si="9"/>
         <v>1.2074498669393425</v>
       </c>
-      <c r="G30" s="30">
-        <f>股票账户月报!G30+天天基金账户月报!G17</f>
+      <c r="G30" s="14">
+        <f>股票账户月报!G30+天天基金账户月报!G30</f>
         <v>4500</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="14">
         <f t="shared" si="10"/>
         <v>523260.8966213417</v>
       </c>
-      <c r="I30" s="30">
+      <c r="I30" s="14">
         <f t="shared" si="11"/>
         <v>631811.30000000005</v>
       </c>
@@ -8843,41 +11207,41 @@
       <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <f>股票账户月报!A31</f>
         <v>43131</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="20">
         <f t="shared" si="6"/>
         <v>1.2074498669393425</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="10">
         <f t="shared" si="7"/>
         <v>523260.8966213417</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="10">
         <f t="shared" si="8"/>
         <v>631811.30000000005</v>
       </c>
-      <c r="E31" s="30">
-        <f>股票账户月报!E31+天天基金账户月报!E18</f>
-        <v>-13520.411550000001</v>
-      </c>
-      <c r="F31" s="28">
+      <c r="E31" s="14">
+        <f>股票账户月报!E31+天天基金账户月报!E31</f>
+        <v>-12201.93</v>
+      </c>
+      <c r="F31" s="20">
         <f t="shared" si="9"/>
-        <v>1.1816111091852273</v>
-      </c>
-      <c r="G31" s="30">
-        <f>股票账户月报!G31+天天基金账户月报!G18</f>
-        <v>111318.48155</v>
-      </c>
-      <c r="H31" s="30">
+        <v>1.1841308494496219</v>
+      </c>
+      <c r="G31" s="14">
+        <f>股票账户月报!G31+天天基金账户月报!G31</f>
+        <v>110000</v>
+      </c>
+      <c r="H31" s="14">
         <f t="shared" si="10"/>
-        <v>617469.96480347728</v>
-      </c>
-      <c r="I31" s="30">
+        <v>616156.03574479872</v>
+      </c>
+      <c r="I31" s="14">
         <f t="shared" si="11"/>
-        <v>729609.37</v>
+        <v>729609.37000000011</v>
       </c>
       <c r="K31" s="17"/>
       <c r="L31" s="4"/>
@@ -8891,39 +11255,39 @@
       <c r="T31" s="18"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <f>股票账户月报!A32</f>
         <v>43159</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="20">
         <f t="shared" si="6"/>
-        <v>1.1816111091852273</v>
-      </c>
-      <c r="C32" s="29">
+        <v>1.1841308494496219</v>
+      </c>
+      <c r="C32" s="10">
         <f t="shared" si="7"/>
-        <v>617469.96480347728</v>
-      </c>
-      <c r="D32" s="29">
+        <v>616156.03574479872</v>
+      </c>
+      <c r="D32" s="10">
         <f t="shared" si="8"/>
-        <v>729609.37</v>
-      </c>
-      <c r="E32" s="30">
-        <f>股票账户月报!E32+天天基金账户月报!E19</f>
+        <v>729609.37000000011</v>
+      </c>
+      <c r="E32" s="14">
+        <f>股票账户月报!E32+天天基金账户月报!E32</f>
         <v>-26191.800000000003</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="20">
         <f t="shared" si="9"/>
-        <v>1.1391931755318292</v>
-      </c>
-      <c r="G32" s="30">
-        <f>股票账户月报!G32+天天基金账户月报!G19</f>
+        <v>1.141622461183426</v>
+      </c>
+      <c r="G32" s="14">
+        <f>股票账户月报!G32+天天基金账户月报!G32</f>
         <v>10000</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="14">
         <f t="shared" si="10"/>
-        <v>626248.10727727809</v>
-      </c>
-      <c r="I32" s="30">
+        <v>624915.49899995734</v>
+      </c>
+      <c r="I32" s="14">
         <f t="shared" si="11"/>
         <v>713417.57000000007</v>
       </c>
@@ -8939,41 +11303,41 @@
       <c r="T32" s="18"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <f>股票账户月报!A33</f>
         <v>43190</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="20">
         <f t="shared" si="6"/>
-        <v>1.1391931755318292</v>
-      </c>
-      <c r="C33" s="29">
+        <v>1.141622461183426</v>
+      </c>
+      <c r="C33" s="10">
         <f t="shared" si="7"/>
-        <v>626248.10727727809</v>
-      </c>
-      <c r="D33" s="29">
+        <v>624915.49899995734</v>
+      </c>
+      <c r="D33" s="10">
         <f t="shared" si="8"/>
         <v>713417.57000000007</v>
       </c>
-      <c r="E33" s="30">
-        <f>股票账户月报!E33+天天基金账户月报!E20</f>
+      <c r="E33" s="14">
+        <f>股票账户月报!E33+天天基金账户月报!E33</f>
         <v>10875.530000000004</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="20">
         <f t="shared" si="9"/>
-        <v>1.1565593437862662</v>
-      </c>
-      <c r="G33" s="30">
-        <f>股票账户月报!G33+天天基金账户月报!G20</f>
+        <v>1.1590256621240396</v>
+      </c>
+      <c r="G33" s="14">
+        <f>股票账户月报!G33+天天基金账户月报!G33</f>
         <v>0</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="14">
         <f t="shared" si="10"/>
-        <v>626248.10727727809</v>
-      </c>
-      <c r="I33" s="30">
+        <v>624915.49899995734</v>
+      </c>
+      <c r="I33" s="14">
         <f t="shared" si="11"/>
-        <v>724293.1</v>
+        <v>724293.10000000009</v>
       </c>
       <c r="K33" s="17"/>
       <c r="L33" s="4"/>
@@ -8987,41 +11351,41 @@
       <c r="T33" s="18"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <f>股票账户月报!A34</f>
         <v>43220</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="20">
         <f t="shared" si="6"/>
-        <v>1.1565593437862662</v>
-      </c>
-      <c r="C34" s="29">
+        <v>1.1590256621240396</v>
+      </c>
+      <c r="C34" s="10">
         <f t="shared" si="7"/>
-        <v>626248.10727727809</v>
-      </c>
-      <c r="D34" s="29">
+        <v>624915.49899995734</v>
+      </c>
+      <c r="D34" s="10">
         <f t="shared" si="8"/>
-        <v>724293.1</v>
-      </c>
-      <c r="E34" s="30">
-        <f>股票账户月报!E34+天天基金账户月报!E21</f>
+        <v>724293.10000000009</v>
+      </c>
+      <c r="E34" s="14">
+        <f>股票账户月报!E34+天天基金账户月报!E34</f>
         <v>34579.849999999991</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="20">
         <f t="shared" si="9"/>
-        <v>1.2117768360200423</v>
-      </c>
-      <c r="G34" s="30">
-        <f>股票账户月报!G34+天天基金账户月报!G21</f>
+        <v>1.2143609035372187</v>
+      </c>
+      <c r="G34" s="14">
+        <f>股票账户月报!G34+天天基金账户月报!G34</f>
         <v>11210.75</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="14">
         <f t="shared" si="10"/>
-        <v>635499.60447276873</v>
-      </c>
-      <c r="I34" s="30">
+        <v>634147.3097140087</v>
+      </c>
+      <c r="I34" s="14">
         <f t="shared" si="11"/>
-        <v>770083.7</v>
+        <v>770083.70000000007</v>
       </c>
       <c r="K34" s="17"/>
       <c r="L34" s="4"/>
@@ -9035,39 +11399,39 @@
       <c r="T34" s="18"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <f>股票账户月报!A35</f>
         <v>43251</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="20">
         <f t="shared" si="6"/>
-        <v>1.2117768360200423</v>
-      </c>
-      <c r="C35" s="29">
+        <v>1.2143609035372187</v>
+      </c>
+      <c r="C35" s="10">
         <f t="shared" si="7"/>
-        <v>635499.60447276873</v>
-      </c>
-      <c r="D35" s="29">
+        <v>634147.3097140087</v>
+      </c>
+      <c r="D35" s="10">
         <f t="shared" si="8"/>
-        <v>770083.7</v>
-      </c>
-      <c r="E35" s="30">
-        <f>股票账户月报!E35+天天基金账户月报!E22</f>
+        <v>770083.70000000007</v>
+      </c>
+      <c r="E35" s="14">
+        <f>股票账户月报!E35+天天基金账户月报!E35</f>
         <v>4827.8700000000099</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="20">
         <f t="shared" si="9"/>
-        <v>1.219373803769543</v>
-      </c>
-      <c r="G35" s="30">
-        <f>股票账户月报!G35+天天基金账户月报!G22</f>
+        <v>1.2219740715283867</v>
+      </c>
+      <c r="G35" s="14">
+        <f>股票账户月报!G35+天天基金账户月报!G35</f>
         <v>-2272</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="14">
         <f t="shared" si="10"/>
-        <v>633636.35302930127</v>
-      </c>
-      <c r="I35" s="30">
+        <v>632288.023127708</v>
+      </c>
+      <c r="I35" s="14">
         <f t="shared" si="11"/>
         <v>772639.57000000007</v>
       </c>
@@ -9083,41 +11447,41 @@
       <c r="T35" s="18"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <f>股票账户月报!A36</f>
         <v>43281</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="20">
         <f t="shared" si="6"/>
-        <v>1.219373803769543</v>
-      </c>
-      <c r="C36" s="29">
+        <v>1.2219740715283867</v>
+      </c>
+      <c r="C36" s="10">
         <f t="shared" si="7"/>
-        <v>633636.35302930127</v>
-      </c>
-      <c r="D36" s="29">
+        <v>632288.023127708</v>
+      </c>
+      <c r="D36" s="10">
         <f t="shared" si="8"/>
         <v>772639.57000000007</v>
       </c>
-      <c r="E36" s="30">
-        <f>股票账户月报!E36+天天基金账户月报!E23</f>
+      <c r="E36" s="14">
+        <f>股票账户月报!E36+天天基金账户月报!E36</f>
         <v>-22074.98000000001</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="20">
         <f t="shared" si="9"/>
-        <v>1.1845352407760159</v>
-      </c>
-      <c r="G36" s="30">
-        <f>股票账户月报!G36+天天基金账户月报!G23</f>
+        <v>1.1870612166386123</v>
+      </c>
+      <c r="G36" s="14">
+        <f>股票账户月报!G36+天天基金账户月报!G36</f>
         <v>9200</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="14">
         <f t="shared" si="10"/>
-        <v>641403.11224701174</v>
-      </c>
-      <c r="I36" s="30">
+        <v>640038.25527331838</v>
+      </c>
+      <c r="I36" s="14">
         <f t="shared" si="11"/>
-        <v>759764.59</v>
+        <v>759764.59000000008</v>
       </c>
       <c r="K36" s="17"/>
       <c r="L36" s="4"/>
@@ -9131,39 +11495,39 @@
       <c r="T36" s="18"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="27">
+      <c r="A37" s="26">
         <f>股票账户月报!A37</f>
         <v>43312</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="20">
         <f t="shared" si="6"/>
-        <v>1.1845352407760159</v>
-      </c>
-      <c r="C37" s="29">
+        <v>1.1870612166386123</v>
+      </c>
+      <c r="C37" s="10">
         <f t="shared" si="7"/>
-        <v>641403.11224701174</v>
-      </c>
-      <c r="D37" s="29">
+        <v>640038.25527331838</v>
+      </c>
+      <c r="D37" s="10">
         <f t="shared" si="8"/>
-        <v>759764.59</v>
-      </c>
-      <c r="E37" s="30">
-        <f>股票账户月报!E37+天天基金账户月报!E24</f>
-        <v>1714.9299999998173</v>
-      </c>
-      <c r="F37" s="28">
+        <v>759764.59000000008</v>
+      </c>
+      <c r="E37" s="14">
+        <f>股票账户月报!E37+天天基金账户月报!E37</f>
+        <v>1714.9299999999919</v>
+      </c>
+      <c r="F37" s="20">
         <f t="shared" si="9"/>
-        <v>1.1872089571444819</v>
-      </c>
-      <c r="G37" s="30">
-        <f>股票账户月报!G37+天天基金账户月报!G24</f>
-        <v>11906.790000000183</v>
-      </c>
-      <c r="H37" s="30">
+        <v>1.1897406346044457</v>
+      </c>
+      <c r="G37" s="14">
+        <f>股票账户月报!G37+天天基金账户月报!G37</f>
+        <v>11906.790000000008</v>
+      </c>
+      <c r="H37" s="14">
         <f t="shared" si="10"/>
-        <v>651432.34082412662</v>
-      </c>
-      <c r="I37" s="30">
+        <v>650046.14241584565</v>
+      </c>
+      <c r="I37" s="14">
         <f t="shared" si="11"/>
         <v>773386.31</v>
       </c>
@@ -9179,39 +11543,39 @@
       <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="27">
+      <c r="A38" s="26">
         <f>股票账户月报!A38</f>
         <v>43343</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="20">
         <f t="shared" si="6"/>
-        <v>1.1872089571444819</v>
-      </c>
-      <c r="C38" s="29">
+        <v>1.1897406346044457</v>
+      </c>
+      <c r="C38" s="10">
         <f t="shared" si="7"/>
-        <v>651432.34082412662</v>
-      </c>
-      <c r="D38" s="29">
+        <v>650046.14241584565</v>
+      </c>
+      <c r="D38" s="10">
         <f t="shared" si="8"/>
         <v>773386.31</v>
       </c>
-      <c r="E38" s="30">
-        <f>股票账户月报!E38+天天基金账户月报!E25</f>
-        <v>-29424.789999999975</v>
-      </c>
-      <c r="F38" s="28">
+      <c r="E38" s="14">
+        <f>股票账户月报!E38+天天基金账户月报!E38</f>
+        <v>-24345.409999999942</v>
+      </c>
+      <c r="F38" s="20">
         <f t="shared" si="9"/>
-        <v>1.1420395847384779</v>
-      </c>
-      <c r="G38" s="30">
-        <f>股票账户月报!G38+天天基金账户月报!G25</f>
-        <v>4000</v>
-      </c>
-      <c r="H38" s="30">
+        <v>1.1522888163234817</v>
+      </c>
+      <c r="G38" s="14">
+        <f>股票账户月报!G38+天天基金账户月报!G38</f>
+        <v>-1079.3800000000347</v>
+      </c>
+      <c r="H38" s="14">
         <f t="shared" si="10"/>
-        <v>654934.84638825373</v>
-      </c>
-      <c r="I38" s="30">
+        <v>649109.41545580805</v>
+      </c>
+      <c r="I38" s="14">
         <f t="shared" si="11"/>
         <v>747961.52000000014</v>
       </c>
@@ -9227,39 +11591,39 @@
       <c r="T38" s="18"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="27">
+      <c r="A39" s="26">
         <f>股票账户月报!A39</f>
         <v>43373</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="20">
         <f t="shared" si="6"/>
-        <v>1.1420395847384779</v>
-      </c>
-      <c r="C39" s="29">
+        <v>1.1522888163234817</v>
+      </c>
+      <c r="C39" s="10">
         <f t="shared" si="7"/>
-        <v>654934.84638825373</v>
-      </c>
-      <c r="D39" s="29">
+        <v>649109.41545580805</v>
+      </c>
+      <c r="D39" s="10">
         <f t="shared" si="8"/>
         <v>747961.52000000014</v>
       </c>
-      <c r="E39" s="30">
-        <f>股票账户月报!E39+天天基金账户月报!E26</f>
+      <c r="E39" s="14">
+        <f>股票账户月报!E39+天天基金账户月报!E39</f>
         <v>2943.5399999999672</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="20">
         <f t="shared" si="9"/>
-        <v>1.1465339860002715</v>
-      </c>
-      <c r="G39" s="30">
-        <f>股票账户月报!G39+天天基金账户月报!G26</f>
+        <v>1.1568235525788986</v>
+      </c>
+      <c r="G39" s="14">
+        <f>股票账户月报!G39+天天基金账户月报!G39</f>
         <v>17053.98000000001</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="14">
         <f t="shared" si="10"/>
-        <v>669809.22447755351</v>
-      </c>
-      <c r="I39" s="30">
+        <v>663851.4908241576</v>
+      </c>
+      <c r="I39" s="14">
         <f t="shared" si="11"/>
         <v>767959.04000000004</v>
       </c>
@@ -9275,41 +11639,41 @@
       <c r="T39" s="18"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="27">
+      <c r="A40" s="26">
         <f>股票账户月报!A40</f>
         <v>43404</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="20">
         <f t="shared" si="6"/>
-        <v>1.1465339860002715</v>
-      </c>
-      <c r="C40" s="29">
+        <v>1.1568235525788986</v>
+      </c>
+      <c r="C40" s="10">
         <f t="shared" si="7"/>
-        <v>669809.22447755351</v>
-      </c>
-      <c r="D40" s="29">
+        <v>663851.4908241576</v>
+      </c>
+      <c r="D40" s="10">
         <f t="shared" si="8"/>
         <v>767959.04000000004</v>
       </c>
-      <c r="E40" s="30">
-        <f>股票账户月报!E40+天天基金账户月报!E27</f>
+      <c r="E40" s="14">
+        <f>股票账户月报!E40+天天基金账户月报!E40</f>
         <v>-41012.070000000022</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="20">
         <f t="shared" si="9"/>
-        <v>1.0853045067676002</v>
-      </c>
-      <c r="G40" s="30">
-        <f>股票账户月报!G40+天天基金账户月报!G27</f>
-        <v>8895.1699999999983</v>
-      </c>
-      <c r="H40" s="30">
+        <v>1.0950445695279087</v>
+      </c>
+      <c r="G40" s="14">
+        <f>股票账户月报!G40+天天基金账户月报!G40</f>
+        <v>8895.17</v>
+      </c>
+      <c r="H40" s="14">
         <f t="shared" si="10"/>
-        <v>678005.23761905683</v>
-      </c>
-      <c r="I40" s="30">
+        <v>671974.6031133997</v>
+      </c>
+      <c r="I40" s="14">
         <f t="shared" si="11"/>
-        <v>735842.14</v>
+        <v>735842.14000000013</v>
       </c>
       <c r="K40" s="17"/>
       <c r="L40" s="4"/>
@@ -9323,41 +11687,41 @@
       <c r="T40" s="18"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="27">
+      <c r="A41" s="26">
         <f>股票账户月报!A41</f>
         <v>43434</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="20">
         <f t="shared" si="6"/>
-        <v>1.0853045067676002</v>
-      </c>
-      <c r="C41" s="29">
+        <v>1.0950445695279087</v>
+      </c>
+      <c r="C41" s="10">
         <f t="shared" si="7"/>
-        <v>678005.23761905683</v>
-      </c>
-      <c r="D41" s="29">
+        <v>671974.6031133997</v>
+      </c>
+      <c r="D41" s="10">
         <f t="shared" si="8"/>
-        <v>735842.14</v>
-      </c>
-      <c r="E41" s="30">
-        <f>股票账户月报!E41+天天基金账户月报!E28</f>
-        <v>12995.550000000012</v>
-      </c>
-      <c r="F41" s="28">
+        <v>735842.14000000013</v>
+      </c>
+      <c r="E41" s="14">
+        <f>股票账户月报!E41+天天基金账户月报!E41</f>
+        <v>14293.460000000008</v>
+      </c>
+      <c r="F41" s="20">
         <f t="shared" si="9"/>
-        <v>1.1044718365741313</v>
-      </c>
-      <c r="G41" s="30">
-        <f>股票账户月报!G41+天天基金账户月报!G28</f>
-        <v>9000.7599999999966</v>
-      </c>
-      <c r="H41" s="30">
+        <v>1.1163154031781322</v>
+      </c>
+      <c r="G41" s="14">
+        <f>股票账户月报!G41+天天基金账户月报!G41</f>
+        <v>7702.85</v>
+      </c>
+      <c r="H41" s="14">
         <f t="shared" si="10"/>
-        <v>686154.61698930745</v>
-      </c>
-      <c r="I41" s="30">
+        <v>678874.84831119073</v>
+      </c>
+      <c r="I41" s="14">
         <f t="shared" si="11"/>
-        <v>757838.45000000007</v>
+        <v>757838.45000000019</v>
       </c>
       <c r="K41" s="17"/>
       <c r="L41" s="4"/>
@@ -9371,41 +11735,41 @@
       <c r="T41" s="18"/>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="27">
+      <c r="A42" s="26">
         <f>股票账户月报!A42</f>
         <v>43465</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="20">
         <f t="shared" si="6"/>
-        <v>1.1044718365741313</v>
-      </c>
-      <c r="C42" s="29">
+        <v>1.1163154031781322</v>
+      </c>
+      <c r="C42" s="10">
         <f t="shared" si="7"/>
-        <v>686154.61698930745</v>
-      </c>
-      <c r="D42" s="29">
+        <v>678874.84831119073</v>
+      </c>
+      <c r="D42" s="10">
         <f t="shared" si="8"/>
-        <v>757838.45000000007</v>
-      </c>
-      <c r="E42" s="30">
-        <f>股票账户月报!E42+天天基金账户月报!E29</f>
-        <v>-28220.869999999995</v>
-      </c>
-      <c r="F42" s="28">
+        <v>757838.45000000019</v>
+      </c>
+      <c r="E42" s="14">
+        <f>股票账户月报!E42+天天基金账户月报!E42</f>
+        <v>-28220.869999999966</v>
+      </c>
+      <c r="F42" s="20">
         <f t="shared" si="9"/>
-        <v>1.0633428121512878</v>
-      </c>
-      <c r="G42" s="30">
-        <f>股票账户月报!G42+天天基金账户月报!G29</f>
-        <v>-110391.78999999998</v>
-      </c>
-      <c r="H42" s="30">
+        <v>1.0747453404924929</v>
+      </c>
+      <c r="G42" s="14">
+        <f>股票账户月报!G42+天天基金账户月报!G42</f>
+        <v>-110391.79000000001</v>
+      </c>
+      <c r="H42" s="14">
         <f t="shared" si="10"/>
-        <v>582338.81202170509</v>
-      </c>
-      <c r="I42" s="30">
+        <v>576160.4788314274</v>
+      </c>
+      <c r="I42" s="14">
         <f t="shared" si="11"/>
-        <v>619225.79</v>
+        <v>619225.79000000015</v>
       </c>
       <c r="K42" s="17"/>
       <c r="L42" s="4"/>
@@ -9419,41 +11783,41 @@
       <c r="T42" s="18"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="27">
+      <c r="A43" s="26">
         <f>股票账户月报!A43</f>
         <v>43496</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="20">
         <f t="shared" si="6"/>
-        <v>1.0633428121512878</v>
-      </c>
-      <c r="C43" s="29">
+        <v>1.0747453404924929</v>
+      </c>
+      <c r="C43" s="10">
         <f t="shared" si="7"/>
-        <v>582338.81202170509</v>
-      </c>
-      <c r="D43" s="29">
+        <v>576160.4788314274</v>
+      </c>
+      <c r="D43" s="10">
         <f t="shared" si="8"/>
-        <v>619225.79</v>
-      </c>
-      <c r="E43" s="30">
-        <f>股票账户月报!E43+天天基金账户月报!E30</f>
-        <v>12571.149999999987</v>
-      </c>
-      <c r="F43" s="28">
+        <v>619225.79000000015</v>
+      </c>
+      <c r="E43" s="14">
+        <f>股票账户月报!E43+天天基金账户月报!E43</f>
+        <v>12571.14999999998</v>
+      </c>
+      <c r="F43" s="20">
         <f t="shared" si="9"/>
-        <v>1.0849301591398162</v>
-      </c>
-      <c r="G43" s="30">
-        <f>股票账户月报!G43+天天基金账户月报!G30</f>
-        <v>29786.399999999991</v>
-      </c>
-      <c r="H43" s="30">
+        <v>1.096564174761544</v>
+      </c>
+      <c r="G43" s="14">
+        <f>股票账户月报!G43+天天基金账户月报!G43</f>
+        <v>29786.399999999998</v>
+      </c>
+      <c r="H43" s="14">
         <f t="shared" si="10"/>
-        <v>609793.48248972499</v>
-      </c>
-      <c r="I43" s="30">
+        <v>603323.86852221063</v>
+      </c>
+      <c r="I43" s="14">
         <f t="shared" si="11"/>
-        <v>661583.34000000008</v>
+        <v>661583.3400000002</v>
       </c>
       <c r="K43" s="17"/>
       <c r="L43" s="4"/>
@@ -9467,39 +11831,39 @@
       <c r="T43" s="18"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="27">
+      <c r="A44" s="26">
         <f>股票账户月报!A44</f>
         <v>43524</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="20">
         <f t="shared" si="6"/>
-        <v>1.0849301591398162</v>
-      </c>
-      <c r="C44" s="29">
+        <v>1.096564174761544</v>
+      </c>
+      <c r="C44" s="10">
         <f t="shared" si="7"/>
-        <v>609793.48248972499</v>
-      </c>
-      <c r="D44" s="29">
+        <v>603323.86852221063</v>
+      </c>
+      <c r="D44" s="10">
         <f t="shared" si="8"/>
-        <v>661583.34000000008</v>
-      </c>
-      <c r="E44" s="30">
-        <f>股票账户月报!E44+天天基金账户月报!E31</f>
+        <v>661583.3400000002</v>
+      </c>
+      <c r="E44" s="14">
+        <f>股票账户月报!E44+天天基金账户月报!E44</f>
         <v>92738.709999999992</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="20">
         <f t="shared" si="9"/>
-        <v>1.2370123191874396</v>
-      </c>
-      <c r="G44" s="30">
-        <f>股票账户月报!G44+天天基金账户月报!G31</f>
-        <v>23760.289999999994</v>
-      </c>
-      <c r="H44" s="30">
+        <v>1.250277155199655</v>
+      </c>
+      <c r="G44" s="14">
+        <f>股票账户月报!G44+天天基金账户月报!G44</f>
+        <v>23760.29</v>
+      </c>
+      <c r="H44" s="14">
         <f t="shared" si="10"/>
-        <v>629001.28635024559</v>
-      </c>
-      <c r="I44" s="30">
+        <v>622327.88687221054</v>
+      </c>
+      <c r="I44" s="14">
         <f t="shared" si="11"/>
         <v>778082.34000000008</v>
       </c>
@@ -9515,39 +11879,39 @@
       <c r="T44" s="18"/>
     </row>
     <row r="45" spans="1:20">
-      <c r="A45" s="27">
+      <c r="A45" s="26">
         <f>股票账户月报!A45</f>
         <v>43555</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="20">
         <f t="shared" si="6"/>
-        <v>1.2370123191874396</v>
-      </c>
-      <c r="C45" s="29">
+        <v>1.250277155199655</v>
+      </c>
+      <c r="C45" s="10">
         <f t="shared" si="7"/>
-        <v>629001.28635024559</v>
-      </c>
-      <c r="D45" s="29">
+        <v>622327.88687221054</v>
+      </c>
+      <c r="D45" s="10">
         <f t="shared" si="8"/>
         <v>778082.34000000008</v>
       </c>
-      <c r="E45" s="30">
-        <f>股票账户月报!E45+天天基金账户月报!E32</f>
+      <c r="E45" s="14">
+        <f>股票账户月报!E45+天天基金账户月报!E45</f>
         <v>54579.140000000029</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="20">
         <f t="shared" si="9"/>
-        <v>1.3237834294926241</v>
-      </c>
-      <c r="G45" s="30">
-        <f>股票账户月报!G45+天天基金账户月报!G32</f>
-        <v>9664.8599999999969</v>
-      </c>
-      <c r="H45" s="30">
+        <v>1.3379787368760154</v>
+      </c>
+      <c r="G45" s="14">
+        <f>股票账户月报!G45+天天基金账户月报!G45</f>
+        <v>9664.8600000000042</v>
+      </c>
+      <c r="H45" s="14">
         <f t="shared" si="10"/>
-        <v>636302.22378810449</v>
-      </c>
-      <c r="I45" s="30">
+        <v>629551.36489441444</v>
+      </c>
+      <c r="I45" s="14">
         <f t="shared" si="11"/>
         <v>842326.34000000008</v>
       </c>
@@ -9563,41 +11927,41 @@
       <c r="T45" s="18"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="27">
+      <c r="A46" s="26">
         <f>股票账户月报!A46</f>
         <v>43585</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="20">
         <f t="shared" si="6"/>
-        <v>1.3237834294926241</v>
-      </c>
-      <c r="C46" s="29">
+        <v>1.3379787368760154</v>
+      </c>
+      <c r="C46" s="10">
         <f t="shared" si="7"/>
-        <v>636302.22378810449</v>
-      </c>
-      <c r="D46" s="29">
+        <v>629551.36489441444</v>
+      </c>
+      <c r="D46" s="10">
         <f t="shared" si="8"/>
         <v>842326.34000000008</v>
       </c>
-      <c r="E46" s="30">
-        <f>股票账户月报!E46+天天基金账户月报!E33</f>
-        <v>33202.919999999969</v>
-      </c>
-      <c r="F46" s="28">
+      <c r="E46" s="14">
+        <f>股票账户月报!E46+天天基金账户月报!E46</f>
+        <v>27401.779999999962</v>
+      </c>
+      <c r="F46" s="20">
         <f t="shared" si="9"/>
-        <v>1.375964482392821</v>
-      </c>
-      <c r="G46" s="30">
-        <f>股票账户月报!G46+天天基金账户月报!G33</f>
-        <v>12895.12</v>
-      </c>
-      <c r="H46" s="30">
+        <v>1.3815046213836213</v>
+      </c>
+      <c r="G46" s="14">
+        <f>股票账户月报!G46+天天基金账户月报!G46</f>
+        <v>12902.94</v>
+      </c>
+      <c r="H46" s="14">
         <f t="shared" si="10"/>
-        <v>645673.91918068845</v>
-      </c>
-      <c r="I46" s="30">
+        <v>638891.13821133412</v>
+      </c>
+      <c r="I46" s="14">
         <f t="shared" si="11"/>
-        <v>888424.38000000012</v>
+        <v>882631.06</v>
       </c>
       <c r="J46" t="s">
         <v>9</v>
@@ -9614,10 +11978,10 @@
       <c r="T46" s="18"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="27"/>
+      <c r="A47" s="26"/>
       <c r="J47" s="16">
         <f>F46^(1/YEARFRAC(A46,A2))</f>
-        <v>1.0909427741402815</v>
+        <v>1.0921389887918485</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -10165,6 +12529,803 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A70B20-9BA1-294F-BAF0-6C4C640036CD}">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>42247</v>
+      </c>
+      <c r="B2" s="6">
+        <f>股票账户月报!F2</f>
+        <v>0.97196400000000005</v>
+      </c>
+      <c r="C2" s="6">
+        <f>天天基金账户月报!F2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <f>整体情况!F2</f>
+        <v>0.97196400000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>42277</v>
+      </c>
+      <c r="B3" s="6">
+        <f>股票账户月报!F3</f>
+        <v>1.0180188000000001</v>
+      </c>
+      <c r="C3" s="6">
+        <f>天天基金账户月报!F3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <f>整体情况!F3</f>
+        <v>1.0180188000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>42308</v>
+      </c>
+      <c r="B4" s="6">
+        <f>股票账户月报!F4</f>
+        <v>1.1406098424283844</v>
+      </c>
+      <c r="C4" s="6">
+        <f>天天基金账户月报!F4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <f>整体情况!F4</f>
+        <v>1.1406098424283844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>42338</v>
+      </c>
+      <c r="B5" s="6">
+        <f>股票账户月报!F5</f>
+        <v>1.1912039832235848</v>
+      </c>
+      <c r="C5" s="6">
+        <f>天天基金账户月报!F5</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <f>整体情况!F5</f>
+        <v>1.1912039832235848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>42369</v>
+      </c>
+      <c r="B6" s="6">
+        <f>股票账户月报!F6</f>
+        <v>1.2940334765265067</v>
+      </c>
+      <c r="C6" s="6">
+        <f>天天基金账户月报!F6</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <f>整体情况!F6</f>
+        <v>1.2940334765265067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>42400</v>
+      </c>
+      <c r="B7" s="6">
+        <f>股票账户月报!F7</f>
+        <v>1.1305054433595978</v>
+      </c>
+      <c r="C7" s="6">
+        <f>天天基金账户月报!F7</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <f>整体情况!F7</f>
+        <v>1.1305054433595978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>42429</v>
+      </c>
+      <c r="B8" s="6">
+        <f>股票账户月报!F8</f>
+        <v>1.1327706531764805</v>
+      </c>
+      <c r="C8" s="6">
+        <f>天天基金账户月报!F8</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <f>整体情况!F8</f>
+        <v>1.1327706531764805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>42460</v>
+      </c>
+      <c r="B9" s="6">
+        <f>股票账户月报!F9</f>
+        <v>1.1340288563828609</v>
+      </c>
+      <c r="C9" s="6">
+        <f>天天基金账户月报!F9</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <f>整体情况!F9</f>
+        <v>1.1340288563828609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>42490</v>
+      </c>
+      <c r="B10" s="6">
+        <f>股票账户月报!F10</f>
+        <v>1.1397162234820082</v>
+      </c>
+      <c r="C10" s="6">
+        <f>天天基金账户月报!F10</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <f>整体情况!F10</f>
+        <v>1.1397162234820082</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>42521</v>
+      </c>
+      <c r="B11" s="6">
+        <f>股票账户月报!F11</f>
+        <v>1.1452223088600362</v>
+      </c>
+      <c r="C11" s="6">
+        <f>天天基金账户月报!F11</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <f>整体情况!F11</f>
+        <v>1.1452223088600362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>42551</v>
+      </c>
+      <c r="B12" s="6">
+        <f>股票账户月报!F12</f>
+        <v>1.1624499499759708</v>
+      </c>
+      <c r="C12" s="6">
+        <f>天天基金账户月报!F12</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <f>整体情况!F12</f>
+        <v>1.1624499499759708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>42582</v>
+      </c>
+      <c r="B13" s="6">
+        <f>股票账户月报!F13</f>
+        <v>1.1647708308373783</v>
+      </c>
+      <c r="C13" s="6">
+        <f>天天基金账户月报!F13</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <f>整体情况!F13</f>
+        <v>1.1647708308373783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>42613</v>
+      </c>
+      <c r="B14" s="6">
+        <f>股票账户月报!F14</f>
+        <v>1.1758948062974202</v>
+      </c>
+      <c r="C14" s="6">
+        <f>天天基金账户月报!F14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <f>整体情况!F14</f>
+        <v>1.1758948062974202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>42643</v>
+      </c>
+      <c r="B15" s="6">
+        <f>股票账户月报!F15</f>
+        <v>1.1795662471408337</v>
+      </c>
+      <c r="C15" s="6">
+        <f>天天基金账户月报!F15</f>
+        <v>1.0067411764705883</v>
+      </c>
+      <c r="D15" s="6">
+        <f>整体情况!F15</f>
+        <v>1.1796194712364487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>42674</v>
+      </c>
+      <c r="B16" s="6">
+        <f>股票账户月报!F16</f>
+        <v>1.1831462642214043</v>
+      </c>
+      <c r="C16" s="6">
+        <f>天天基金账户月报!F16</f>
+        <v>1.0126999999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <f>整体情况!F16</f>
+        <v>1.1832465354451678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
+        <v>42704</v>
+      </c>
+      <c r="B17" s="6">
+        <f>股票账户月报!F17</f>
+        <v>1.2116214911486918</v>
+      </c>
+      <c r="C17" s="6">
+        <f>天天基金账户月报!F17</f>
+        <v>0.99582058823529407</v>
+      </c>
+      <c r="D17" s="6">
+        <f>整体情况!F17</f>
+        <v>1.2115928737848121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>42735</v>
+      </c>
+      <c r="B18" s="6">
+        <f>股票账户月报!F18</f>
+        <v>1.2112993472574773</v>
+      </c>
+      <c r="C18" s="6">
+        <f>天天基金账户月报!F18</f>
+        <v>1.06135</v>
+      </c>
+      <c r="D18" s="6">
+        <f>整体情况!F18</f>
+        <v>1.2117552290450337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
+        <v>42766</v>
+      </c>
+      <c r="B19" s="6">
+        <f>股票账户月报!F19</f>
+        <v>1.2265787715587708</v>
+      </c>
+      <c r="C19" s="6">
+        <f>天天基金账户月报!F19</f>
+        <v>1.1255264705882355</v>
+      </c>
+      <c r="D19" s="6">
+        <f>整体情况!F19</f>
+        <v>1.2275088425055747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>42794</v>
+      </c>
+      <c r="B20" s="6">
+        <f>股票账户月报!F20</f>
+        <v>1.2229715628068876</v>
+      </c>
+      <c r="C20" s="6">
+        <f>天天基金账户月报!F20</f>
+        <v>1.1481695110773138</v>
+      </c>
+      <c r="D20" s="6">
+        <f>整体情况!F20</f>
+        <v>1.2248118029693129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>42825</v>
+      </c>
+      <c r="B21" s="6">
+        <f>股票账户月报!F21</f>
+        <v>1.2157523401012986</v>
+      </c>
+      <c r="C21" s="6">
+        <f>天天基金账户月报!F21</f>
+        <v>1.1640470295908054</v>
+      </c>
+      <c r="D21" s="6">
+        <f>整体情况!F21</f>
+        <v>1.2185037521208604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>42855</v>
+      </c>
+      <c r="B22" s="6">
+        <f>股票账户月报!F22</f>
+        <v>1.1899440149469624</v>
+      </c>
+      <c r="C22" s="6">
+        <f>天天基金账户月报!F22</f>
+        <v>1.1555124846088873</v>
+      </c>
+      <c r="D22" s="6">
+        <f>整体情况!F22</f>
+        <v>1.1931750961131602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B23" s="6">
+        <f>股票账户月报!F23</f>
+        <v>1.1408038068218578</v>
+      </c>
+      <c r="C23" s="6">
+        <f>天天基金账户月报!F23</f>
+        <v>1.1576120743899543</v>
+      </c>
+      <c r="D23" s="6">
+        <f>整体情况!F23</f>
+        <v>1.1471264470681037</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>42916</v>
+      </c>
+      <c r="B24" s="6">
+        <f>股票账户月报!F24</f>
+        <v>1.0724720499558409</v>
+      </c>
+      <c r="C24" s="6">
+        <f>天天基金账户月报!F24</f>
+        <v>1.2022190622483342</v>
+      </c>
+      <c r="D24" s="6">
+        <f>整体情况!F24</f>
+        <v>1.0892435136005287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B25" s="6">
+        <f>股票账户月报!F25</f>
+        <v>1.0947254189770661</v>
+      </c>
+      <c r="C25" s="6">
+        <f>天天基金账户月报!F25</f>
+        <v>1.185087252165355</v>
+      </c>
+      <c r="D25" s="6">
+        <f>整体情况!F25</f>
+        <v>1.1078369280580622</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B26" s="6">
+        <f>股票账户月报!F26</f>
+        <v>0.99193337090728328</v>
+      </c>
+      <c r="C26" s="6">
+        <f>天天基金账户月报!F26</f>
+        <v>1.1984562038046582</v>
+      </c>
+      <c r="D26" s="6">
+        <f>整体情况!F26</f>
+        <v>1.0154590430177031</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3">
+        <v>43008</v>
+      </c>
+      <c r="B27" s="6">
+        <f>股票账户月报!F27</f>
+        <v>1.1108588941075022</v>
+      </c>
+      <c r="C27" s="6">
+        <f>天天基金账户月报!F27</f>
+        <v>1.2151410098772506</v>
+      </c>
+      <c r="D27" s="6">
+        <f>整体情况!F27</f>
+        <v>1.1260748819881037</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3">
+        <v>43039</v>
+      </c>
+      <c r="B28" s="6">
+        <f>股票账户月报!F28</f>
+        <v>1.0988536594384761</v>
+      </c>
+      <c r="C28" s="6">
+        <f>天天基金账户月报!F28</f>
+        <v>1.2496681513415246</v>
+      </c>
+      <c r="D28" s="6">
+        <f>整体情况!F28</f>
+        <v>1.1183101858245159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>43069</v>
+      </c>
+      <c r="B29" s="6">
+        <f>股票账户月报!F29</f>
+        <v>1.1256800527994568</v>
+      </c>
+      <c r="C29" s="6">
+        <f>天天基金账户月报!F29</f>
+        <v>1.2129789231584751</v>
+      </c>
+      <c r="D29" s="6">
+        <f>整体情况!F29</f>
+        <v>1.1394620014656454</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3">
+        <v>43100</v>
+      </c>
+      <c r="B30" s="6">
+        <f>股票账户月报!F30</f>
+        <v>1.1981637534322211</v>
+      </c>
+      <c r="C30" s="6">
+        <f>天天基金账户月报!F30</f>
+        <v>1.2320869979841791</v>
+      </c>
+      <c r="D30" s="6">
+        <f>整体情况!F30</f>
+        <v>1.2074498669393425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>43131</v>
+      </c>
+      <c r="B31" s="6">
+        <f>股票账户月报!F31</f>
+        <v>1.1713762864504365</v>
+      </c>
+      <c r="C31" s="6">
+        <f>天天基金账户月报!F31</f>
+        <v>1.2436585792232027</v>
+      </c>
+      <c r="D31" s="6">
+        <f>整体情况!F31</f>
+        <v>1.1841308494496219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>43159</v>
+      </c>
+      <c r="B32" s="6">
+        <f>股票账户月报!F32</f>
+        <v>1.1280324541590168</v>
+      </c>
+      <c r="C32" s="6">
+        <f>天天基金账户月报!F32</f>
+        <v>1.2158605696783535</v>
+      </c>
+      <c r="D32" s="6">
+        <f>整体情况!F32</f>
+        <v>1.141622461183426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3">
+        <v>43190</v>
+      </c>
+      <c r="B33" s="6">
+        <f>股票账户月报!F33</f>
+        <v>1.1435739502182394</v>
+      </c>
+      <c r="C33" s="6">
+        <f>天天基金账户月报!F33</f>
+        <v>1.2521665769930275</v>
+      </c>
+      <c r="D33" s="6">
+        <f>整体情况!F33</f>
+        <v>1.1590256621240396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B34" s="6">
+        <f>股票账户月报!F34</f>
+        <v>1.2039833748901547</v>
+      </c>
+      <c r="C34" s="6">
+        <f>天天基金账户月报!F34</f>
+        <v>1.2427866512843635</v>
+      </c>
+      <c r="D34" s="6">
+        <f>整体情况!F34</f>
+        <v>1.2143609035372187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3">
+        <v>43251</v>
+      </c>
+      <c r="B35" s="6">
+        <f>股票账户月报!F35</f>
+        <v>1.207827009768047</v>
+      </c>
+      <c r="C35" s="6">
+        <f>天天基金账户月报!F35</f>
+        <v>1.283645667765114</v>
+      </c>
+      <c r="D35" s="6">
+        <f>整体情况!F35</f>
+        <v>1.2219740715283867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3">
+        <v>43281</v>
+      </c>
+      <c r="B36" s="6">
+        <f>股票账户月报!F36</f>
+        <v>1.1769955435304913</v>
+      </c>
+      <c r="C36" s="6">
+        <f>天天基金账户月报!F36</f>
+        <v>1.223868829928723</v>
+      </c>
+      <c r="D36" s="6">
+        <f>整体情况!F36</f>
+        <v>1.1870612166386123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3">
+        <v>43312</v>
+      </c>
+      <c r="B37" s="6">
+        <f>股票账户月报!F37</f>
+        <v>1.1756751087364368</v>
+      </c>
+      <c r="C37" s="6">
+        <f>天天基金账户月报!F37</f>
+        <v>1.244678533757956</v>
+      </c>
+      <c r="D37" s="6">
+        <f>整体情况!F37</f>
+        <v>1.1897406346044457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>43343</v>
+      </c>
+      <c r="B38" s="6">
+        <f>股票账户月报!F38</f>
+        <v>1.1291201217829563</v>
+      </c>
+      <c r="C38" s="6">
+        <f>天天基金账户月报!F38</f>
+        <v>1.2211605348857446</v>
+      </c>
+      <c r="D38" s="6">
+        <f>整体情况!F38</f>
+        <v>1.1522888163234817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3">
+        <v>43373</v>
+      </c>
+      <c r="B39" s="6">
+        <f>股票账户月报!F39</f>
+        <v>1.1310564032909523</v>
+      </c>
+      <c r="C39" s="6">
+        <f>天天基金账户月报!F39</f>
+        <v>1.2300169898336999</v>
+      </c>
+      <c r="D39" s="6">
+        <f>整体情况!F39</f>
+        <v>1.1568235525788986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>43404</v>
+      </c>
+      <c r="B40" s="6">
+        <f>股票账户月报!F40</f>
+        <v>1.0255377574187194</v>
+      </c>
+      <c r="C40" s="6">
+        <f>天天基金账户月报!F40</f>
+        <v>1.1989532013246964</v>
+      </c>
+      <c r="D40" s="6">
+        <f>整体情况!F40</f>
+        <v>1.0950445695279087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>43434</v>
+      </c>
+      <c r="B41" s="6">
+        <f>股票账户月报!F41</f>
+        <v>1.0596457490092368</v>
+      </c>
+      <c r="C41" s="6">
+        <f>天天基金账户月报!F41</f>
+        <v>1.2107501916461314</v>
+      </c>
+      <c r="D41" s="6">
+        <f>整体情况!F41</f>
+        <v>1.1163154031781322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>43465</v>
+      </c>
+      <c r="B42" s="6">
+        <f>股票账户月报!F42</f>
+        <v>1.0057599430324129</v>
+      </c>
+      <c r="C42" s="6">
+        <f>天天基金账户月报!F42</f>
+        <v>1.1773092036427468</v>
+      </c>
+      <c r="D42" s="6">
+        <f>整体情况!F42</f>
+        <v>1.0747453404924929</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>43496</v>
+      </c>
+      <c r="B43" s="6">
+        <f>股票账户月报!F43</f>
+        <v>1.0179647195759847</v>
+      </c>
+      <c r="C43" s="6">
+        <f>天天基金账户月报!F43</f>
+        <v>1.2095623763326524</v>
+      </c>
+      <c r="D43" s="6">
+        <f>整体情况!F43</f>
+        <v>1.096564174761544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>43524</v>
+      </c>
+      <c r="B44" s="6">
+        <f>股票账户月报!F44</f>
+        <v>1.2225385618472977</v>
+      </c>
+      <c r="C44" s="6">
+        <f>天天基金账户月报!F44</f>
+        <v>1.3180123263427297</v>
+      </c>
+      <c r="D44" s="6">
+        <f>整体情况!F44</f>
+        <v>1.250277155199655</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>43555</v>
+      </c>
+      <c r="B45" s="6">
+        <f>股票账户月报!F45</f>
+        <v>1.3353189494986151</v>
+      </c>
+      <c r="C45" s="6">
+        <f>天天基金账户月报!F45</f>
+        <v>1.3851801219555058</v>
+      </c>
+      <c r="D45" s="6">
+        <f>整体情况!F45</f>
+        <v>1.3379787368760154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>43585</v>
+      </c>
+      <c r="B46" s="6">
+        <f>股票账户月报!F46</f>
+        <v>1.3971944412821813</v>
+      </c>
+      <c r="C46" s="6">
+        <f>天天基金账户月报!F46</f>
+        <v>1.4141984196929014</v>
+      </c>
+      <c r="D46" s="6">
+        <f>整体情况!F46</f>
+        <v>1.3815046213836213</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Portfolio/投资组合基金模式.xlsx
+++ b/Portfolio/投资组合基金模式.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B789FE18-077E-1E4F-A066-851E18CA8CA1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6C479-80A8-478F-924C-3E64E49B9765}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-8860" windowWidth="21600" windowHeight="37940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票账户月报" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -94,7 +99,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,7 +365,7 @@
             <c:numRef>
               <c:f>股票账户月报!$A$2:$A$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -670,7 +675,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -901,7 +906,7 @@
             <c:numRef>
               <c:f>天天基金账户月报!$A$2:$A$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -1211,7 +1216,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1442,7 +1447,7 @@
             <c:numRef>
               <c:f>整体情况!$A$2:$A$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -1752,7 +1757,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1983,7 +1988,7 @@
             <c:numRef>
               <c:f>综合情况!$A$2:$A$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -2304,7 +2309,7 @@
             <c:numRef>
               <c:f>综合情况!$A$2:$A$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -2625,7 +2630,7 @@
             <c:numRef>
               <c:f>综合情况!$A$2:$A$46</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>42247</c:v>
@@ -2935,7 +2940,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5770,25 +5775,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F46"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -5818,7 +5823,7 @@
       </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>42247</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>24299.100000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>42277</v>
       </c>
@@ -5885,7 +5890,7 @@
         <v>45450.47</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>42308</v>
       </c>
@@ -5920,7 +5925,7 @@
         <v>90923.67</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42338</v>
       </c>
@@ -5955,7 +5960,7 @@
         <v>224156.78000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>42369</v>
       </c>
@@ -5990,7 +5995,7 @@
         <v>258506.89</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>42400</v>
       </c>
@@ -6025,7 +6030,7 @@
         <v>355839.17000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42429</v>
       </c>
@@ -6060,7 +6065,7 @@
         <v>406552.17000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42460</v>
       </c>
@@ -6095,7 +6100,7 @@
         <v>204203.74</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42490</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>335227.86000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42521</v>
       </c>
@@ -6165,7 +6170,7 @@
         <v>348847.38</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42551</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>480195.11</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42582</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>494653.83999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42613</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>506377.9599999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42643</v>
       </c>
@@ -6305,7 +6310,7 @@
         <v>507958.99999999988</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42674</v>
       </c>
@@ -6340,7 +6345,7 @@
         <v>526500.66999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>42704</v>
       </c>
@@ -6375,7 +6380,7 @@
         <v>557172.15999999992</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>42735</v>
       </c>
@@ -6410,7 +6415,7 @@
         <v>557424.0199999999</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42766</v>
       </c>
@@ -6445,7 +6450,7 @@
         <v>564455.4099999998</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>42794</v>
       </c>
@@ -6480,7 +6485,7 @@
         <v>568995.41999999981</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42825</v>
       </c>
@@ -6515,7 +6520,7 @@
         <v>565636.62999999977</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42855</v>
       </c>
@@ -6550,7 +6555,7 @@
         <v>541749.13999999978</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42886</v>
       </c>
@@ -6585,7 +6590,7 @@
         <v>504097.93999999977</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42916</v>
       </c>
@@ -6620,7 +6625,7 @@
         <v>473903.5299999998</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>42947</v>
       </c>
@@ -6655,7 +6660,7 @@
         <v>483736.83999999979</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42978</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>463315.12999999977</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43008</v>
       </c>
@@ -6725,7 +6730,7 @@
         <v>518863.20999999973</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43039</v>
       </c>
@@ -6760,7 +6765,7 @@
         <v>513255.76999999973</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43069</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>533385.91999999969</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43100</v>
       </c>
@@ -6830,7 +6835,7 @@
         <v>572231.18999999971</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43131</v>
       </c>
@@ -6865,7 +6870,7 @@
         <v>669437.75999999978</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43159</v>
       </c>
@@ -6900,7 +6905,7 @@
         <v>654666.89999999979</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43190</v>
       </c>
@@ -6935,7 +6940,7 @@
         <v>663686.58999999973</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43220</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>694028.90999999968</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43251</v>
       </c>
@@ -7005,7 +7010,7 @@
         <v>668372.54999999958</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43281</v>
       </c>
@@ -7040,7 +7045,7 @@
         <v>621311.40999999957</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43312</v>
       </c>
@@ -7075,7 +7080,7 @@
         <v>466977.8799999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43343</v>
       </c>
@@ -7110,7 +7115,7 @@
         <v>452486.24999999959</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43373</v>
       </c>
@@ -7145,7 +7150,7 @@
         <v>316467.03999999951</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43404</v>
       </c>
@@ -7180,7 +7185,7 @@
         <v>299743.15999999951</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43434</v>
       </c>
@@ -7215,7 +7220,7 @@
         <v>309712.20999999956</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43465</v>
       </c>
@@ -7250,7 +7255,7 @@
         <v>293962.51999999949</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43496</v>
       </c>
@@ -7285,7 +7290,7 @@
         <v>297529.71999999951</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43524</v>
       </c>
@@ -7320,7 +7325,7 @@
         <v>357322.35999999958</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43555</v>
       </c>
@@ -7355,7 +7360,7 @@
         <v>381454.6999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43585</v>
       </c>
@@ -7393,13 +7398,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J47" s="16">
         <f>F46^(1/YEARFRAC(A46,A2))</f>
         <v>1.0955078762581838</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
@@ -7410,7 +7415,7 @@
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -7421,7 +7426,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -7432,7 +7437,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
@@ -7443,7 +7448,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -7454,7 +7459,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7465,7 +7470,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -7476,7 +7481,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -7487,7 +7492,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -7498,7 +7503,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
@@ -7509,7 +7514,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
@@ -7520,7 +7525,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="13"/>
       <c r="C67" s="14"/>
@@ -7531,7 +7536,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="13"/>
       <c r="C68" s="14"/>
@@ -7542,7 +7547,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="13"/>
       <c r="C69" s="14"/>
@@ -7553,7 +7558,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="13"/>
       <c r="C70" s="14"/>
@@ -7564,7 +7569,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="13"/>
       <c r="C71" s="14"/>
@@ -7575,7 +7580,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="13"/>
       <c r="C72" s="14"/>
@@ -7586,7 +7591,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="13"/>
       <c r="C73" s="14"/>
@@ -7597,7 +7602,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
@@ -7608,7 +7613,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="13"/>
       <c r="C75" s="14"/>
@@ -7619,7 +7624,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="13"/>
       <c r="C76" s="14"/>
@@ -7630,7 +7635,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="13"/>
       <c r="C77" s="14"/>
@@ -7641,7 +7646,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="13"/>
       <c r="C78" s="14"/>
@@ -7652,7 +7657,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="13"/>
       <c r="C79" s="14"/>
@@ -7663,7 +7668,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="13"/>
       <c r="C80" s="14"/>
@@ -7674,7 +7679,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="13"/>
       <c r="C81" s="14"/>
@@ -7685,7 +7690,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="13"/>
       <c r="C82" s="14"/>
@@ -7696,7 +7701,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="13"/>
       <c r="C83" s="14"/>
@@ -7707,7 +7712,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="13"/>
       <c r="C84" s="14"/>
@@ -7718,7 +7723,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
@@ -7729,7 +7734,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -7740,7 +7745,7 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -7751,7 +7756,7 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14"/>
@@ -7762,7 +7767,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14"/>
@@ -7773,7 +7778,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14"/>
@@ -7784,7 +7789,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14"/>
@@ -7795,7 +7800,7 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14"/>
@@ -7806,7 +7811,7 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14"/>
@@ -7817,7 +7822,7 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="13"/>
       <c r="C94" s="14"/>
@@ -7828,7 +7833,7 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14"/>
@@ -7839,7 +7844,7 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14"/>
@@ -7850,7 +7855,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14"/>
@@ -7861,7 +7866,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="13"/>
       <c r="C98" s="14"/>
@@ -7872,7 +7877,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="13"/>
       <c r="C99" s="14"/>
@@ -7883,7 +7888,7 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="13"/>
       <c r="C100" s="14"/>
@@ -7894,7 +7899,7 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="13"/>
       <c r="C101" s="14"/>
@@ -7918,18 +7923,18 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F46"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7961,7 +7966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>42247</v>
       </c>
@@ -7993,7 +7998,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="30">
         <v>42277</v>
       </c>
@@ -8009,7 +8014,7 @@
         <v>3400</v>
       </c>
       <c r="E3" s="28">
-        <f t="shared" ref="E2:E14" si="2">I3-D3-G3</f>
+        <f t="shared" ref="E3:E14" si="2">I3-D3-G3</f>
         <v>0</v>
       </c>
       <c r="F3" s="33">
@@ -8028,7 +8033,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="30">
         <v>42308</v>
       </c>
@@ -8037,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="29">
-        <f t="shared" ref="C4:D14" si="4">H3</f>
+        <f t="shared" ref="C4:C14" si="4">H3</f>
         <v>3400</v>
       </c>
       <c r="D4" s="29">
@@ -8059,11 +8064,11 @@
         <v>3400</v>
       </c>
       <c r="I4" s="29">
-        <f t="shared" ref="I3:I14" si="5">D4</f>
+        <f t="shared" ref="I4:I14" si="5">D4</f>
         <v>3400</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="30">
         <v>42338</v>
       </c>
@@ -8098,7 +8103,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="30">
         <v>42369</v>
       </c>
@@ -8133,7 +8138,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>42400</v>
       </c>
@@ -8168,7 +8173,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>42429</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>42460</v>
       </c>
@@ -8238,7 +8243,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>42490</v>
       </c>
@@ -8273,7 +8278,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>42521</v>
       </c>
@@ -8308,7 +8313,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>42551</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>42582</v>
       </c>
@@ -8378,7 +8383,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>42613</v>
       </c>
@@ -8413,7 +8418,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>42643</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v>3422.92</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>42674</v>
       </c>
@@ -8480,7 +8485,7 @@
         <v>3443.18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>42704</v>
       </c>
@@ -8515,7 +8520,7 @@
         <v>3385.79</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>42735</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>3608.59</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42766</v>
       </c>
@@ -8585,7 +8590,7 @@
         <v>19146.79</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>42794</v>
       </c>
@@ -8620,7 +8625,7 @@
         <v>23491.98</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42825</v>
       </c>
@@ -8655,7 +8660,7 @@
         <v>23816.84</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42855</v>
       </c>
@@ -8690,7 +8695,7 @@
         <v>39482.22</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42886</v>
       </c>
@@ -8725,7 +8730,7 @@
         <v>55393.96</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42916</v>
       </c>
@@ -8760,7 +8765,7 @@
         <v>57528.49</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>42947</v>
       </c>
@@ -8795,7 +8800,7 @@
         <v>56708.7</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42978</v>
       </c>
@@ -8830,7 +8835,7 @@
         <v>57348.43</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43008</v>
       </c>
@@ -8865,7 +8870,7 @@
         <v>58146.83</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43039</v>
       </c>
@@ -8900,7 +8905,7 @@
         <v>59799.02</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43069</v>
       </c>
@@ -8935,7 +8940,7 @@
         <v>62003.37</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43100</v>
       </c>
@@ -8970,7 +8975,7 @@
         <v>62980.11</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43131</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>63571.61</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43159</v>
       </c>
@@ -9040,7 +9045,7 @@
         <v>62150.67</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43190</v>
       </c>
@@ -9078,7 +9083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43220</v>
       </c>
@@ -9117,7 +9122,7 @@
         <v>1.1435681997786131</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43251</v>
       </c>
@@ -9152,7 +9157,7 @@
         <v>107667.02</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43281</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>141853.18</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43312</v>
       </c>
@@ -9222,7 +9227,7 @@
         <v>309808.43</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43343</v>
       </c>
@@ -9257,7 +9262,7 @@
         <v>298875.27</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43373</v>
       </c>
@@ -9292,7 +9297,7 @@
         <v>454892</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43404</v>
       </c>
@@ -9327,7 +9332,7 @@
         <v>439498.98</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43434</v>
       </c>
@@ -9362,7 +9367,7 @@
         <v>451526.24</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43465</v>
       </c>
@@ -9397,7 +9402,7 @@
         <v>328663.27</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43496</v>
       </c>
@@ -9432,7 +9437,7 @@
         <v>367453.62</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43524</v>
       </c>
@@ -9467,7 +9472,7 @@
         <v>424159.98</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43555</v>
       </c>
@@ -9502,7 +9507,7 @@
         <v>464271.64</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43585</v>
       </c>
@@ -9537,7 +9542,7 @@
         <v>486900.66</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -9547,7 +9552,7 @@
       <c r="H47" s="6"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -9557,7 +9562,7 @@
       <c r="H48" s="6"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -9567,7 +9572,7 @@
       <c r="H49" s="6"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -9577,7 +9582,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -9587,7 +9592,7 @@
       <c r="H51" s="6"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -9597,7 +9602,7 @@
       <c r="H52" s="6"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -9607,7 +9612,7 @@
       <c r="H53" s="6"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -9617,7 +9622,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -9627,7 +9632,7 @@
       <c r="H55" s="6"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -9637,7 +9642,7 @@
       <c r="H56" s="6"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -9647,7 +9652,7 @@
       <c r="H57" s="6"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -9657,199 +9662,199 @@
       <c r="H58" s="6"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="8"/>
       <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="6"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="6"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="6"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="6"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="6"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="6"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="6"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="6"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="6"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="6"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -9868,30 +9873,30 @@
   <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F46"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="str">
         <f>股票账户月报!A1</f>
         <v>日期</v>
@@ -9929,7 +9934,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="34">
         <f>股票账户月报!A2</f>
         <v>42247</v>
@@ -9970,7 +9975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="34">
         <f>股票账户月报!A3</f>
         <v>42277</v>
@@ -10009,7 +10014,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <f>股票账户月报!A4</f>
         <v>42308</v>
@@ -10048,7 +10053,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <f>股票账户月报!A5</f>
         <v>42338</v>
@@ -10087,7 +10092,7 @@
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="34">
         <f>股票账户月报!A6</f>
         <v>42369</v>
@@ -10126,7 +10131,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="34">
         <f>股票账户月报!A7</f>
         <v>42400</v>
@@ -10165,7 +10170,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="34">
         <f>股票账户月报!A8</f>
         <v>42429</v>
@@ -10204,7 +10209,7 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="34">
         <f>股票账户月报!A9</f>
         <v>42460</v>
@@ -10243,7 +10248,7 @@
       </c>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <f>股票账户月报!A10</f>
         <v>42490</v>
@@ -10282,7 +10287,7 @@
       </c>
       <c r="K10" s="17"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <f>股票账户月报!A11</f>
         <v>42521</v>
@@ -10321,7 +10326,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <f>股票账户月报!A12</f>
         <v>42551</v>
@@ -10360,7 +10365,7 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <f>股票账户月报!A13</f>
         <v>42582</v>
@@ -10399,7 +10404,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="34">
         <f>股票账户月报!A14</f>
         <v>42613</v>
@@ -10438,7 +10443,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="26">
         <f>股票账户月报!A15</f>
         <v>42643</v>
@@ -10486,7 +10491,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <f>股票账户月报!A16</f>
         <v>42674</v>
@@ -10534,7 +10539,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="26">
         <f>股票账户月报!A17</f>
         <v>42704</v>
@@ -10582,7 +10587,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="26">
         <f>股票账户月报!A18</f>
         <v>42735</v>
@@ -10630,7 +10635,7 @@
       <c r="S18" s="4"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="26">
         <f>股票账户月报!A19</f>
         <v>42766</v>
@@ -10678,7 +10683,7 @@
       <c r="S19" s="4"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <f>股票账户月报!A20</f>
         <v>42794</v>
@@ -10726,7 +10731,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
         <f>股票账户月报!A21</f>
         <v>42825</v>
@@ -10774,7 +10779,7 @@
       <c r="S21" s="4"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="26">
         <f>股票账户月报!A22</f>
         <v>42855</v>
@@ -10822,7 +10827,7 @@
       <c r="S22" s="4"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="26">
         <f>股票账户月报!A23</f>
         <v>42886</v>
@@ -10870,7 +10875,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="26">
         <f>股票账户月报!A24</f>
         <v>42916</v>
@@ -10918,7 +10923,7 @@
       <c r="S24" s="4"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <f>股票账户月报!A25</f>
         <v>42947</v>
@@ -10966,7 +10971,7 @@
       <c r="S25" s="4"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <f>股票账户月报!A26</f>
         <v>42978</v>
@@ -11014,7 +11019,7 @@
       <c r="S26" s="4"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <f>股票账户月报!A27</f>
         <v>43008</v>
@@ -11062,7 +11067,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <f>股票账户月报!A28</f>
         <v>43039</v>
@@ -11110,7 +11115,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
         <f>股票账户月报!A29</f>
         <v>43069</v>
@@ -11158,7 +11163,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <f>股票账户月报!A30</f>
         <v>43100</v>
@@ -11206,7 +11211,7 @@
       <c r="S30" s="4"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <f>股票账户月报!A31</f>
         <v>43131</v>
@@ -11254,7 +11259,7 @@
       <c r="S31" s="4"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="26">
         <f>股票账户月报!A32</f>
         <v>43159</v>
@@ -11302,7 +11307,7 @@
       <c r="S32" s="4"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="26">
         <f>股票账户月报!A33</f>
         <v>43190</v>
@@ -11350,7 +11355,7 @@
       <c r="S33" s="4"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="26">
         <f>股票账户月报!A34</f>
         <v>43220</v>
@@ -11398,7 +11403,7 @@
       <c r="S34" s="4"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="26">
         <f>股票账户月报!A35</f>
         <v>43251</v>
@@ -11446,7 +11451,7 @@
       <c r="S35" s="4"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="26">
         <f>股票账户月报!A36</f>
         <v>43281</v>
@@ -11494,7 +11499,7 @@
       <c r="S36" s="4"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="26">
         <f>股票账户月报!A37</f>
         <v>43312</v>
@@ -11542,7 +11547,7 @@
       <c r="S37" s="4"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="26">
         <f>股票账户月报!A38</f>
         <v>43343</v>
@@ -11590,7 +11595,7 @@
       <c r="S38" s="4"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="26">
         <f>股票账户月报!A39</f>
         <v>43373</v>
@@ -11638,7 +11643,7 @@
       <c r="S39" s="4"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="26">
         <f>股票账户月报!A40</f>
         <v>43404</v>
@@ -11686,7 +11691,7 @@
       <c r="S40" s="4"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="26">
         <f>股票账户月报!A41</f>
         <v>43434</v>
@@ -11734,7 +11739,7 @@
       <c r="S41" s="4"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="26">
         <f>股票账户月报!A42</f>
         <v>43465</v>
@@ -11782,7 +11787,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="26">
         <f>股票账户月报!A43</f>
         <v>43496</v>
@@ -11830,7 +11835,7 @@
       <c r="S43" s="4"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="26">
         <f>股票账户月报!A44</f>
         <v>43524</v>
@@ -11878,7 +11883,7 @@
       <c r="S44" s="4"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="26">
         <f>股票账户月报!A45</f>
         <v>43555</v>
@@ -11926,7 +11931,7 @@
       <c r="S45" s="4"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
         <f>股票账户月报!A46</f>
         <v>43585</v>
@@ -11977,27 +11982,27 @@
       <c r="S46" s="4"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="J47" s="16">
         <f>F46^(1/YEARFRAC(A46,A2))</f>
         <v>1.0921389887918485</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="19"/>
       <c r="C51" s="4"/>
       <c r="D51" s="6"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="20"/>
       <c r="C52" s="14"/>
@@ -12007,7 +12012,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="20"/>
       <c r="C53" s="14"/>
@@ -12017,7 +12022,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="20"/>
       <c r="C54" s="14"/>
@@ -12027,7 +12032,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="20"/>
       <c r="C55" s="14"/>
@@ -12037,7 +12042,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="20"/>
       <c r="C56" s="14"/>
@@ -12047,7 +12052,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="20"/>
       <c r="C57" s="14"/>
@@ -12057,7 +12062,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="20"/>
       <c r="C58" s="14"/>
@@ -12067,7 +12072,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="17"/>
       <c r="B59" s="20"/>
       <c r="C59" s="14"/>
@@ -12077,7 +12082,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="20"/>
       <c r="C60" s="14"/>
@@ -12087,7 +12092,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="17"/>
       <c r="B61" s="20"/>
       <c r="C61" s="14"/>
@@ -12097,7 +12102,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62" s="20"/>
       <c r="C62" s="14"/>
@@ -12107,7 +12112,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="17"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -12117,7 +12122,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="17"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -12127,7 +12132,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="17"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -12137,7 +12142,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="17"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -12147,7 +12152,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -12157,7 +12162,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -12167,7 +12172,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -12177,7 +12182,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -12187,7 +12192,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -12197,7 +12202,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -12207,7 +12212,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -12217,7 +12222,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -12227,7 +12232,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -12237,7 +12242,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -12247,7 +12252,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -12257,7 +12262,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -12267,7 +12272,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -12277,7 +12282,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -12287,7 +12292,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="17"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -12297,7 +12302,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="17"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -12307,7 +12312,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="17"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -12317,7 +12322,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="17"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -12327,7 +12332,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="17"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -12337,7 +12342,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -12347,7 +12352,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="17"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -12357,7 +12362,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="17"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -12367,7 +12372,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="17"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -12377,7 +12382,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -12387,7 +12392,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -12397,7 +12402,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="17"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -12407,7 +12412,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="17"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -12417,7 +12422,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="17"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -12427,7 +12432,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="17"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -12437,7 +12442,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="17"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -12447,80 +12452,80 @@
       <c r="G96" s="6"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="17"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="21"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="17"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="17"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="17"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="17"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="17"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="17"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="17"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="17"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="17"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="17"/>
       <c r="B111" s="19"/>
       <c r="C111" s="4"/>
       <c r="D111" s="6"/>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="17"/>
       <c r="B112" s="20"/>
       <c r="C112" s="14"/>
@@ -12538,13 +12543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A70B20-9BA1-294F-BAF0-6C4C640036CD}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12558,7 +12563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>42247</v>
       </c>
@@ -12575,7 +12580,7 @@
         <v>0.97196400000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>42277</v>
       </c>
@@ -12592,7 +12597,7 @@
         <v>1.0180188000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>42308</v>
       </c>
@@ -12609,7 +12614,7 @@
         <v>1.1406098424283844</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>42338</v>
       </c>
@@ -12626,7 +12631,7 @@
         <v>1.1912039832235848</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>42369</v>
       </c>
@@ -12643,7 +12648,7 @@
         <v>1.2940334765265067</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>42400</v>
       </c>
@@ -12660,7 +12665,7 @@
         <v>1.1305054433595978</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42429</v>
       </c>
@@ -12677,7 +12682,7 @@
         <v>1.1327706531764805</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>42460</v>
       </c>
@@ -12694,7 +12699,7 @@
         <v>1.1340288563828609</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>42490</v>
       </c>
@@ -12711,7 +12716,7 @@
         <v>1.1397162234820082</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>42521</v>
       </c>
@@ -12728,7 +12733,7 @@
         <v>1.1452223088600362</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>42551</v>
       </c>
@@ -12745,7 +12750,7 @@
         <v>1.1624499499759708</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>42582</v>
       </c>
@@ -12762,7 +12767,7 @@
         <v>1.1647708308373783</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>42613</v>
       </c>
@@ -12779,7 +12784,7 @@
         <v>1.1758948062974202</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42643</v>
       </c>
@@ -12796,7 +12801,7 @@
         <v>1.1796194712364487</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42674</v>
       </c>
@@ -12813,7 +12818,7 @@
         <v>1.1832465354451678</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>42704</v>
       </c>
@@ -12830,7 +12835,7 @@
         <v>1.2115928737848121</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>42735</v>
       </c>
@@ -12847,7 +12852,7 @@
         <v>1.2117552290450337</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42766</v>
       </c>
@@ -12864,7 +12869,7 @@
         <v>1.2275088425055747</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>42794</v>
       </c>
@@ -12881,7 +12886,7 @@
         <v>1.2248118029693129</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42825</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>1.2185037521208604</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42855</v>
       </c>
@@ -12915,7 +12920,7 @@
         <v>1.1931750961131602</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>42886</v>
       </c>
@@ -12932,7 +12937,7 @@
         <v>1.1471264470681037</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42916</v>
       </c>
@@ -12949,7 +12954,7 @@
         <v>1.0892435136005287</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>42947</v>
       </c>
@@ -12966,7 +12971,7 @@
         <v>1.1078369280580622</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42978</v>
       </c>
@@ -12983,7 +12988,7 @@
         <v>1.0154590430177031</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>43008</v>
       </c>
@@ -13000,7 +13005,7 @@
         <v>1.1260748819881037</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>43039</v>
       </c>
@@ -13017,7 +13022,7 @@
         <v>1.1183101858245159</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43069</v>
       </c>
@@ -13034,7 +13039,7 @@
         <v>1.1394620014656454</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>43100</v>
       </c>
@@ -13051,7 +13056,7 @@
         <v>1.2074498669393425</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>43131</v>
       </c>
@@ -13068,7 +13073,7 @@
         <v>1.1841308494496219</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>43159</v>
       </c>
@@ -13085,7 +13090,7 @@
         <v>1.141622461183426</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>43190</v>
       </c>
@@ -13102,7 +13107,7 @@
         <v>1.1590256621240396</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>43220</v>
       </c>
@@ -13119,7 +13124,7 @@
         <v>1.2143609035372187</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>43251</v>
       </c>
@@ -13136,7 +13141,7 @@
         <v>1.2219740715283867</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>43281</v>
       </c>
@@ -13153,7 +13158,7 @@
         <v>1.1870612166386123</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>43312</v>
       </c>
@@ -13170,7 +13175,7 @@
         <v>1.1897406346044457</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>43343</v>
       </c>
@@ -13187,7 +13192,7 @@
         <v>1.1522888163234817</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>43373</v>
       </c>
@@ -13204,7 +13209,7 @@
         <v>1.1568235525788986</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>43404</v>
       </c>
@@ -13221,7 +13226,7 @@
         <v>1.0950445695279087</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>43434</v>
       </c>
@@ -13238,7 +13243,7 @@
         <v>1.1163154031781322</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>43465</v>
       </c>
@@ -13255,7 +13260,7 @@
         <v>1.0747453404924929</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>43496</v>
       </c>
@@ -13272,7 +13277,7 @@
         <v>1.096564174761544</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43524</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>1.250277155199655</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43555</v>
       </c>
@@ -13306,7 +13311,7 @@
         <v>1.3379787368760154</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>43585</v>
       </c>
@@ -13326,6 +13331,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Portfolio/投资组合基金模式.xlsx
+++ b/Portfolio/投资组合基金模式.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF6C479-80A8-478F-924C-3E64E49B9765}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F49999-D1DB-4321-8B89-A5D58FEA32FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26700" yWindow="2640" windowWidth="28800" windowHeight="15300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="股票账户月报" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -267,6 +267,7 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -644,7 +645,7 @@
                   <c:v>1.3353189494986151</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3971944412821813</c:v>
+                  <c:v>1.2786113881800421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1185,7 +1186,7 @@
                   <c:v>1.3851801219555058</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4141984196929014</c:v>
+                  <c:v>1.3770468904790942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1727,7 @@
                   <c:v>1.3379787368760154</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3815046213836213</c:v>
+                  <c:v>1.3079169801150337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2267,7 +2268,7 @@
                   <c:v>1.3353189494986151</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3971944412821813</c:v>
+                  <c:v>1.2786113881800421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2588,7 +2589,7 @@
                   <c:v>1.3851801219555058</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4141984196929014</c:v>
+                  <c:v>1.3770468904790942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2909,7 +2910,7 @@
                   <c:v>1.3379787368760154</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3815046213836213</c:v>
+                  <c:v>1.3079169801150337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5775,9 +5776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7377,11 +7378,11 @@
         <v>381454.6999999996</v>
       </c>
       <c r="E46" s="22">
-        <v>17675.7</v>
+        <v>-16199.4</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="3"/>
-        <v>1.3971944412821813</v>
+        <v>1.2786113881800421</v>
       </c>
       <c r="G46" s="22">
         <v>0</v>
@@ -7392,20 +7393,215 @@
       </c>
       <c r="I46" s="4">
         <f t="shared" si="5"/>
-        <v>399130.39999999962</v>
+        <v>365255.29999999958</v>
       </c>
       <c r="J46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" ref="B47:B51" si="6">F46</f>
+        <v>1.2786113881800421</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" ref="C47:C51" si="7">H46</f>
+        <v>285665.60831270163</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" ref="D47:D51" si="8">I46</f>
+        <v>365255.29999999958</v>
+      </c>
+      <c r="E47" s="22">
+        <v>-26932.79</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" ref="F47:F51" si="9">E47/C47+B47</f>
+        <v>1.1843305604700496</v>
+      </c>
+      <c r="G47" s="22">
+        <v>6500</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" ref="H47:H51" si="10">G47/F47+C47</f>
+        <v>291153.94089226471</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" ref="I47:I51" si="11">F47*H47</f>
+        <v>344822.50999999954</v>
+      </c>
       <c r="J47" s="16">
         <f>F46^(1/YEARFRAC(A46,A2))</f>
-        <v>1.0955078762581838</v>
+        <v>1.0693269653271571</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>43646</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1843305604700496</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="7"/>
+        <v>291153.94089226471</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="8"/>
+        <v>344822.50999999954</v>
+      </c>
+      <c r="E48" s="22">
+        <v>9844.66</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2181431201415081</v>
+      </c>
+      <c r="G48" s="22">
+        <v>12800</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="10"/>
+        <v>301661.73738050746</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="11"/>
+        <v>367467.16999999958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2181431201415081</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="7"/>
+        <v>301661.73738050746</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="8"/>
+        <v>367467.16999999958</v>
+      </c>
+      <c r="E49" s="22">
+        <v>-587.66</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2161950441107094</v>
+      </c>
+      <c r="G49" s="22">
+        <v>6100</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="10"/>
+        <v>306677.38024925499</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="11"/>
+        <v>372979.50999999949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2161950441107094</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="7"/>
+        <v>306677.38024925499</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="8"/>
+        <v>372979.50999999949</v>
+      </c>
+      <c r="E50" s="22">
+        <v>380.86</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2174369355071029</v>
+      </c>
+      <c r="G50" s="22">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="10"/>
+        <v>306677.38024925499</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="11"/>
+        <v>373360.36999999953</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2174369355071029</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="7"/>
+        <v>306677.38024925499</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="8"/>
+        <v>373360.36999999953</v>
+      </c>
+      <c r="E51" s="22">
+        <v>2944.72</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="9"/>
+        <v>1.2270389478811705</v>
+      </c>
+      <c r="G51" s="22">
+        <v>3500</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="10"/>
+        <v>309529.77544505848</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="11"/>
+        <v>379805.0899999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>43861</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
+      <c r="A56" s="3">
+        <v>43890</v>
+      </c>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -7416,7 +7612,9 @@
       <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
+      <c r="A57" s="3">
+        <v>43921</v>
+      </c>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
       <c r="D57" s="14"/>
@@ -7427,7 +7625,9 @@
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
+      <c r="A58" s="3">
+        <v>43951</v>
+      </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -7438,7 +7638,9 @@
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="3">
+        <v>43982</v>
+      </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -7449,7 +7651,9 @@
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="3">
+        <v>44012</v>
+      </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -7460,7 +7664,9 @@
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="3">
+        <v>44043</v>
+      </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -7471,7 +7677,9 @@
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="3">
+        <v>44074</v>
+      </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -7482,7 +7690,9 @@
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="3">
+        <v>44104</v>
+      </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -7493,7 +7703,9 @@
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="3">
+        <v>44135</v>
+      </c>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -7504,7 +7716,9 @@
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="3">
+        <v>44165</v>
+      </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -7515,7 +7729,9 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="3">
+        <v>44196</v>
+      </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -7922,8 +8138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E10E3B0-8DFB-4320-94CE-6A1DBDC28148}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8513,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" ref="H17:H46" si="11">G17/F17+C17</f>
+        <f t="shared" ref="H17:H51" si="11">G17/F17+C17</f>
         <v>3400</v>
       </c>
       <c r="I17" s="24">
@@ -9119,7 +9335,7 @@
       </c>
       <c r="J34" s="16">
         <f>F46^(1/YEARFRAC(A46,A15))</f>
-        <v>1.1435681997786131</v>
+        <v>1.1318440827931215</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -9525,74 +9741,205 @@
       </c>
       <c r="E46" s="10">
         <f t="shared" si="6"/>
-        <v>9726.0799999999599</v>
+        <v>-2726.0200000000259</v>
       </c>
       <c r="F46" s="6">
         <f t="shared" si="10"/>
-        <v>1.4141984196929014</v>
-      </c>
-      <c r="G46" s="22">
-        <v>12902.94</v>
+        <v>1.3770468904790942</v>
+      </c>
+      <c r="G46" s="36">
+        <f>12800+333.18</f>
+        <v>13133.18</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="11"/>
-        <v>344294.44498016924</v>
+        <v>344707.79701252759</v>
       </c>
       <c r="I46" s="24">
-        <v>486900.66</v>
+        <v>474678.8</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="4"/>
+      <c r="A47" s="3">
+        <v>43616</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" ref="B47:B51" si="12">F46</f>
+        <v>1.3770468904790942</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" ref="C47:C51" si="13">H46</f>
+        <v>344707.79701252759</v>
+      </c>
+      <c r="D47" s="4">
+        <f t="shared" ref="D47:D51" si="14">I46</f>
+        <v>474678.8</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" ref="E47:E51" si="15">I47-D47-G47</f>
+        <v>-24182.64999999998</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" ref="F47:F51" si="16">E47/C47+B47</f>
+        <v>1.3068928347554254</v>
+      </c>
+      <c r="G47" s="36">
+        <v>-3416.89</v>
+      </c>
+      <c r="H47" s="4">
+        <f t="shared" si="11"/>
+        <v>342093.28271638072</v>
+      </c>
+      <c r="I47" s="36">
+        <v>447079.26</v>
+      </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="4"/>
+      <c r="A48" s="3">
+        <v>43646</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="12"/>
+        <v>1.3068928347554254</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="13"/>
+        <v>342093.28271638072</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="14"/>
+        <v>447079.26</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="15"/>
+        <v>10860.169999999975</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="16"/>
+        <v>1.3386390588080146</v>
+      </c>
+      <c r="G48" s="36">
+        <f>-6400+785.99</f>
+        <v>-5614.01</v>
+      </c>
+      <c r="H48" s="4">
+        <f t="shared" si="11"/>
+        <v>337899.46365584998</v>
+      </c>
+      <c r="I48" s="24">
+        <v>452325.42</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="4"/>
+      <c r="A49" s="3">
+        <v>43677</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="12"/>
+        <v>1.3386390588080146</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="13"/>
+        <v>337899.46365584998</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="14"/>
+        <v>452325.42</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="15"/>
+        <v>359.80000000003929</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="16"/>
+        <v>1.3397038725727577</v>
+      </c>
+      <c r="G49" s="36">
+        <f>31638.37+342.87</f>
+        <v>31981.239999999998</v>
+      </c>
+      <c r="H49" s="4">
+        <f t="shared" si="11"/>
+        <v>361771.33613061073</v>
+      </c>
+      <c r="I49" s="24">
+        <v>484666.46</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="4"/>
+      <c r="A50" s="3">
+        <v>43708</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="12"/>
+        <v>1.3397038725727577</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="13"/>
+        <v>361771.33613061073</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="14"/>
+        <v>484666.46</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="15"/>
+        <v>-3072.2900000000191</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" si="16"/>
+        <v>1.3312115192734051</v>
+      </c>
+      <c r="G50" s="36">
+        <v>-23744.589999999986</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="11"/>
+        <v>343934.50880736148</v>
+      </c>
+      <c r="I50" s="24">
+        <v>457849.58</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="4"/>
+      <c r="A51" s="3">
+        <v>43738</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="12"/>
+        <v>1.3312115192734051</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="13"/>
+        <v>343934.50880736148</v>
+      </c>
+      <c r="D51" s="4">
+        <f t="shared" si="14"/>
+        <v>457849.58</v>
+      </c>
+      <c r="E51" s="10">
+        <f>I51-D51-G51</f>
+        <v>-22303.930000000051</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" si="16"/>
+        <v>1.2663621673507326</v>
+      </c>
+      <c r="G51" s="36">
+        <v>118769.82</v>
+      </c>
+      <c r="H51" s="4">
+        <f t="shared" si="11"/>
+        <v>437722.70231322874</v>
+      </c>
+      <c r="I51" s="24">
+        <v>554315.47</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>43769</v>
+      </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -9603,6 +9950,9 @@
       <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>43799</v>
+      </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -9613,6 +9963,9 @@
       <c r="I53" s="4"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>43830</v>
+      </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -9623,6 +9976,9 @@
       <c r="I54" s="4"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>43861</v>
+      </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -9633,6 +9989,9 @@
       <c r="I55" s="4"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>43890</v>
+      </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -9643,6 +10002,9 @@
       <c r="I56" s="4"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>43921</v>
+      </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -9653,6 +10015,9 @@
       <c r="I57" s="4"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>43951</v>
+      </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -9663,49 +10028,65 @@
       <c r="I58" s="4"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="A59" s="3">
+        <v>43982</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
+      <c r="A60" s="3">
+        <v>44012</v>
+      </c>
       <c r="B60" s="8"/>
       <c r="C60" s="7"/>
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="3">
+        <v>44043</v>
+      </c>
       <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="3">
+        <v>44074</v>
+      </c>
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="3">
+        <v>44104</v>
+      </c>
       <c r="B63" s="6"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3">
+        <v>44135</v>
+      </c>
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
+      <c r="A65" s="3">
+        <v>44165</v>
+      </c>
       <c r="B65" s="6"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
+      <c r="A66" s="3">
+        <v>44196</v>
+      </c>
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -9873,7 +10254,8 @@
   <dimension ref="A1:T112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11950,23 +12332,23 @@
       </c>
       <c r="E46" s="14">
         <f>股票账户月报!E46+天天基金账户月报!E46</f>
-        <v>27401.779999999962</v>
+        <v>-18925.420000000027</v>
       </c>
       <c r="F46" s="20">
         <f t="shared" si="9"/>
-        <v>1.3815046213836213</v>
+        <v>1.3079169801150337</v>
       </c>
       <c r="G46" s="14">
         <f>股票账户月报!G46+天天基金账户月报!G46</f>
-        <v>12902.94</v>
+        <v>13133.18</v>
       </c>
       <c r="H46" s="14">
         <f t="shared" si="10"/>
-        <v>638891.13821133412</v>
+        <v>639592.65971638774</v>
       </c>
       <c r="I46" s="14">
         <f t="shared" si="11"/>
-        <v>882631.06</v>
+        <v>836534.10000000021</v>
       </c>
       <c r="J46" t="s">
         <v>9</v>
@@ -11983,176 +12365,410 @@
       <c r="T46" s="18"/>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
+      <c r="A47" s="26">
+        <f>股票账户月报!A47</f>
+        <v>43616</v>
+      </c>
+      <c r="B47" s="20">
+        <f t="shared" ref="B47:B66" si="12">F46</f>
+        <v>1.3079169801150337</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" ref="C47:C66" si="13">H46</f>
+        <v>639592.65971638774</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" ref="D47:D66" si="14">I46</f>
+        <v>836534.10000000021</v>
+      </c>
+      <c r="E47" s="14">
+        <f>股票账户月报!E47+天天基金账户月报!E47</f>
+        <v>-51115.439999999981</v>
+      </c>
+      <c r="F47" s="20">
+        <f t="shared" ref="F47:F66" si="15">E47/C47+B47</f>
+        <v>1.2279982392985491</v>
+      </c>
+      <c r="G47" s="14">
+        <f>股票账户月报!G47+天天基金账户月报!G47</f>
+        <v>3083.11</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" ref="H47:H66" si="16">G47/F47+C47</f>
+        <v>642103.33921195532</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" ref="I47:I66" si="17">F47*H47</f>
+        <v>788501.77000000014</v>
+      </c>
       <c r="J47" s="16">
         <f>F46^(1/YEARFRAC(A46,A2))</f>
-        <v>1.0921389887918485</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
+        <v>1.0759562039102912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="26">
+        <f>股票账户月报!A48</f>
+        <v>43646</v>
+      </c>
+      <c r="B48" s="20">
+        <f t="shared" si="12"/>
+        <v>1.2279982392985491</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="13"/>
+        <v>642103.33921195532</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="14"/>
+        <v>788501.77000000014</v>
+      </c>
+      <c r="E48" s="14">
+        <f>股票账户月报!E48+天天基金账户月报!E48</f>
+        <v>20704.829999999973</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="15"/>
+        <v>1.2602435629646909</v>
+      </c>
+      <c r="G48" s="14">
+        <f>股票账户月报!G48+天天基金账户月报!G48</f>
+        <v>7185.99</v>
+      </c>
+      <c r="H48" s="14">
+        <f t="shared" si="16"/>
+        <v>647805.40364709927</v>
+      </c>
+      <c r="I48" s="14">
+        <f t="shared" si="17"/>
+        <v>816392.59000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="26">
+        <f>股票账户月报!A49</f>
+        <v>43677</v>
+      </c>
+      <c r="B49" s="20">
+        <f t="shared" si="12"/>
+        <v>1.2602435629646909</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" si="13"/>
+        <v>647805.40364709927</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="14"/>
+        <v>816392.59000000008</v>
+      </c>
+      <c r="E49" s="14">
+        <f>股票账户月报!E49+天天基金账户月报!E49</f>
+        <v>-227.85999999996068</v>
+      </c>
+      <c r="F49" s="20">
+        <f t="shared" si="15"/>
+        <v>1.2598918215332098</v>
+      </c>
+      <c r="G49" s="14">
+        <f>股票账户月报!G49+天天基金账户月报!G49</f>
+        <v>38081.24</v>
+      </c>
+      <c r="H49" s="14">
+        <f t="shared" si="16"/>
+        <v>678031.20506047574</v>
+      </c>
+      <c r="I49" s="14">
+        <f t="shared" si="17"/>
+        <v>854245.97000000009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="26">
+        <f>股票账户月报!A50</f>
+        <v>43708</v>
+      </c>
+      <c r="B50" s="20">
+        <f t="shared" si="12"/>
+        <v>1.2598918215332098</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" si="13"/>
+        <v>678031.20506047574</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="14"/>
+        <v>854245.97000000009</v>
+      </c>
+      <c r="E50" s="14">
+        <f>股票账户月报!E50+天天基金账户月报!E50</f>
+        <v>-2691.4300000000189</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="15"/>
+        <v>1.2559223434621232</v>
+      </c>
+      <c r="G50" s="14">
+        <f>股票账户月报!G50+天天基金账户月报!G50</f>
+        <v>-23744.589999999986</v>
+      </c>
+      <c r="H50" s="14">
+        <f t="shared" si="16"/>
+        <v>659125.10778176598</v>
+      </c>
+      <c r="I50" s="14">
+        <f t="shared" si="17"/>
+        <v>827809.95000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="26">
+        <f>股票账户月报!A51</f>
+        <v>43738</v>
+      </c>
+      <c r="B51" s="20">
+        <f t="shared" si="12"/>
+        <v>1.2559223434621232</v>
+      </c>
+      <c r="C51" s="10">
+        <f t="shared" si="13"/>
+        <v>659125.10778176598</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="14"/>
+        <v>827809.95000000007</v>
+      </c>
+      <c r="E51" s="14">
+        <f>股票账户月报!E51+天天基金账户月报!E51</f>
+        <v>-19359.21000000005</v>
+      </c>
+      <c r="F51" s="20">
+        <f t="shared" si="15"/>
+        <v>1.2265512729757446</v>
+      </c>
+      <c r="G51" s="14">
+        <f>股票账户月报!G51+天天基金账户月报!G51</f>
+        <v>122269.82</v>
+      </c>
+      <c r="H51" s="14">
+        <f t="shared" si="16"/>
+        <v>758810.96902045712</v>
+      </c>
+      <c r="I51" s="14">
+        <f t="shared" si="17"/>
+        <v>930720.56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="26">
+        <f>股票账户月报!A52</f>
+        <v>43769</v>
+      </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="26">
+        <f>股票账户月报!A53</f>
+        <v>43799</v>
+      </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="26">
+        <f>股票账户月报!A54</f>
+        <v>43830</v>
+      </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="26">
+        <f>股票账户月报!A55</f>
+        <v>43861</v>
+      </c>
       <c r="B55" s="20"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="26">
+        <f>股票账户月报!A56</f>
+        <v>43890</v>
+      </c>
       <c r="B56" s="20"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="26">
+        <f>股票账户月报!A57</f>
+        <v>43921</v>
+      </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="26">
+        <f>股票账户月报!A58</f>
+        <v>43951</v>
+      </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="26">
+        <f>股票账户月报!A59</f>
+        <v>43982</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="26">
+        <f>股票账户月报!A60</f>
+        <v>44012</v>
+      </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="26">
+        <f>股票账户月报!A61</f>
+        <v>44043</v>
+      </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="26">
+        <f>股票账户月报!A62</f>
+        <v>44074</v>
+      </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="26">
+        <f>股票账户月报!A63</f>
+        <v>44104</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="26">
+        <f>股票账户月报!A64</f>
+        <v>44135</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="26">
+        <f>股票账户月报!A65</f>
+        <v>44165</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="26">
+        <f>股票账户月报!A66</f>
+        <v>44196</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="17"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -12162,7 +12778,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="17"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -12172,7 +12788,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="17"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -12182,7 +12798,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="17"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -12192,7 +12808,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="17"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -12202,7 +12818,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="17"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -12212,7 +12828,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="17"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -12222,7 +12838,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="17"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -12232,7 +12848,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="17"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -12242,7 +12858,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="17"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -12252,7 +12868,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="17"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -12262,7 +12878,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -12272,7 +12888,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="17"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -12282,7 +12898,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="17"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -13317,15 +13933,15 @@
       </c>
       <c r="B46" s="6">
         <f>股票账户月报!F46</f>
-        <v>1.3971944412821813</v>
+        <v>1.2786113881800421</v>
       </c>
       <c r="C46" s="6">
         <f>天天基金账户月报!F46</f>
-        <v>1.4141984196929014</v>
+        <v>1.3770468904790942</v>
       </c>
       <c r="D46" s="6">
         <f>整体情况!F46</f>
-        <v>1.3815046213836213</v>
+        <v>1.3079169801150337</v>
       </c>
     </row>
   </sheetData>
